--- a/dailyglicko.xlsx
+++ b/dailyglicko.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="97">
+  <fonts count="96">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,12 +47,12 @@
     </font>
     <font>
       <name val="Assistant"/>
-      <color rgb="00FFCFD4"/>
+      <color rgb="00FFCFD3"/>
       <sz val="13"/>
     </font>
     <font>
       <name val="Assistant"/>
-      <color rgb="00FFCFD3"/>
+      <color rgb="00FFCFD2"/>
       <sz val="13"/>
     </font>
     <font>
@@ -67,11 +67,6 @@
     </font>
     <font>
       <name val="Assistant"/>
-      <color rgb="00FFD0CF"/>
-      <sz val="13"/>
-    </font>
-    <font>
-      <name val="Assistant"/>
       <color rgb="00FFD1CF"/>
       <sz val="13"/>
     </font>
@@ -82,7 +77,7 @@
     </font>
     <font>
       <name val="Assistant"/>
-      <color rgb="00FFD6CF"/>
+      <color rgb="00FFD5CF"/>
       <sz val="13"/>
     </font>
     <font>
@@ -103,6 +98,11 @@
     <font>
       <name val="Assistant"/>
       <color rgb="00FFDACF"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Assistant"/>
+      <color rgb="00FFDBCF"/>
       <sz val="13"/>
     </font>
     <font>
@@ -472,12 +472,7 @@
     </font>
     <font>
       <name val="Assistant"/>
-      <color rgb="00D8FFCF"/>
-      <sz val="13"/>
-    </font>
-    <font>
-      <name val="Assistant"/>
-      <color rgb="00D6FFCF"/>
+      <color rgb="00D7FFCF"/>
       <sz val="13"/>
     </font>
     <font>
@@ -506,7 +501,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="99">
+  <fills count="98">
     <fill>
       <patternFill/>
     </fill>
@@ -538,12 +533,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00300005"/>
+        <fgColor rgb="00300004"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00300004"/>
+        <fgColor rgb="00300003"/>
       </patternFill>
     </fill>
     <fill>
@@ -558,11 +553,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00300100"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00300200"/>
       </patternFill>
     </fill>
@@ -573,7 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00300700"/>
+        <fgColor rgb="00300600"/>
       </patternFill>
     </fill>
     <fill>
@@ -594,6 +584,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00300B00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00300C00"/>
       </patternFill>
     </fill>
     <fill>
@@ -963,12 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00093000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00073000"/>
+        <fgColor rgb="00083000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1018,7 +1008,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,12 +1097,12 @@
     <xf numFmtId="1" fontId="26" fillId="28" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="27" fillId="29" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="27" fillId="29" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="29" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="28" fillId="30" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1318,9 +1308,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="95" fillId="97" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="96" fillId="98" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1623,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G369"/>
+  <dimension ref="A1:G371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1679,13 +1666,13 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>6820.029</v>
+        <v>6806.056</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>7596.35</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>388.1605</v>
+        <v>395.147</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>155</v>
@@ -1702,16 +1689,16 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6368.874</v>
+        <v>6370.73</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6869.95</v>
+        <v>6872.9</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>250.538</v>
+        <v>251.085</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="n"/>
     </row>
@@ -1725,16 +1712,16 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>6273.328</v>
+        <v>6287.128000000001</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6723.3</v>
+        <v>6736.35</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>224.986</v>
+        <v>224.611</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="G4" s="1" t="n"/>
     </row>
@@ -1748,16 +1735,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6265.264999999999</v>
+        <v>6287.112000000001</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>6732.5</v>
+        <v>6769.450000000001</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>233.6175</v>
+        <v>241.169</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G5" s="1" t="n"/>
     </row>
@@ -1767,20 +1754,20 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>PlasmicTrojan</t>
+          <t>Oshawott_</t>
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6213.895</v>
+        <v>6184.371</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6788.200000000001</v>
+        <v>6898.65</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>287.1525</v>
+        <v>357.1395</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>533</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1" t="n"/>
     </row>
@@ -1790,20 +1777,20 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Oshawott_</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>6199.857</v>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>6171.671</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6898.65</v>
+        <v>6664.5</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>349.3965</v>
+        <v>246.4145</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>123</v>
+        <v>567</v>
       </c>
       <c r="G7" s="1" t="n"/>
     </row>
@@ -1813,20 +1800,20 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>PlasmicTrojan</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>6181.673000000001</v>
+        <v>6143.428</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>6667.3</v>
+        <v>6727.9</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>242.8135</v>
+        <v>292.236</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="G8" s="1" t="n"/>
     </row>
@@ -1840,16 +1827,16 @@
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>6059.032000000001</v>
+        <v>6073.065000000001</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>6544.650000000001</v>
+        <v>6575.2</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>242.809</v>
+        <v>251.0675</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G9" s="1" t="n"/>
     </row>
@@ -1863,13 +1850,13 @@
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>6038.815999999999</v>
+        <v>6025.907999999999</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6876.45</v>
+        <v>6876.5</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>418.817</v>
+        <v>425.296</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>104</v>
@@ -1882,20 +1869,20 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Cole</t>
+          <t>Blandy</t>
         </is>
       </c>
       <c r="C11" s="9" t="n">
-        <v>6035.861999999999</v>
+        <v>6024.928</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6818.8</v>
+        <v>6575.25</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>391.4690000000001</v>
+        <v>275.161</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>167</v>
+        <v>442</v>
       </c>
       <c r="G11" s="1" t="n"/>
     </row>
@@ -1905,20 +1892,20 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Blandy</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>5995.217000000001</v>
+          <t>Cole</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>6021.666</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6533.450000000001</v>
+        <v>6818.450000000001</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>269.1165</v>
+        <v>398.392</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>441</v>
+        <v>167</v>
       </c>
       <c r="G12" s="1" t="n"/>
     </row>
@@ -1932,16 +1919,16 @@
         </is>
       </c>
       <c r="C13" s="10" t="n">
-        <v>5971.233999999999</v>
+        <v>5944.924</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6603.8</v>
+        <v>6585.2</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>316.283</v>
+        <v>320.138</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G13" s="1" t="n"/>
     </row>
@@ -1954,17 +1941,17 @@
           <t>sighofdisdain~</t>
         </is>
       </c>
-      <c r="C14" s="11" t="n">
-        <v>5955.282999999999</v>
+      <c r="C14" s="10" t="n">
+        <v>5929.930999999999</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>6396.4</v>
+        <v>6381.849999999999</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>220.5585</v>
+        <v>225.9595</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G14" s="1" t="n"/>
     </row>
@@ -1977,17 +1964,17 @@
           <t>concraay</t>
         </is>
       </c>
-      <c r="C15" s="11" t="n">
-        <v>5922.415</v>
+      <c r="C15" s="10" t="n">
+        <v>5929.265</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6454.299999999999</v>
+        <v>6475.1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>265.9425</v>
+        <v>272.9175</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G15" s="1" t="n"/>
     </row>
@@ -1997,20 +1984,20 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>BrandotheMando</t>
-        </is>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>5824.454999999999</v>
+          <t>Wiscáuse</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>5829.047</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6321.65</v>
+        <v>6357.3</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>248.5975</v>
+        <v>264.1265</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="G16" s="1" t="n"/>
     </row>
@@ -2020,20 +2007,20 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Wiscáuse</t>
-        </is>
-      </c>
-      <c r="C17" s="12" t="n">
-        <v>5810.173999999999</v>
+          <t>BrandotheMando</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="n">
+        <v>5826.15</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>6331.849999999999</v>
+        <v>6331.599999999999</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>260.838</v>
+        <v>252.725</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>606</v>
+        <v>547</v>
       </c>
       <c r="G17" s="1" t="n"/>
     </row>
@@ -2043,20 +2030,20 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>terminatedslime789</t>
-        </is>
-      </c>
-      <c r="C18" s="13" t="n">
-        <v>5727.657999999999</v>
+          <t>MarbleMint</t>
+        </is>
+      </c>
+      <c r="C18" s="12" t="n">
+        <v>5773.534</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6261.7</v>
+        <v>6299.15</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>267.021</v>
+        <v>262.808</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="G18" s="1" t="n"/>
     </row>
@@ -2066,20 +2053,20 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>MarbleMint</t>
-        </is>
-      </c>
-      <c r="C19" s="14" t="n">
-        <v>5703.658</v>
+          <t>terminatedslime789</t>
+        </is>
+      </c>
+      <c r="C19" s="12" t="n">
+        <v>5760.025000000001</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6229</v>
+        <v>6299.95</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>262.671</v>
+        <v>269.9625</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="G19" s="1" t="n"/>
     </row>
@@ -2089,20 +2076,20 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>BurritoBurger</t>
-        </is>
-      </c>
-      <c r="C20" s="14" t="n">
-        <v>5703.465999999999</v>
+          <t>Funo</t>
+        </is>
+      </c>
+      <c r="C20" s="13" t="n">
+        <v>5682.74</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6244</v>
+        <v>6225</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>270.267</v>
+        <v>271.13</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>531</v>
+        <v>88</v>
       </c>
       <c r="G20" s="1" t="n"/>
     </row>
@@ -2116,13 +2103,13 @@
         </is>
       </c>
       <c r="C21" s="14" t="n">
-        <v>5673.067</v>
+        <v>5659.078</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>6445.15</v>
+        <v>6445.2</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>386.0415</v>
+        <v>393.061</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>198</v>
@@ -2135,20 +2122,20 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Funo</t>
+          <t>wyattcs</t>
         </is>
       </c>
       <c r="C22" s="14" t="n">
-        <v>5668.429</v>
+        <v>5650.708000000001</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>6232.75</v>
+        <v>6140.900000000001</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>282.1605</v>
+        <v>245.096</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>83</v>
+        <v>429</v>
       </c>
       <c r="G22" s="1" t="n"/>
     </row>
@@ -2161,14 +2148,14 @@
           <t>TheMooshroomKing</t>
         </is>
       </c>
-      <c r="C23" s="15" t="n">
-        <v>5650.407</v>
+      <c r="C23" s="14" t="n">
+        <v>5637.143</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>6465.25</v>
+        <v>6465.299999999999</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>407.4215</v>
+        <v>414.0785</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>124</v>
@@ -2181,20 +2168,20 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>wyattcs</t>
-        </is>
-      </c>
-      <c r="C24" s="15" t="n">
-        <v>5639.502</v>
+          <t>YoshiAwesum</t>
+        </is>
+      </c>
+      <c r="C24" s="14" t="n">
+        <v>5633.98</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>6125.15</v>
+        <v>6081.1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>242.824</v>
+        <v>223.56</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="G24" s="1" t="n"/>
     </row>
@@ -2204,20 +2191,20 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Verxite</t>
+          <t>Ean EStone</t>
         </is>
       </c>
       <c r="C25" s="15" t="n">
-        <v>5637.923</v>
+        <v>5617.330000000001</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>6082.55</v>
+        <v>6144.85</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>222.3135</v>
+        <v>263.76</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>424</v>
+        <v>98</v>
       </c>
       <c r="G25" s="1" t="n"/>
     </row>
@@ -2227,20 +2214,20 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>4DJumpman256</t>
-        </is>
-      </c>
-      <c r="C26" s="16" t="n">
-        <v>5607.797</v>
+          <t>BurritoBurger</t>
+        </is>
+      </c>
+      <c r="C26" s="15" t="n">
+        <v>5615.376999999999</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>6151.65</v>
+        <v>6158.6</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>271.9265</v>
+        <v>271.6115</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>70</v>
+        <v>533</v>
       </c>
       <c r="G26" s="1" t="n"/>
     </row>
@@ -2250,20 +2237,20 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Real Frog Hours</t>
-        </is>
-      </c>
-      <c r="C27" s="16" t="n">
-        <v>5596.659</v>
+          <t>worldceriise~</t>
+        </is>
+      </c>
+      <c r="C27" s="15" t="n">
+        <v>5602.268</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>6242.35</v>
+        <v>6054.450000000001</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>322.8455</v>
+        <v>226.091</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>55</v>
+        <v>372</v>
       </c>
       <c r="G27" s="1" t="n"/>
     </row>
@@ -2276,17 +2263,17 @@
           <t>Bipede</t>
         </is>
       </c>
-      <c r="C28" s="16" t="n">
-        <v>5591.978</v>
+      <c r="C28" s="15" t="n">
+        <v>5599.695</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>6047.5</v>
+        <v>6060.599999999999</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>227.761</v>
+        <v>230.4525</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G28" s="1" t="n"/>
     </row>
@@ -2296,20 +2283,20 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Quippy</t>
-        </is>
-      </c>
-      <c r="C29" s="17" t="n">
-        <v>5578.561</v>
+          <t>4DJumpman256</t>
+        </is>
+      </c>
+      <c r="C29" s="16" t="n">
+        <v>5583.043</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6136.3</v>
+        <v>6137.3</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>278.8695</v>
+        <v>277.1285</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="G29" s="1" t="n"/>
     </row>
@@ -2319,20 +2306,20 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Crafty7</t>
-        </is>
-      </c>
-      <c r="C30" s="17" t="n">
-        <v>5574.022</v>
+          <t>Quippy</t>
+        </is>
+      </c>
+      <c r="C30" s="16" t="n">
+        <v>5559.415</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>6157.25</v>
+        <v>6136.35</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>291.614</v>
+        <v>288.4675</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>410</v>
+        <v>148</v>
       </c>
       <c r="G30" s="1" t="n"/>
     </row>
@@ -2342,20 +2329,20 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>worldceriise~</t>
-        </is>
-      </c>
-      <c r="C31" s="17" t="n">
-        <v>5557.204000000001</v>
+          <t>Verxite</t>
+        </is>
+      </c>
+      <c r="C31" s="16" t="n">
+        <v>5556.636</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>6012.55</v>
+        <v>5994.8</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>227.673</v>
+        <v>219.082</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>365</v>
+        <v>433</v>
       </c>
       <c r="G31" s="1" t="n"/>
     </row>
@@ -2365,20 +2352,20 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Ean EStone</t>
-        </is>
-      </c>
-      <c r="C32" s="17" t="n">
-        <v>5547.290000000001</v>
+          <t>Crafty7</t>
+        </is>
+      </c>
+      <c r="C32" s="16" t="n">
+        <v>5555.33</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>6069.75</v>
+        <v>6157</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>261.23</v>
+        <v>300.835</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>96</v>
+        <v>410</v>
       </c>
       <c r="G32" s="1" t="n"/>
     </row>
@@ -2388,20 +2375,20 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Alecane6</t>
+          <t>Real Frog Hours</t>
         </is>
       </c>
       <c r="C33" s="17" t="n">
-        <v>5545.057000000001</v>
+        <v>5537.403</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>6208.400000000001</v>
+        <v>6187.05</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>331.6715</v>
+        <v>324.8235</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="n"/>
     </row>
@@ -2411,20 +2398,20 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>YoshiAwesum</t>
+          <t>Alecane6</t>
         </is>
       </c>
       <c r="C34" s="17" t="n">
-        <v>5541.73</v>
+        <v>5529.227</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>5996.3</v>
+        <v>6208.75</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>227.285</v>
+        <v>339.7615</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>324</v>
+        <v>52</v>
       </c>
       <c r="G34" s="1" t="n"/>
     </row>
@@ -2438,16 +2425,16 @@
         </is>
       </c>
       <c r="C35" s="18" t="n">
-        <v>5482.693</v>
+        <v>5490.486999999999</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>5925.950000000001</v>
+        <v>5956.599999999999</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>221.6285</v>
+        <v>233.0565</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G35" s="1" t="n"/>
     </row>
@@ -2461,13 +2448,13 @@
         </is>
       </c>
       <c r="C36" s="18" t="n">
-        <v>5472.763999999999</v>
+        <v>5460.972</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>6386.5</v>
+        <v>6386.599999999999</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>456.868</v>
+        <v>462.814</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>181</v>
@@ -2480,20 +2467,20 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>PokeLeaf</t>
-        </is>
-      </c>
-      <c r="C37" s="18" t="n">
-        <v>5460.693</v>
+          <t>Triko</t>
+        </is>
+      </c>
+      <c r="C37" s="19" t="n">
+        <v>5434.52</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>5931.35</v>
+        <v>5928.3</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>235.3285</v>
+        <v>246.89</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>498</v>
+        <v>240</v>
       </c>
       <c r="G37" s="1" t="n"/>
     </row>
@@ -2507,13 +2494,13 @@
         </is>
       </c>
       <c r="C38" s="19" t="n">
-        <v>5449.619000000001</v>
+        <v>5430.743</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>6021.15</v>
+        <v>6021.1</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>285.7655</v>
+        <v>295.1785</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>509</v>
@@ -2526,20 +2513,20 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Triko</t>
-        </is>
-      </c>
-      <c r="C39" s="19" t="n">
-        <v>5449.243</v>
+          <t>PokeLeaf</t>
+        </is>
+      </c>
+      <c r="C39" s="20" t="n">
+        <v>5411.907</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>5932.1</v>
+        <v>5888.3</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>241.4285</v>
+        <v>238.1965</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>238</v>
+        <v>501</v>
       </c>
       <c r="G39" s="1" t="n"/>
     </row>
@@ -2549,20 +2536,20 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="C40" s="19" t="n">
-        <v>5440.29</v>
+          <t>dizzy</t>
+        </is>
+      </c>
+      <c r="C40" s="20" t="n">
+        <v>5411.523000000001</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>6243.150000000001</v>
+        <v>5995.85</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>401.43</v>
+        <v>292.1635</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G40" s="1" t="n"/>
     </row>
@@ -2572,20 +2559,20 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>izzy</t>
-        </is>
-      </c>
-      <c r="C41" s="19" t="n">
-        <v>5435.746</v>
+          <t>Moralitea</t>
+        </is>
+      </c>
+      <c r="C41" s="20" t="n">
+        <v>5409.562999999999</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>6118.200000000001</v>
+        <v>5903.099999999999</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>341.227</v>
+        <v>246.7685</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>328</v>
+        <v>70</v>
       </c>
       <c r="G41" s="1" t="n"/>
     </row>
@@ -2595,20 +2582,20 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>dizzy</t>
-        </is>
-      </c>
-      <c r="C42" s="19" t="n">
-        <v>5428.177000000001</v>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C42" s="20" t="n">
+        <v>5381.35</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>6003.65</v>
+        <v>6170.15</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>287.7365</v>
+        <v>394.4</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="G42" s="1" t="n"/>
     </row>
@@ -2618,20 +2605,20 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>MetaCyde</t>
-        </is>
-      </c>
-      <c r="C43" s="20" t="n">
-        <v>5415.818</v>
+          <t>izzy</t>
+        </is>
+      </c>
+      <c r="C43" s="21" t="n">
+        <v>5369.182000000001</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>5961.1</v>
+        <v>6050.650000000001</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>272.641</v>
+        <v>340.734</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="G43" s="1" t="n"/>
     </row>
@@ -2641,20 +2628,20 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Moralitea</t>
-        </is>
-      </c>
-      <c r="C44" s="20" t="n">
-        <v>5415.749000000001</v>
+          <t>Bled</t>
+        </is>
+      </c>
+      <c r="C44" s="21" t="n">
+        <v>5360.800999999999</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>5917</v>
+        <v>6238.049999999999</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>250.6255</v>
+        <v>438.6245</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>62</v>
+        <v>277</v>
       </c>
       <c r="G44" s="1" t="n"/>
     </row>
@@ -2664,20 +2651,20 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>AnEpik</t>
-        </is>
-      </c>
-      <c r="C45" s="20" t="n">
-        <v>5406.572</v>
+          <t>MetaCyde</t>
+        </is>
+      </c>
+      <c r="C45" s="21" t="n">
+        <v>5360.516</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>5893.6</v>
+        <v>5915.950000000001</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>243.514</v>
+        <v>277.717</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>713</v>
+        <v>46</v>
       </c>
       <c r="G45" s="1" t="n"/>
     </row>
@@ -2687,64 +2674,64 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Bled</t>
+          <t>LeiZ123321</t>
         </is>
       </c>
       <c r="C46" s="21" t="n">
-        <v>5373.308999999999</v>
+        <v>5345.753999999999</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>6238</v>
+        <v>5908</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>432.3455</v>
+        <v>281.123</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>277</v>
+        <v>53</v>
       </c>
       <c r="G46" s="1" t="n"/>
     </row>
     <row r="47" ht="23" customHeight="1">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="22" t="inlineStr">
+        <is>
+          <t>MrFerf</t>
+        </is>
+      </c>
+      <c r="C47" s="23" t="n">
+        <v>5345.57</v>
+      </c>
+      <c r="D47" s="22" t="n">
+        <v>6561.45</v>
+      </c>
+      <c r="E47" s="22" t="n">
+        <v>607.9399999999999</v>
+      </c>
+      <c r="F47" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="G47" s="1" t="n"/>
+    </row>
+    <row r="48" ht="23" customHeight="1">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Dan.</t>
         </is>
       </c>
-      <c r="C47" s="21" t="n">
-        <v>5358.018999999999</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>6047.849999999999</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>344.9155</v>
-      </c>
-      <c r="F47" s="2" t="n">
+      <c r="C48" s="21" t="n">
+        <v>5342.19</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>6047.7</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>352.755</v>
+      </c>
+      <c r="F48" s="2" t="n">
         <v>65</v>
-      </c>
-      <c r="G47" s="1" t="n"/>
-    </row>
-    <row r="48" ht="23" customHeight="1">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="22" t="inlineStr">
-        <is>
-          <t>MrFerf</t>
-        </is>
-      </c>
-      <c r="C48" s="23" t="n">
-        <v>5354.51</v>
-      </c>
-      <c r="D48" s="22" t="n">
-        <v>6561.35</v>
-      </c>
-      <c r="E48" s="22" t="n">
-        <v>603.42</v>
-      </c>
-      <c r="F48" s="22" t="n">
-        <v>34</v>
       </c>
       <c r="G48" s="1" t="n"/>
     </row>
@@ -2756,13 +2743,13 @@
         </is>
       </c>
       <c r="C49" s="24" t="n">
-        <v>5332.940000000001</v>
+        <v>5323.35</v>
       </c>
       <c r="D49" s="22" t="n">
-        <v>6463.150000000001</v>
+        <v>6463.200000000001</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>565.105</v>
+        <v>569.925</v>
       </c>
       <c r="F49" s="22" t="n">
         <v>79</v>
@@ -2779,13 +2766,13 @@
         </is>
       </c>
       <c r="C50" s="25" t="n">
-        <v>5324.933</v>
+        <v>5308.034</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>5964.95</v>
+        <v>5964.9</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>320.0085</v>
+        <v>328.433</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>378</v>
@@ -2802,13 +2789,13 @@
         </is>
       </c>
       <c r="C51" s="25" t="n">
-        <v>5321</v>
+        <v>5304.988000000001</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>6002.4</v>
+        <v>6002.25</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>340.7</v>
+        <v>348.631</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>262</v>
@@ -2821,20 +2808,20 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>LeiZ123321</t>
+          <t>AnEpik</t>
         </is>
       </c>
       <c r="C52" s="25" t="n">
-        <v>5319.683</v>
+        <v>5303.355</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>5873.150000000001</v>
+        <v>5790.599999999999</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>276.7335</v>
+        <v>243.6225</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>52</v>
+        <v>717</v>
       </c>
       <c r="G52" s="1" t="n"/>
     </row>
@@ -2847,17 +2834,17 @@
           <t>Navy</t>
         </is>
       </c>
-      <c r="C53" s="25" t="n">
-        <v>5297.744000000001</v>
+      <c r="C53" s="26" t="n">
+        <v>5274.898000000001</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>5758.7</v>
+        <v>5738.55</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>230.478</v>
+        <v>231.826</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G53" s="1" t="n"/>
     </row>
@@ -2867,20 +2854,20 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>tbdotwav</t>
+          <t>japanjane</t>
         </is>
       </c>
       <c r="C54" s="26" t="n">
-        <v>5254.017</v>
+        <v>5270.147000000001</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>5821.7</v>
+        <v>6035.900000000001</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>283.8415</v>
+        <v>382.8765</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="G54" s="1" t="n"/>
     </row>
@@ -2890,20 +2877,20 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>japanjane</t>
-        </is>
-      </c>
-      <c r="C55" s="27" t="n">
-        <v>5227.254000000001</v>
+          <t>JamimaFlemms</t>
+        </is>
+      </c>
+      <c r="C55" s="26" t="n">
+        <v>5257.953</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>6004.95</v>
+        <v>5941.5</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>388.848</v>
+        <v>341.7735</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G55" s="1" t="n"/>
     </row>
@@ -2913,20 +2900,20 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Rizlyme</t>
+          <t>Purplegaze</t>
         </is>
       </c>
       <c r="C56" s="27" t="n">
-        <v>5224.453</v>
+        <v>5238.985000000001</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>5794.15</v>
+        <v>6006.4</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>284.8485</v>
+        <v>383.7075</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>26</v>
+        <v>953</v>
       </c>
       <c r="G56" s="1" t="n"/>
     </row>
@@ -2936,20 +2923,20 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>biscuitmistress</t>
+          <t>Rizlyme</t>
         </is>
       </c>
       <c r="C57" s="27" t="n">
-        <v>5217.302</v>
+        <v>5225.225</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>6080.549999999999</v>
+        <v>5792.65</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>431.624</v>
+        <v>283.7125</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>379</v>
+        <v>28</v>
       </c>
       <c r="G57" s="1" t="n"/>
     </row>
@@ -2959,20 +2946,20 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>JamimaFlemms</t>
+          <t>biscuitmistress</t>
         </is>
       </c>
       <c r="C58" s="28" t="n">
-        <v>5195.307000000001</v>
+        <v>5204.772999999999</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>5902.4</v>
+        <v>6080.599999999999</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>353.5465</v>
+        <v>437.9135</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="G58" s="1" t="n"/>
     </row>
@@ -2982,20 +2969,20 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>mazuat</t>
+          <t>Gizmote</t>
         </is>
       </c>
       <c r="C59" s="28" t="n">
-        <v>5191.36</v>
+        <v>5199.809999999999</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>5849.700000000001</v>
+        <v>5814.9</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>329.17</v>
+        <v>307.545</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>853</v>
+        <v>627</v>
       </c>
       <c r="G59" s="1" t="n"/>
     </row>
@@ -3005,20 +2992,20 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Gizmode</t>
+          <t>Yjntrx</t>
         </is>
       </c>
       <c r="C60" s="28" t="n">
-        <v>5173.805</v>
+        <v>5182.147999999999</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>5794.349999999999</v>
+        <v>5913.450000000001</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>310.2725</v>
+        <v>365.651</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>625</v>
+        <v>115</v>
       </c>
       <c r="G60" s="1" t="n"/>
     </row>
@@ -3028,20 +3015,20 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Alleywr</t>
-        </is>
-      </c>
-      <c r="C61" s="29" t="n">
-        <v>5157.865999999999</v>
+          <t>iTeoti</t>
+        </is>
+      </c>
+      <c r="C61" s="28" t="n">
+        <v>5181.366</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>5843.099999999999</v>
+        <v>5679.450000000001</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>342.617</v>
+        <v>249.042</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>230</v>
+        <v>456</v>
       </c>
       <c r="G61" s="1" t="n"/>
     </row>
@@ -3051,20 +3038,20 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Purplegaze</t>
-        </is>
-      </c>
-      <c r="C62" s="29" t="n">
-        <v>5157.769</v>
+          <t>mazuat</t>
+        </is>
+      </c>
+      <c r="C62" s="28" t="n">
+        <v>5175.001</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>5931</v>
+        <v>5849.75</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>386.6155</v>
+        <v>337.3745</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>952</v>
+        <v>853</v>
       </c>
       <c r="G62" s="1" t="n"/>
     </row>
@@ -3074,20 +3061,20 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Heronix</t>
-        </is>
-      </c>
-      <c r="C63" s="29" t="n">
-        <v>5153.773</v>
+          <t>tbdotwav</t>
+        </is>
+      </c>
+      <c r="C63" s="28" t="n">
+        <v>5172.212</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>5817.3</v>
+        <v>5732.849999999999</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>331.7635</v>
+        <v>280.319</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G63" s="1" t="n"/>
     </row>
@@ -3097,20 +3084,20 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>iTeoti</t>
+          <t>Nonexistential</t>
         </is>
       </c>
       <c r="C64" s="29" t="n">
-        <v>5136.983</v>
+        <v>5161.544</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>5633.55</v>
+        <v>5907.75</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>248.2835</v>
+        <v>373.103</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>453</v>
+        <v>90</v>
       </c>
       <c r="G64" s="1" t="n"/>
     </row>
@@ -3120,20 +3107,20 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>nate#5410</t>
+          <t>Alleywr</t>
         </is>
       </c>
       <c r="C65" s="29" t="n">
-        <v>5129.71</v>
+        <v>5142.008999999999</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>5664.349999999999</v>
+        <v>5843</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>267.32</v>
+        <v>350.4955</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="G65" s="1" t="n"/>
     </row>
@@ -3147,16 +3134,16 @@
         </is>
       </c>
       <c r="C66" s="29" t="n">
-        <v>5126.591</v>
+        <v>5139.969</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>5580.950000000001</v>
+        <v>5606.75</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>227.1795</v>
+        <v>233.3905</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G66" s="1" t="n"/>
     </row>
@@ -3166,87 +3153,87 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>franeko</t>
-        </is>
-      </c>
-      <c r="C67" s="30" t="n">
-        <v>5116.513999999999</v>
+          <t>RazorForce21</t>
+        </is>
+      </c>
+      <c r="C67" s="29" t="n">
+        <v>5137.820000000001</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>5731.75</v>
+        <v>5664.5</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>307.618</v>
+        <v>263.34</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="G67" s="1" t="n"/>
     </row>
     <row r="68" ht="23" customHeight="1">
-      <c r="A68" s="1" t="n"/>
-      <c r="B68" s="22" t="inlineStr">
-        <is>
-          <t>chip idiot</t>
-        </is>
-      </c>
-      <c r="C68" s="31" t="n">
-        <v>5111.47</v>
-      </c>
-      <c r="D68" s="22" t="n">
-        <v>6159.9</v>
-      </c>
-      <c r="E68" s="22" t="n">
-        <v>524.215</v>
-      </c>
-      <c r="F68" s="22" t="n">
-        <v>64</v>
+      <c r="A68" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Heronix</t>
+        </is>
+      </c>
+      <c r="C68" s="29" t="n">
+        <v>5137.345</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>5817.150000000001</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>339.9025</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>256</v>
       </c>
       <c r="G68" s="1" t="n"/>
     </row>
     <row r="69" ht="23" customHeight="1">
       <c r="A69" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Nonexistential</t>
-        </is>
-      </c>
-      <c r="C69" s="30" t="n">
-        <v>5110.380999999999</v>
+          <t>nate#5410</t>
+        </is>
+      </c>
+      <c r="C69" s="29" t="n">
+        <v>5132.596</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>5863.6</v>
+        <v>5679.25</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>376.6095</v>
+        <v>273.327</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G69" s="1" t="n"/>
     </row>
     <row r="70" ht="23" customHeight="1">
-      <c r="A70" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>Yjntrx</t>
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="22" t="inlineStr">
+        <is>
+          <t>chip idiot</t>
         </is>
       </c>
       <c r="C70" s="30" t="n">
-        <v>5106.094</v>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>5842.75</v>
-      </c>
-      <c r="E70" s="2" t="n">
-        <v>368.328</v>
-      </c>
-      <c r="F70" s="2" t="n">
-        <v>114</v>
+        <v>5101.190000000001</v>
+      </c>
+      <c r="D70" s="22" t="n">
+        <v>6160</v>
+      </c>
+      <c r="E70" s="22" t="n">
+        <v>529.405</v>
+      </c>
+      <c r="F70" s="22" t="n">
+        <v>64</v>
       </c>
       <c r="G70" s="1" t="n"/>
     </row>
@@ -3256,20 +3243,20 @@
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>michael</t>
-        </is>
-      </c>
-      <c r="C71" s="30" t="n">
-        <v>5102.504000000001</v>
+          <t>franeko</t>
+        </is>
+      </c>
+      <c r="C71" s="31" t="n">
+        <v>5098.945</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>5713.150000000001</v>
+        <v>5731.65</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>305.323</v>
+        <v>316.3525</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>402</v>
+        <v>116</v>
       </c>
       <c r="G71" s="1" t="n"/>
     </row>
@@ -3279,20 +3266,20 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>LuckiestPara</t>
-        </is>
-      </c>
-      <c r="C72" s="32" t="n">
-        <v>5073.001</v>
+          <t>michael</t>
+        </is>
+      </c>
+      <c r="C72" s="31" t="n">
+        <v>5084.911000000001</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>5844.049999999999</v>
+        <v>5713.200000000001</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>385.5245</v>
+        <v>314.1445</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>14</v>
+        <v>402</v>
       </c>
       <c r="G72" s="1" t="n"/>
     </row>
@@ -3306,13 +3293,13 @@
         </is>
       </c>
       <c r="C73" s="32" t="n">
-        <v>5065.071</v>
+        <v>5047.299000000001</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>5670.650000000001</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>302.7895</v>
+        <v>311.6755</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>157</v>
@@ -3325,20 +3312,20 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>JCL Kaytwo</t>
+          <t>Xes</t>
         </is>
       </c>
       <c r="C74" s="32" t="n">
-        <v>5049.116</v>
+        <v>5046.832</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>5648.3</v>
+        <v>5703.55</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>299.592</v>
+        <v>328.359</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>495</v>
+        <v>23</v>
       </c>
       <c r="G74" s="1" t="n"/>
     </row>
@@ -3348,20 +3335,20 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>IronicIntrovert</t>
-        </is>
-      </c>
-      <c r="C75" s="32" t="n">
-        <v>5045.460000000001</v>
+          <t>Cohaki</t>
+        </is>
+      </c>
+      <c r="C75" s="33" t="n">
+        <v>5036.317</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>5592.200000000001</v>
+        <v>5528.65</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>273.37</v>
+        <v>246.1665</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>262</v>
+        <v>371</v>
       </c>
       <c r="G75" s="1" t="n"/>
     </row>
@@ -3371,20 +3358,20 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>amazingpikachu_37</t>
+          <t>LuckiestPara</t>
         </is>
       </c>
       <c r="C76" s="33" t="n">
-        <v>5039.337</v>
+        <v>5035.744999999999</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>5849.85</v>
+        <v>5794</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>405.2565</v>
+        <v>379.1275000000001</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G76" s="1" t="n"/>
     </row>
@@ -3394,20 +3381,20 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>GioD</t>
+          <t>JCL Kaytwo</t>
         </is>
       </c>
       <c r="C77" s="33" t="n">
-        <v>5030.624</v>
+        <v>5030.992</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>5574.9</v>
+        <v>5648.150000000001</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>272.138</v>
+        <v>308.579</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>123</v>
+        <v>495</v>
       </c>
       <c r="G77" s="1" t="n"/>
     </row>
@@ -3417,20 +3404,20 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>RazorForce21</t>
+          <t>IronicIntrovert</t>
         </is>
       </c>
       <c r="C78" s="33" t="n">
-        <v>5025.024</v>
+        <v>5030.854</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>5553.400000000001</v>
+        <v>5589.700000000001</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>264.188</v>
+        <v>279.423</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G78" s="1" t="n"/>
     </row>
@@ -3440,20 +3427,20 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Koopa472</t>
+          <t>darrest</t>
         </is>
       </c>
       <c r="C79" s="33" t="n">
-        <v>5023.354</v>
+        <v>5028.071000000001</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>5456.549999999999</v>
+        <v>5504.400000000001</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>216.598</v>
+        <v>238.1645</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>478</v>
+        <v>218</v>
       </c>
       <c r="G79" s="1" t="n"/>
     </row>
@@ -3463,20 +3450,20 @@
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Xes</t>
+          <t>amazingpikachu_37</t>
         </is>
       </c>
       <c r="C80" s="33" t="n">
-        <v>5016.964999999999</v>
+        <v>5025.666</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>5672.95</v>
+        <v>5849.55</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>327.9925</v>
+        <v>411.942</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G80" s="1" t="n"/>
     </row>
@@ -3486,20 +3473,20 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Samburger</t>
+          <t>Koopa472</t>
         </is>
       </c>
       <c r="C81" s="33" t="n">
-        <v>5010.702</v>
+        <v>5003.911</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>5735.2</v>
+        <v>5439.6</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>362.249</v>
+        <v>217.8445</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>317</v>
+        <v>486</v>
       </c>
       <c r="G81" s="1" t="n"/>
     </row>
@@ -3509,20 +3496,20 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>darrest</t>
-        </is>
-      </c>
-      <c r="C82" s="33" t="n">
-        <v>5008.51</v>
+          <t>Samburger</t>
+        </is>
+      </c>
+      <c r="C82" s="34" t="n">
+        <v>4995.811</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>5464.95</v>
+        <v>5735.25</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>228.22</v>
+        <v>369.7195</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>216</v>
+        <v>317</v>
       </c>
       <c r="G82" s="1" t="n"/>
     </row>
@@ -3532,20 +3519,20 @@
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Neonic</t>
-        </is>
-      </c>
-      <c r="C83" s="33" t="n">
-        <v>5005.005</v>
+          <t>Thanos Whale</t>
+        </is>
+      </c>
+      <c r="C83" s="34" t="n">
+        <v>4992.300999999999</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>5539.9</v>
+        <v>5501</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>267.4475</v>
+        <v>254.3495</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="G83" s="1" t="n"/>
     </row>
@@ -3555,64 +3542,64 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Thanos Whale</t>
+          <t>TaraMinova</t>
         </is>
       </c>
       <c r="C84" s="34" t="n">
-        <v>4993.047</v>
+        <v>4990.422</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>5494.75</v>
+        <v>5759.450000000001</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>250.8515</v>
+        <v>384.514</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="G84" s="1" t="n"/>
     </row>
     <row r="85" ht="23" customHeight="1">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="22" t="inlineStr">
+        <is>
+          <t>Kunai</t>
+        </is>
+      </c>
+      <c r="C85" s="35" t="n">
+        <v>4972.61</v>
+      </c>
+      <c r="D85" s="22" t="n">
+        <v>6210.1</v>
+      </c>
+      <c r="E85" s="22" t="n">
+        <v>618.745</v>
+      </c>
+      <c r="F85" s="22" t="n">
+        <v>148</v>
+      </c>
+      <c r="G85" s="1" t="n"/>
+    </row>
+    <row r="86" ht="23" customHeight="1">
+      <c r="A86" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>Cohaki</t>
-        </is>
-      </c>
-      <c r="C85" s="34" t="n">
-        <v>4986.098</v>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>5473.85</v>
-      </c>
-      <c r="E85" s="2" t="n">
-        <v>243.876</v>
-      </c>
-      <c r="F85" s="2" t="n">
-        <v>368</v>
-      </c>
-      <c r="G85" s="1" t="n"/>
-    </row>
-    <row r="86" ht="23" customHeight="1">
-      <c r="A86" s="1" t="n"/>
-      <c r="B86" s="22" t="inlineStr">
-        <is>
-          <t>Kunai</t>
-        </is>
-      </c>
-      <c r="C86" s="35" t="n">
-        <v>4981.38</v>
-      </c>
-      <c r="D86" s="22" t="n">
-        <v>6210</v>
-      </c>
-      <c r="E86" s="22" t="n">
-        <v>614.3099999999999</v>
-      </c>
-      <c r="F86" s="22" t="n">
-        <v>148</v>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Neonic</t>
+        </is>
+      </c>
+      <c r="C86" s="34" t="n">
+        <v>4969.617999999999</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>5501.3</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>265.841</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>166</v>
       </c>
       <c r="G86" s="1" t="n"/>
     </row>
@@ -3626,16 +3613,16 @@
         </is>
       </c>
       <c r="C87" s="34" t="n">
-        <v>4971.059</v>
+        <v>4963.351000000001</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>5541.950000000001</v>
+        <v>5542.65</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>285.4455</v>
+        <v>289.6495</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G87" s="1" t="n"/>
     </row>
@@ -3645,20 +3632,20 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>TaraMinova</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="C88" s="34" t="n">
-        <v>4965.660999999999</v>
+        <v>4961.57</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>5746.799999999999</v>
+        <v>5487.45</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>390.5695</v>
+        <v>262.94</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G88" s="1" t="n"/>
     </row>
@@ -3668,20 +3655,20 @@
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Grey</t>
-        </is>
-      </c>
-      <c r="C89" s="34" t="n">
-        <v>4962.198</v>
+          <t>Dogew00f</t>
+        </is>
+      </c>
+      <c r="C89" s="36" t="n">
+        <v>4944.099999999999</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>5503.6</v>
+        <v>5572.5</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>270.701</v>
+        <v>314.2</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="G89" s="1" t="n"/>
     </row>
@@ -3694,14 +3681,14 @@
           <t>The PiSquared</t>
         </is>
       </c>
-      <c r="C90" s="34" t="n">
-        <v>4961.044</v>
+      <c r="C90" s="36" t="n">
+        <v>4943.360000000001</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>5573.9</v>
+        <v>5573.8</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>306.428</v>
+        <v>315.22</v>
       </c>
       <c r="F90" s="2" t="n">
         <v>150</v>
@@ -3714,20 +3701,20 @@
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>Dogew00f</t>
+          <t>GioD</t>
         </is>
       </c>
       <c r="C91" s="36" t="n">
-        <v>4957.643999999999</v>
+        <v>4937.681</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>5579.15</v>
+        <v>5485.700000000001</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>310.753</v>
+        <v>274.0095</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G91" s="1" t="n"/>
     </row>
@@ -3737,20 +3724,20 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Mr. Dell</t>
-        </is>
-      </c>
-      <c r="C92" s="36" t="n">
-        <v>4930.612999999999</v>
+          <t>Foxy</t>
+        </is>
+      </c>
+      <c r="C92" s="37" t="n">
+        <v>4898.108999999999</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>5541.549999999999</v>
+        <v>5487.75</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>305.4685</v>
+        <v>294.8205</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>765</v>
+        <v>364</v>
       </c>
       <c r="G92" s="1" t="n"/>
     </row>
@@ -3760,20 +3747,20 @@
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>Azurite</t>
+          <t>Mr. Dell</t>
         </is>
       </c>
       <c r="C93" s="37" t="n">
-        <v>4901.638999999999</v>
+        <v>4897.048999999999</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>5846.549999999999</v>
+        <v>5515.25</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>472.4555</v>
+        <v>309.1005</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>315</v>
+        <v>766</v>
       </c>
       <c r="G93" s="1" t="n"/>
     </row>
@@ -3783,20 +3770,20 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>figgyc</t>
+          <t>Lhistoire</t>
         </is>
       </c>
       <c r="C94" s="37" t="n">
-        <v>4893.950999999999</v>
+        <v>4893.951</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>5459.15</v>
+        <v>5337.55</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>282.5995</v>
+        <v>221.7995</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="G94" s="1" t="n"/>
     </row>
@@ -3806,20 +3793,20 @@
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Foxy</t>
+          <t>Azurite</t>
         </is>
       </c>
       <c r="C95" s="37" t="n">
-        <v>4891.031000000001</v>
+        <v>4890.182999999999</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>5472.1</v>
+        <v>5846.599999999999</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>290.5345</v>
+        <v>478.2085</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="G95" s="1" t="n"/>
     </row>
@@ -3832,14 +3819,14 @@
           <t>Whiffle64</t>
         </is>
       </c>
-      <c r="C96" s="37" t="n">
-        <v>4879.763000000001</v>
+      <c r="C96" s="38" t="n">
+        <v>4864.857</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>5603.55</v>
+        <v>5603.6</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>361.8935</v>
+        <v>369.3715</v>
       </c>
       <c r="F96" s="2" t="n">
         <v>286</v>
@@ -3856,13 +3843,13 @@
         </is>
       </c>
       <c r="C97" s="38" t="n">
-        <v>4860.27</v>
+        <v>4842.401000000001</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>5467.4</v>
+        <v>5467.25</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>303.565</v>
+        <v>312.4245</v>
       </c>
       <c r="F97" s="2" t="n">
         <v>397</v>
@@ -3875,20 +3862,20 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Lhistoire</t>
+          <t>Subwoofer</t>
         </is>
       </c>
       <c r="C98" s="38" t="n">
-        <v>4853.692</v>
+        <v>4839.685</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>5289.9</v>
+        <v>5374.85</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>218.104</v>
+        <v>267.5825</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="G98" s="1" t="n"/>
     </row>
@@ -3902,13 +3889,13 @@
         </is>
       </c>
       <c r="C99" s="38" t="n">
-        <v>4848.721</v>
+        <v>4837.224999999999</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>5790.349999999999</v>
+        <v>5790.4</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>470.8145</v>
+        <v>476.5875</v>
       </c>
       <c r="F99" s="2" t="n">
         <v>33</v>
@@ -3921,20 +3908,20 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Subwoofer</t>
+          <t>Obesidora</t>
         </is>
       </c>
       <c r="C100" s="39" t="n">
-        <v>4830.719</v>
+        <v>4831.197000000001</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>5362.9</v>
+        <v>5603.150000000001</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>266.0905</v>
+        <v>385.9765</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="G100" s="1" t="n"/>
     </row>
@@ -3944,20 +3931,20 @@
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>Italic</t>
+          <t>figgyc</t>
         </is>
       </c>
       <c r="C101" s="39" t="n">
-        <v>4796.925999999999</v>
+        <v>4809.23</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>5327.5</v>
+        <v>5375</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>265.287</v>
+        <v>282.885</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>416</v>
+        <v>38</v>
       </c>
       <c r="G101" s="1" t="n"/>
     </row>
@@ -3967,20 +3954,20 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Mini Panga |Dave|</t>
+          <t>Italic</t>
         </is>
       </c>
       <c r="C102" s="39" t="n">
-        <v>4792.848</v>
+        <v>4801.971</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>5494.25</v>
+        <v>5335.5</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>350.701</v>
+        <v>266.7645</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>308</v>
+        <v>418</v>
       </c>
       <c r="G102" s="1" t="n"/>
     </row>
@@ -3990,20 +3977,20 @@
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>RandomGamer123</t>
+          <t>Mini Panga |Dave|</t>
         </is>
       </c>
       <c r="C103" s="40" t="n">
-        <v>4767.995</v>
+        <v>4777.429</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>5269.55</v>
+        <v>5494.25</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>250.7775</v>
+        <v>358.4105</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>424</v>
+        <v>308</v>
       </c>
       <c r="G103" s="1" t="n"/>
     </row>
@@ -4013,20 +4000,20 @@
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Joa</t>
+          <t>Tsukiwuki</t>
         </is>
       </c>
       <c r="C104" s="40" t="n">
-        <v>4761.764000000001</v>
+        <v>4754.503000000001</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>5319.450000000001</v>
+        <v>5264.9</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>278.843</v>
+        <v>255.1985</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="G104" s="1" t="n"/>
     </row>
@@ -4036,20 +4023,20 @@
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>Adamm</t>
-        </is>
-      </c>
-      <c r="C105" s="40" t="n">
-        <v>4753.992</v>
+          <t>RandomGamer123</t>
+        </is>
+      </c>
+      <c r="C105" s="41" t="n">
+        <v>4748.936</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>5360</v>
+        <v>5258.5</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>303.004</v>
+        <v>254.782</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>45</v>
+        <v>426</v>
       </c>
       <c r="G105" s="1" t="n"/>
     </row>
@@ -4059,20 +4046,20 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>8th</t>
+          <t>Joa</t>
         </is>
       </c>
       <c r="C106" s="41" t="n">
-        <v>4742.094999999999</v>
+        <v>4742.677000000001</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>5382.849999999999</v>
+        <v>5319.6</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>320.3775000000001</v>
+        <v>288.4615</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>385</v>
+        <v>243</v>
       </c>
       <c r="G106" s="1" t="n"/>
     </row>
@@ -4082,20 +4069,20 @@
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>masrock9</t>
+          <t>Adamm</t>
         </is>
       </c>
       <c r="C107" s="41" t="n">
-        <v>4738.803</v>
+        <v>4736.388</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>5568.8</v>
+        <v>5360.15</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>414.9985</v>
+        <v>311.881</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G107" s="1" t="n"/>
     </row>
@@ -4105,20 +4092,20 @@
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Tsukiwuki</t>
+          <t>masrock9</t>
         </is>
       </c>
       <c r="C108" s="41" t="n">
-        <v>4732.445999999999</v>
+        <v>4725.741</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>5237.95</v>
+        <v>5568.8</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>252.752</v>
+        <v>421.5295</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="G108" s="1" t="n"/>
     </row>
@@ -4128,20 +4115,20 @@
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>halcyon</t>
+          <t>8th</t>
         </is>
       </c>
       <c r="C109" s="41" t="n">
-        <v>4713.92</v>
+        <v>4725.352999999999</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>5683.200000000001</v>
+        <v>5382.95</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>484.64</v>
+        <v>328.7985</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>154</v>
+        <v>385</v>
       </c>
       <c r="G109" s="1" t="n"/>
     </row>
@@ -4151,20 +4138,20 @@
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>AngelSassin</t>
-        </is>
-      </c>
-      <c r="C110" s="42" t="n">
-        <v>4705.51</v>
+          <t>LookAtThatGGman</t>
+        </is>
+      </c>
+      <c r="C110" s="41" t="n">
+        <v>4712.494</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>5466.549999999999</v>
+        <v>5233.85</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>380.52</v>
+        <v>260.678</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="G110" s="1" t="n"/>
     </row>
@@ -4174,20 +4161,20 @@
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>Obesidora</t>
+          <t>halcyon</t>
         </is>
       </c>
       <c r="C111" s="42" t="n">
-        <v>4704.505</v>
+        <v>4702.801</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>5487.65</v>
+        <v>5683.3</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>391.5725</v>
+        <v>490.2495</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G111" s="1" t="n"/>
     </row>
@@ -4197,20 +4184,20 @@
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>LookAtThatGGman</t>
+          <t>ChromiaSpeed</t>
         </is>
       </c>
       <c r="C112" s="42" t="n">
-        <v>4701.208</v>
+        <v>4693.875</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>5206.799999999999</v>
+        <v>5407.65</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>252.796</v>
+        <v>356.8875</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="G112" s="1" t="n"/>
     </row>
@@ -4220,20 +4207,20 @@
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>Sef</t>
+          <t>AngelSassin</t>
         </is>
       </c>
       <c r="C113" s="42" t="n">
-        <v>4698.003</v>
+        <v>4691.054</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>5193.55</v>
+        <v>5466.3</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>247.7735</v>
+        <v>387.623</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="G113" s="1" t="n"/>
     </row>
@@ -4243,20 +4230,20 @@
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Wenyunity</t>
+          <t>Charito</t>
         </is>
       </c>
       <c r="C114" s="42" t="n">
-        <v>4681.637</v>
+        <v>4686.873000000001</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>5168.9</v>
+        <v>5169.400000000001</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>243.6315</v>
+        <v>241.2635</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="G114" s="1" t="n"/>
     </row>
@@ -4266,20 +4253,20 @@
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>Dragonified</t>
+          <t>Sef</t>
         </is>
       </c>
       <c r="C115" s="42" t="n">
-        <v>4677.86</v>
+        <v>4670.224</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>5448.6</v>
+        <v>5179.8</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>385.37</v>
+        <v>254.788</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>13</v>
+        <v>282</v>
       </c>
       <c r="G115" s="1" t="n"/>
     </row>
@@ -4289,20 +4276,20 @@
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>HazelKnight</t>
-        </is>
-      </c>
-      <c r="C116" s="42" t="n">
-        <v>4674.135</v>
+          <t>Dragonified</t>
+        </is>
+      </c>
+      <c r="C116" s="43" t="n">
+        <v>4663.512999999999</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>5408.65</v>
+        <v>5448.099999999999</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>367.2575</v>
+        <v>392.2935</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="G116" s="1" t="n"/>
     </row>
@@ -4312,20 +4299,20 @@
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>Swagbard</t>
-        </is>
-      </c>
-      <c r="C117" s="42" t="n">
-        <v>4670.955</v>
+          <t>HazelKnight</t>
+        </is>
+      </c>
+      <c r="C117" s="43" t="n">
+        <v>4659.443</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>5434.6</v>
+        <v>5408.7</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>381.8225</v>
+        <v>374.6285</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="G117" s="1" t="n"/>
     </row>
@@ -4335,20 +4322,20 @@
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>Plutoniumcube</t>
-        </is>
-      </c>
-      <c r="C118" s="42" t="n">
-        <v>4668.757</v>
+          <t>Swagbard</t>
+        </is>
+      </c>
+      <c r="C118" s="43" t="n">
+        <v>4656.772</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>5286.3</v>
+        <v>5434.6</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>308.7715</v>
+        <v>388.914</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G118" s="1" t="n"/>
     </row>
@@ -4358,20 +4345,20 @@
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>ChromiaSpeed</t>
+          <t>Plutoniumcube</t>
         </is>
       </c>
       <c r="C119" s="43" t="n">
-        <v>4645.249</v>
+        <v>4651.256</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>5366.75</v>
+        <v>5286.25</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>360.7505</v>
+        <v>317.497</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="G119" s="1" t="n"/>
     </row>
@@ -4381,20 +4368,20 @@
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>WEIXD</t>
+          <t>Wenyunity</t>
         </is>
       </c>
       <c r="C120" s="43" t="n">
-        <v>4645.153</v>
+        <v>4644.858</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>5485.05</v>
+        <v>5148.85</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>419.9485</v>
+        <v>251.996</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>9</v>
+        <v>503</v>
       </c>
       <c r="G120" s="1" t="n"/>
     </row>
@@ -4408,16 +4395,16 @@
         </is>
       </c>
       <c r="C121" s="43" t="n">
-        <v>4644.782</v>
+        <v>4637.183</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>5338.8</v>
+        <v>5330.900000000001</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>347.009</v>
+        <v>346.8585</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G121" s="1" t="n"/>
     </row>
@@ -4427,20 +4414,20 @@
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>MarbleCyde</t>
+          <t>WEIXD</t>
         </is>
       </c>
       <c r="C122" s="43" t="n">
-        <v>4644.602</v>
+        <v>4632.194</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>5100.2</v>
+        <v>5485</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>227.799</v>
+        <v>426.403</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>375</v>
+        <v>9</v>
       </c>
       <c r="G122" s="1" t="n"/>
     </row>
@@ -4450,20 +4437,20 @@
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>Nihonium_Tomopy</t>
+          <t>MarbleCyde</t>
         </is>
       </c>
       <c r="C123" s="44" t="n">
-        <v>4624.660000000001</v>
+        <v>4624.012000000001</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>5243.3</v>
+        <v>5091.05</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>309.32</v>
+        <v>233.519</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="G123" s="1" t="n"/>
     </row>
@@ -4473,20 +4460,20 @@
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Fánai</t>
+          <t>Nihonium_Tomopy</t>
         </is>
       </c>
       <c r="C124" s="44" t="n">
-        <v>4603.838</v>
+        <v>4607.166</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>5415.15</v>
+        <v>5243.200000000001</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>405.6560000000001</v>
+        <v>318.017</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="G124" s="1" t="n"/>
     </row>
@@ -4496,20 +4483,20 @@
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>Sushi</t>
+          <t>Fánai</t>
         </is>
       </c>
       <c r="C125" s="44" t="n">
-        <v>4602.745999999999</v>
+        <v>4590.344999999999</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>5304.099999999999</v>
+        <v>5415</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>350.677</v>
+        <v>412.3275</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="G125" s="1" t="n"/>
     </row>
@@ -4519,20 +4506,20 @@
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Charito</t>
+          <t>Sushi</t>
         </is>
       </c>
       <c r="C126" s="44" t="n">
-        <v>4598.514</v>
+        <v>4587.375</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>5081.650000000001</v>
+        <v>5304.15</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>241.568</v>
+        <v>358.3875</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="G126" s="1" t="n"/>
     </row>
@@ -4542,20 +4529,20 @@
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>weee50</t>
-        </is>
-      </c>
-      <c r="C127" s="44" t="n">
-        <v>4589.983</v>
+          <t>Mervin</t>
+        </is>
+      </c>
+      <c r="C127" s="45" t="n">
+        <v>4575.391</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>5222.6</v>
+        <v>5482.75</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>316.3085</v>
+        <v>453.6795</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="G127" s="1" t="n"/>
     </row>
@@ -4565,20 +4552,20 @@
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Mervin</t>
-        </is>
-      </c>
-      <c r="C128" s="44" t="n">
-        <v>4586.831</v>
+          <t>Danny the Unicorn</t>
+        </is>
+      </c>
+      <c r="C128" s="45" t="n">
+        <v>4569.168</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>5482.200000000001</v>
+        <v>5341.65</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>447.6845</v>
+        <v>386.241</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="G128" s="1" t="n"/>
     </row>
@@ -4588,20 +4575,20 @@
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>Danny the Unicorn</t>
-        </is>
-      </c>
-      <c r="C129" s="44" t="n">
-        <v>4583.455</v>
+          <t>Visurient</t>
+        </is>
+      </c>
+      <c r="C129" s="45" t="n">
+        <v>4566.336</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>5341.65</v>
+        <v>5103.1</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>379.0975</v>
+        <v>268.382</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>250</v>
+        <v>537</v>
       </c>
       <c r="G129" s="1" t="n"/>
     </row>
@@ -4615,13 +4602,13 @@
         </is>
       </c>
       <c r="C130" s="45" t="n">
-        <v>4576.774</v>
+        <v>4560.764999999999</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>5209.450000000001</v>
+        <v>5210.349999999999</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>316.338</v>
+        <v>324.7925</v>
       </c>
       <c r="F130" s="2" t="n">
         <v>52</v>
@@ -4634,20 +4621,20 @@
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>Visurient</t>
+          <t>Europe Bill</t>
         </is>
       </c>
       <c r="C131" s="45" t="n">
-        <v>4575.982</v>
+        <v>4551.107999999999</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>5101.8</v>
+        <v>5184.349999999999</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>262.909</v>
+        <v>316.621</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>536</v>
+        <v>246</v>
       </c>
       <c r="G131" s="1" t="n"/>
     </row>
@@ -4657,20 +4644,20 @@
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>Astra</t>
+          <t>weee50</t>
         </is>
       </c>
       <c r="C132" s="45" t="n">
-        <v>4561.294</v>
+        <v>4548.974999999999</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>5259.15</v>
+        <v>5187.849999999999</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>348.928</v>
+        <v>319.4375</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G132" s="1" t="n"/>
     </row>
@@ -4680,20 +4667,20 @@
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>Europe Bill</t>
+          <t>Astra</t>
         </is>
       </c>
       <c r="C133" s="45" t="n">
-        <v>4560.376</v>
+        <v>4545.847</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>5189.450000000001</v>
+        <v>5259.2</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>314.537</v>
+        <v>356.6765</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="G133" s="1" t="n"/>
     </row>
@@ -4703,20 +4690,20 @@
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>WarBunnie</t>
-        </is>
-      </c>
-      <c r="C134" s="45" t="n">
-        <v>4547.24</v>
+          <t>Vortex83</t>
+        </is>
+      </c>
+      <c r="C134" s="46" t="n">
+        <v>4540.023999999999</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>5509.9</v>
+        <v>5292.95</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>481.33</v>
+        <v>376.463</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="G134" s="1" t="n"/>
     </row>
@@ -4726,20 +4713,20 @@
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>ZeonZ</t>
+          <t>WarBunnie</t>
         </is>
       </c>
       <c r="C135" s="46" t="n">
-        <v>4536.011</v>
+        <v>4536.043</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>5447.65</v>
+        <v>5510</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>455.8195</v>
+        <v>486.9785000000001</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="G135" s="1" t="n"/>
     </row>
@@ -4749,20 +4736,20 @@
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>ZeonZ</t>
         </is>
       </c>
       <c r="C136" s="46" t="n">
-        <v>4528.818</v>
+        <v>4524.143</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>5185</v>
+        <v>5447.7</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>328.091</v>
+        <v>461.7785</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G136" s="1" t="n"/>
     </row>
@@ -4776,16 +4763,16 @@
         </is>
       </c>
       <c r="C137" s="46" t="n">
-        <v>4522.998</v>
+        <v>4519.57</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>5387.25</v>
+        <v>5357.45</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>432.126</v>
+        <v>418.94</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G137" s="1" t="n"/>
     </row>
@@ -4795,20 +4782,20 @@
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>dom cos</t>
+          <t>Energyshatter</t>
         </is>
       </c>
       <c r="C138" s="46" t="n">
-        <v>4517.414</v>
+        <v>4508.833</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>4995.165</v>
+        <v>5007.15</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>238.8755</v>
+        <v>249.1585</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>281</v>
+        <v>161</v>
       </c>
       <c r="G138" s="1" t="n"/>
     </row>
@@ -4818,20 +4805,20 @@
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>Dawthon</t>
+          <t>dom cos</t>
         </is>
       </c>
       <c r="C139" s="46" t="n">
-        <v>4506.297</v>
+        <v>4502.586</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>5224.6</v>
+        <v>4980.865</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>359.1514999999999</v>
+        <v>239.1395</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="G139" s="1" t="n"/>
     </row>
@@ -4841,20 +4828,20 @@
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>tr_</t>
+          <t>Abamy</t>
         </is>
       </c>
       <c r="C140" s="47" t="n">
-        <v>4483.71</v>
+        <v>4495.316</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>5134.15</v>
+        <v>5122.7</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>325.22</v>
+        <v>313.692</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="G140" s="1" t="n"/>
     </row>
@@ -4864,20 +4851,20 @@
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>Epsilon</t>
+          <t>augmentic</t>
         </is>
       </c>
       <c r="C141" s="47" t="n">
-        <v>4481.191</v>
+        <v>4493.501</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>5136.25</v>
+        <v>5015.9</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>327.5295</v>
+        <v>261.1995</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>489</v>
+        <v>53</v>
       </c>
       <c r="G141" s="1" t="n"/>
     </row>
@@ -4887,20 +4874,20 @@
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>augmentic</t>
+          <t>Dawthon</t>
         </is>
       </c>
       <c r="C142" s="47" t="n">
-        <v>4472.44</v>
+        <v>4491.144</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>4999.335</v>
+        <v>5224.5</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>263.4475</v>
+        <v>366.678</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="G142" s="1" t="n"/>
     </row>
@@ -4910,20 +4897,20 @@
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>Abamy</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C143" s="47" t="n">
-        <v>4469.824000000001</v>
+        <v>4481.159</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>5107.3</v>
+        <v>5140.75</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>318.738</v>
+        <v>329.7955000000001</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G143" s="1" t="n"/>
     </row>
@@ -4933,20 +4920,20 @@
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>virtue</t>
+          <t>tr_</t>
         </is>
       </c>
       <c r="C144" s="47" t="n">
-        <v>4466.281</v>
+        <v>4466.717</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>5127.65</v>
+        <v>5133.7</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>330.6845</v>
+        <v>333.4915</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="G144" s="1" t="n"/>
     </row>
@@ -4956,20 +4943,20 @@
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>Vortex83</t>
+          <t>Epsilon</t>
         </is>
       </c>
       <c r="C145" s="47" t="n">
-        <v>4464.829</v>
+        <v>4465.128999999999</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>5221.549999999999</v>
+        <v>5136.599999999999</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>378.3605</v>
+        <v>335.7355</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>318</v>
+        <v>489</v>
       </c>
       <c r="G145" s="1" t="n"/>
     </row>
@@ -4979,20 +4966,20 @@
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>Mega</t>
-        </is>
-      </c>
-      <c r="C146" s="47" t="n">
-        <v>4463.639999999999</v>
+          <t>virtue</t>
+        </is>
+      </c>
+      <c r="C146" s="48" t="n">
+        <v>4449.991</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>5147.799999999999</v>
+        <v>5127.65</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>342.08</v>
+        <v>338.8295</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="G146" s="1" t="n"/>
     </row>
@@ -5002,20 +4989,20 @@
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>DacTracked</t>
+          <t>Dunkel Blau</t>
         </is>
       </c>
       <c r="C147" s="48" t="n">
-        <v>4451.378</v>
+        <v>4449.367</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>5306.45</v>
+        <v>5172.4</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>427.536</v>
+        <v>361.5165</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="G147" s="1" t="n"/>
     </row>
@@ -5025,20 +5012,20 @@
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>Energyshatter</t>
+          <t>Mega</t>
         </is>
       </c>
       <c r="C148" s="48" t="n">
-        <v>4450.321</v>
+        <v>4448.07</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>4946.615</v>
+        <v>5148</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>248.147</v>
+        <v>349.965</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="G148" s="1" t="n"/>
     </row>
@@ -5048,20 +5035,20 @@
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>Gap2003</t>
+          <t>DacTracked</t>
         </is>
       </c>
       <c r="C149" s="48" t="n">
-        <v>4438.42</v>
+        <v>4440.569</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>5277.6</v>
+        <v>5307.95</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>419.59</v>
+        <v>433.6905</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G149" s="1" t="n"/>
     </row>
@@ -5071,20 +5058,20 @@
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>doggo</t>
+          <t>ShadowFlames</t>
         </is>
       </c>
       <c r="C150" s="48" t="n">
-        <v>4429.852000000001</v>
+        <v>4426.603</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>5270.700000000001</v>
+        <v>5271.1</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>420.424</v>
+        <v>422.2485</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>596</v>
+        <v>66</v>
       </c>
       <c r="G150" s="1" t="n"/>
     </row>
@@ -5094,20 +5081,20 @@
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>LegendFinder</t>
-        </is>
-      </c>
-      <c r="C151" s="49" t="n">
-        <v>4408.073</v>
+          <t>doggo</t>
+        </is>
+      </c>
+      <c r="C151" s="48" t="n">
+        <v>4416.873</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>5027.7</v>
+        <v>5270.599999999999</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>309.8135</v>
+        <v>426.8635</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>470</v>
+        <v>596</v>
       </c>
       <c r="G151" s="1" t="n"/>
     </row>
@@ -5117,20 +5104,20 @@
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Zelo101</t>
+          <t>Gap2003</t>
         </is>
       </c>
       <c r="C152" s="49" t="n">
-        <v>4395.804999999999</v>
+        <v>4393.904</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>5205.299999999999</v>
+        <v>5218.9</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>404.7475</v>
+        <v>412.498</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G152" s="1" t="n"/>
     </row>
@@ -5140,20 +5127,20 @@
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>ShadowFlames</t>
+          <t>qwaintt</t>
         </is>
       </c>
       <c r="C153" s="49" t="n">
-        <v>4393.317000000001</v>
+        <v>4391.902</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>5255.700000000001</v>
+        <v>5141.2</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>431.1915</v>
+        <v>374.649</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G153" s="1" t="n"/>
     </row>
@@ -5163,20 +5150,20 @@
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Royal</t>
+          <t>LegendFinder</t>
         </is>
       </c>
       <c r="C154" s="49" t="n">
-        <v>4376.365000000001</v>
+        <v>4391.384</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>5323.35</v>
+        <v>5028.3</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>473.4924999999999</v>
+        <v>318.458</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>17</v>
+        <v>470</v>
       </c>
       <c r="G154" s="1" t="n"/>
     </row>
@@ -5186,20 +5173,20 @@
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>Dunkel Blau</t>
-        </is>
-      </c>
-      <c r="C155" s="50" t="n">
-        <v>4374.228</v>
+          <t>Zelo101</t>
+        </is>
+      </c>
+      <c r="C155" s="49" t="n">
+        <v>4382.454</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>5107.65</v>
+        <v>5205.349999999999</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>366.711</v>
+        <v>411.448</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="G155" s="1" t="n"/>
     </row>
@@ -5209,20 +5196,20 @@
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>Lil Vince Freeze</t>
+          <t>Royal</t>
         </is>
       </c>
       <c r="C156" s="50" t="n">
-        <v>4346.313</v>
+        <v>4364.934000000001</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>5031.9</v>
+        <v>5323.400000000001</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>342.7935</v>
+        <v>479.2329999999999</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="G156" s="1" t="n"/>
     </row>
@@ -5232,20 +5219,20 @@
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>Lennychu</t>
-        </is>
-      </c>
-      <c r="C157" s="50" t="n">
-        <v>4345.116</v>
+          <t>Lil Vince Freeze</t>
+        </is>
+      </c>
+      <c r="C157" s="51" t="n">
+        <v>4330.544</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>5076.1</v>
+        <v>5031.9</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>365.492</v>
+        <v>350.678</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="G157" s="1" t="n"/>
     </row>
@@ -5255,20 +5242,20 @@
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>kliomeno</t>
+          <t>Lennychu</t>
         </is>
       </c>
       <c r="C158" s="51" t="n">
-        <v>4319.495</v>
+        <v>4330.157</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>5072.45</v>
+        <v>5075.9</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>376.4775</v>
+        <v>372.8715</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="G158" s="1" t="n"/>
     </row>
@@ -5278,20 +5265,20 @@
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>alphadragon2</t>
+          <t>kliomeno</t>
         </is>
       </c>
       <c r="C159" s="51" t="n">
-        <v>4319.416</v>
+        <v>4304.947</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>5013.95</v>
+        <v>5072.25</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>347.267</v>
+        <v>383.6515</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="G159" s="1" t="n"/>
     </row>
@@ -5301,20 +5288,20 @@
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>Val</t>
+          <t>alphadragon2</t>
         </is>
       </c>
       <c r="C160" s="51" t="n">
-        <v>4297.996</v>
+        <v>4303.893</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>4962.95</v>
+        <v>5014</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>332.477</v>
+        <v>355.0535</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="G160" s="1" t="n"/>
     </row>
@@ -5324,20 +5311,20 @@
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>SuperS6</t>
+          <t>APerson</t>
         </is>
       </c>
       <c r="C161" s="51" t="n">
-        <v>4293.924000000001</v>
+        <v>4293.233</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>5206.950000000001</v>
+        <v>4819.88</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>456.513</v>
+        <v>263.3235</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="G161" s="1" t="n"/>
     </row>
@@ -5347,20 +5334,20 @@
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>APerson</t>
-        </is>
-      </c>
-      <c r="C162" s="51" t="n">
-        <v>4293.914</v>
+          <t>SuperS6</t>
+        </is>
+      </c>
+      <c r="C162" s="52" t="n">
+        <v>4282.029</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>4806.975</v>
+        <v>5206.950000000001</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>256.5305</v>
+        <v>462.4605</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="G162" s="1" t="n"/>
     </row>
@@ -5370,20 +5357,20 @@
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>Alg5br6</t>
-        </is>
-      </c>
-      <c r="C163" s="51" t="n">
-        <v>4292.546</v>
+          <t>Val</t>
+        </is>
+      </c>
+      <c r="C163" s="52" t="n">
+        <v>4281.912</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>4764.36</v>
+        <v>4962.94</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>235.907</v>
+        <v>340.514</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G163" s="1" t="n"/>
     </row>
@@ -5393,20 +5380,20 @@
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>SuperVic</t>
+          <t>Alg5br6</t>
         </is>
       </c>
       <c r="C164" s="52" t="n">
-        <v>4291.131</v>
+        <v>4280.340999999999</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>4966.535</v>
+        <v>4760.415</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>337.702</v>
+        <v>240.037</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="G164" s="1" t="n"/>
     </row>
@@ -5416,20 +5403,20 @@
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>Dime</t>
+          <t>joss</t>
         </is>
       </c>
       <c r="C165" s="52" t="n">
-        <v>4288.802</v>
+        <v>4276.732</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>4963.27</v>
+        <v>5068.3</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>337.234</v>
+        <v>395.784</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="G165" s="1" t="n"/>
     </row>
@@ -5439,20 +5426,20 @@
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>qwaintt</t>
+          <t>Dime</t>
         </is>
       </c>
       <c r="C166" s="52" t="n">
-        <v>4288.095</v>
+        <v>4272.73</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>5051.6</v>
+        <v>4963.205</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>381.7525</v>
+        <v>345.2375</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G166" s="1" t="n"/>
     </row>
@@ -5462,20 +5449,20 @@
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>manasser99</t>
+          <t>SuperVic</t>
         </is>
       </c>
       <c r="C167" s="52" t="n">
-        <v>4276.09</v>
+        <v>4272.007</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>5023.2</v>
+        <v>4943.46</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>373.555</v>
+        <v>335.7265</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="G167" s="1" t="n"/>
     </row>
@@ -5485,20 +5472,20 @@
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>Ant</t>
+          <t>D'Quartz</t>
         </is>
       </c>
       <c r="C168" s="52" t="n">
-        <v>4274.404</v>
+        <v>4262.266</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>5137.799999999999</v>
+        <v>5204.25</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>431.698</v>
+        <v>470.992</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>136</v>
+        <v>349</v>
       </c>
       <c r="G168" s="1" t="n"/>
     </row>
@@ -5508,20 +5495,20 @@
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>D'Quartz</t>
+          <t>Ant</t>
         </is>
       </c>
       <c r="C169" s="52" t="n">
-        <v>4273.898999999999</v>
+        <v>4261.88</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>5204.2</v>
+        <v>5137.849999999999</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>465.1505</v>
+        <v>437.985</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="G169" s="1" t="n"/>
     </row>
@@ -5531,20 +5518,20 @@
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>SergeantSnivy</t>
+          <t>manasser99</t>
         </is>
       </c>
       <c r="C170" s="52" t="n">
-        <v>4269.561</v>
+        <v>4261.61</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>4985.365</v>
+        <v>5023.2</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>357.902</v>
+        <v>380.795</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="G170" s="1" t="n"/>
     </row>
@@ -5554,20 +5541,20 @@
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>GameyFace 46</t>
+          <t>SergeantSnivy</t>
         </is>
       </c>
       <c r="C171" s="52" t="n">
-        <v>4263.822</v>
+        <v>4254.459000000001</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>4843.105</v>
+        <v>4985.375</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>289.6415</v>
+        <v>365.458</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="G171" s="1" t="n"/>
     </row>
@@ -5580,14 +5567,14 @@
           <t>Bprice1998</t>
         </is>
       </c>
-      <c r="C172" s="52" t="n">
-        <v>4262.928</v>
+      <c r="C172" s="53" t="n">
+        <v>4248.645</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>5023.349999999999</v>
+        <v>5023.3</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>380.211</v>
+        <v>387.3275</v>
       </c>
       <c r="F172" s="2" t="n">
         <v>26</v>
@@ -5600,20 +5587,20 @@
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>Nàgannach</t>
-        </is>
-      </c>
-      <c r="C173" s="52" t="n">
-        <v>4255.267</v>
+          <t>GameyFace 46</t>
+        </is>
+      </c>
+      <c r="C173" s="53" t="n">
+        <v>4245.965999999999</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>5144.099999999999</v>
+        <v>4843.755</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>444.4165</v>
+        <v>298.8945</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>378</v>
+        <v>96</v>
       </c>
       <c r="G173" s="1" t="n"/>
     </row>
@@ -5623,20 +5610,20 @@
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>Rubyleafeon2080</t>
+          <t>Nàgannach</t>
         </is>
       </c>
       <c r="C174" s="53" t="n">
-        <v>4247.278</v>
+        <v>4243.102</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>5046.45</v>
+        <v>5144.15</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>399.586</v>
+        <v>450.524</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>19</v>
+        <v>378</v>
       </c>
       <c r="G174" s="1" t="n"/>
     </row>
@@ -5650,13 +5637,13 @@
         </is>
       </c>
       <c r="C175" s="53" t="n">
-        <v>4246.929</v>
+        <v>4235.007000000001</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>5154.6</v>
+        <v>5154.650000000001</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>453.8355</v>
+        <v>459.8215</v>
       </c>
       <c r="F175" s="2" t="n">
         <v>54</v>
@@ -5669,20 +5656,20 @@
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>joss</t>
+          <t>Rubyleafeon2080</t>
         </is>
       </c>
       <c r="C176" s="53" t="n">
-        <v>4245.857</v>
+        <v>4232.821</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>5046.6</v>
+        <v>5045.400000000001</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>400.3715</v>
+        <v>406.2895</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G176" s="1" t="n"/>
     </row>
@@ -5692,20 +5679,20 @@
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>Evolt</t>
+          <t>ukeadel</t>
         </is>
       </c>
       <c r="C177" s="53" t="n">
-        <v>4234.301</v>
+        <v>4221.453</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>5002.4</v>
+        <v>5124.15</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>384.0495</v>
+        <v>451.3485</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="G177" s="1" t="n"/>
     </row>
@@ -5715,20 +5702,20 @@
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>ukeadel</t>
+          <t>Evolt</t>
         </is>
       </c>
       <c r="C178" s="53" t="n">
-        <v>4233.514999999999</v>
+        <v>4220.833000000001</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>5124.049999999999</v>
+        <v>5002.95</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>445.2675</v>
+        <v>391.0585</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="G178" s="1" t="n"/>
     </row>
@@ -5742,13 +5729,13 @@
         </is>
       </c>
       <c r="C179" s="53" t="n">
-        <v>4222.711</v>
+        <v>4209.371999999999</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>5042.85</v>
+        <v>5042.7</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>410.0695000000001</v>
+        <v>416.664</v>
       </c>
       <c r="F179" s="2" t="n">
         <v>25</v>
@@ -5761,20 +5748,20 @@
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>ZombieClub</t>
+          <t>MyTwinBrotherCan'tBeThisCute!</t>
         </is>
       </c>
       <c r="C180" s="54" t="n">
-        <v>4203.504</v>
+        <v>4174.234</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>4755.13</v>
+        <v>5032.55</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>275.813</v>
+        <v>429.158</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="G180" s="1" t="n"/>
     </row>
@@ -5784,20 +5771,20 @@
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>MyTwinBrotherCan'tBeThisCute!</t>
+          <t>OverheadRed</t>
         </is>
       </c>
       <c r="C181" s="54" t="n">
-        <v>4186.947</v>
+        <v>4170.878000000001</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>5032.45</v>
+        <v>5156</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>422.7515</v>
+        <v>492.561</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="G181" s="1" t="n"/>
     </row>
@@ -5807,20 +5794,20 @@
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>OverheadRed</t>
-        </is>
-      </c>
-      <c r="C182" s="54" t="n">
-        <v>4181.994000000001</v>
+          <t>Geeky</t>
+        </is>
+      </c>
+      <c r="C182" s="55" t="n">
+        <v>4162.677</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>5155.950000000001</v>
+        <v>4751.665</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>486.978</v>
+        <v>294.494</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G182" s="1" t="n"/>
     </row>
@@ -5830,20 +5817,20 @@
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>Geeky</t>
-        </is>
-      </c>
-      <c r="C183" s="54" t="n">
-        <v>4181.343</v>
+          <t>zensol</t>
+        </is>
+      </c>
+      <c r="C183" s="55" t="n">
+        <v>4157.312</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>4751.495</v>
+        <v>5130.25</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>285.076</v>
+        <v>486.4690000000001</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G183" s="1" t="n"/>
     </row>
@@ -5853,20 +5840,20 @@
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>zensol</t>
-        </is>
-      </c>
-      <c r="C184" s="54" t="n">
-        <v>4168.571</v>
+          <t>Raioknight</t>
+        </is>
+      </c>
+      <c r="C184" s="55" t="n">
+        <v>4147.651999999999</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>5130.2</v>
+        <v>5134.099999999999</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>480.8145</v>
+        <v>493.224</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G184" s="1" t="n"/>
     </row>
@@ -5880,13 +5867,13 @@
         </is>
       </c>
       <c r="C185" s="55" t="n">
-        <v>4159.949000000001</v>
+        <v>4145.581</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>4910.625</v>
+        <v>4910.68</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>375.338</v>
+        <v>382.5495</v>
       </c>
       <c r="F185" s="2" t="n">
         <v>158</v>
@@ -5899,20 +5886,20 @@
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>Raioknight</t>
+          <t>SuperYoshi84</t>
         </is>
       </c>
       <c r="C186" s="55" t="n">
-        <v>4158.753</v>
+        <v>4143.164</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>5134.049999999999</v>
+        <v>4918.27</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>487.6485</v>
+        <v>387.553</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="G186" s="1" t="n"/>
     </row>
@@ -5922,20 +5909,20 @@
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>SuperYoshi84</t>
+          <t>The_BinaryPuppeteer hello</t>
         </is>
       </c>
       <c r="C187" s="55" t="n">
-        <v>4157.36</v>
+        <v>4131.983</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>4918.23</v>
+        <v>4615.315</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>380.435</v>
+        <v>241.666</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G187" s="1" t="n"/>
     </row>
@@ -5945,20 +5932,20 @@
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>MelecieDiancie</t>
+          <t>ZombieClub</t>
         </is>
       </c>
       <c r="C188" s="55" t="n">
-        <v>4140.043</v>
+        <v>4127.052</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>4740.195</v>
+        <v>4681.35</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>300.076</v>
+        <v>277.149</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="G188" s="1" t="n"/>
     </row>
@@ -5968,20 +5955,20 @@
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>MeLikePie50</t>
-        </is>
-      </c>
-      <c r="C189" s="55" t="n">
-        <v>4132.67</v>
+          <t>MelecieDiancie</t>
+        </is>
+      </c>
+      <c r="C189" s="56" t="n">
+        <v>4121.854</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>4836.59</v>
+        <v>4739.825</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>351.96</v>
+        <v>308.9855</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G189" s="1" t="n"/>
     </row>
@@ -5991,20 +5978,20 @@
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>thelegend27</t>
+          <t>MeLikePie50</t>
         </is>
       </c>
       <c r="C190" s="56" t="n">
-        <v>4123.986</v>
+        <v>4117.303</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>4895.905000000001</v>
+        <v>4836.58</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>385.9595</v>
+        <v>359.6385</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G190" s="1" t="n"/>
     </row>
@@ -6014,20 +6001,20 @@
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>thelegend27</t>
         </is>
       </c>
       <c r="C191" s="56" t="n">
-        <v>4116.584000000001</v>
+        <v>4110.039</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>4637.765</v>
+        <v>4895.99</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>260.5905</v>
+        <v>392.9755</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>520</v>
+        <v>49</v>
       </c>
       <c r="G191" s="1" t="n"/>
     </row>
@@ -6041,13 +6028,13 @@
         </is>
       </c>
       <c r="C192" s="56" t="n">
-        <v>4114.187</v>
+        <v>4103.228</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>5097.65</v>
+        <v>5097.75</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>491.7315</v>
+        <v>497.261</v>
       </c>
       <c r="F192" s="2" t="n">
         <v>161</v>
@@ -6060,20 +6047,20 @@
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>Maxfecteau</t>
+          <t>TheMathGuy</t>
         </is>
       </c>
       <c r="C193" s="56" t="n">
-        <v>4112.273</v>
+        <v>4085.076</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>4791.335</v>
+        <v>4791.96</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>339.531</v>
+        <v>353.442</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="G193" s="1" t="n"/>
     </row>
@@ -6083,20 +6070,20 @@
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>Actionguy777</t>
-        </is>
-      </c>
-      <c r="C194" s="56" t="n">
-        <v>4110.976</v>
+          <t>Alabaster</t>
+        </is>
+      </c>
+      <c r="C194" s="57" t="n">
+        <v>4082.265</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>4821.95</v>
+        <v>4833.75</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>355.487</v>
+        <v>375.7425</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="G194" s="1" t="n"/>
     </row>
@@ -6106,20 +6093,20 @@
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>The_BinaryPuppeteer hello</t>
-        </is>
-      </c>
-      <c r="C195" s="56" t="n">
-        <v>4107.994</v>
+          <t>magniflcent</t>
+        </is>
+      </c>
+      <c r="C195" s="57" t="n">
+        <v>4081.892</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>4579.305</v>
+        <v>4745.215</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>235.6555</v>
+        <v>331.6615</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G195" s="1" t="n"/>
     </row>
@@ -6129,20 +6116,20 @@
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>TheMathGuy</t>
-        </is>
-      </c>
-      <c r="C196" s="56" t="n">
-        <v>4100.881</v>
+          <t>Maxfecteau</t>
+        </is>
+      </c>
+      <c r="C196" s="57" t="n">
+        <v>4081.294</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>4816.345</v>
+        <v>4761.69</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>357.732</v>
+        <v>340.198</v>
       </c>
       <c r="F196" s="2" t="n">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="G196" s="1" t="n"/>
     </row>
@@ -6152,20 +6139,20 @@
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>magniflcent</t>
-        </is>
-      </c>
-      <c r="C197" s="56" t="n">
-        <v>4098.568</v>
+          <t>OpKos</t>
+        </is>
+      </c>
+      <c r="C197" s="57" t="n">
+        <v>4070.669</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>4745.205</v>
+        <v>4919.335</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>323.3185</v>
+        <v>424.333</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G197" s="1" t="n"/>
     </row>
@@ -6175,20 +6162,20 @@
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>Alabaster</t>
-        </is>
-      </c>
-      <c r="C198" s="56" t="n">
-        <v>4096.879</v>
+          <t>QuantumWillow</t>
+        </is>
+      </c>
+      <c r="C198" s="57" t="n">
+        <v>4070.341</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>4833.705</v>
+        <v>4783.48</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>368.413</v>
+        <v>356.5695</v>
       </c>
       <c r="F198" s="2" t="n">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="G198" s="1" t="n"/>
     </row>
@@ -6198,20 +6185,20 @@
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>JackJack33</t>
-        </is>
-      </c>
-      <c r="C199" s="56" t="n">
-        <v>4093.98</v>
+          <t>Pie Dude</t>
+        </is>
+      </c>
+      <c r="C199" s="57" t="n">
+        <v>4066.416</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>5087.799999999999</v>
+        <v>4725.485</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>496.91</v>
+        <v>329.5345</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="G199" s="1" t="n"/>
     </row>
@@ -6221,20 +6208,20 @@
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>OpKos</t>
-        </is>
-      </c>
-      <c r="C200" s="56" t="n">
-        <v>4083.769</v>
+          <t>BoomYourDead</t>
+        </is>
+      </c>
+      <c r="C200" s="57" t="n">
+        <v>4052.09</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>4919.495</v>
+        <v>4903.565</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>417.8629999999999</v>
+        <v>425.7375</v>
       </c>
       <c r="F200" s="2" t="n">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="G200" s="1" t="n"/>
     </row>
@@ -6244,20 +6231,20 @@
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>Pie Dude</t>
-        </is>
-      </c>
-      <c r="C201" s="56" t="n">
-        <v>4083.347</v>
+          <t>Actionguy777</t>
+        </is>
+      </c>
+      <c r="C201" s="57" t="n">
+        <v>4051.873</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>4725.67</v>
+        <v>4761.415</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>321.1615</v>
+        <v>354.771</v>
       </c>
       <c r="F201" s="2" t="n">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="G201" s="1" t="n"/>
     </row>
@@ -6267,20 +6254,20 @@
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>BoomYourDead</t>
-        </is>
-      </c>
-      <c r="C202" s="57" t="n">
-        <v>4064.99</v>
+          <t>Steel83</t>
+        </is>
+      </c>
+      <c r="C202" s="58" t="n">
+        <v>4036.846</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>4903.52</v>
+        <v>4835.93</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>419.265</v>
+        <v>399.542</v>
       </c>
       <c r="F202" s="2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G202" s="1" t="n"/>
     </row>
@@ -6290,20 +6277,20 @@
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>soxfox</t>
-        </is>
-      </c>
-      <c r="C203" s="57" t="n">
-        <v>4051.953</v>
+          <t>ACN</t>
+        </is>
+      </c>
+      <c r="C203" s="58" t="n">
+        <v>4033.658</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>4839.17</v>
+        <v>4561.075</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>393.6085</v>
+        <v>263.7085</v>
       </c>
       <c r="F203" s="2" t="n">
-        <v>32</v>
+        <v>522</v>
       </c>
       <c r="G203" s="1" t="n"/>
     </row>
@@ -6313,20 +6300,20 @@
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>Steel83</t>
-        </is>
-      </c>
-      <c r="C204" s="57" t="n">
-        <v>4050.668</v>
+          <t>GSCN</t>
+        </is>
+      </c>
+      <c r="C204" s="58" t="n">
+        <v>4027.814</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>4835.955</v>
+        <v>4663.27</v>
       </c>
       <c r="E204" s="2" t="n">
-        <v>392.6435</v>
+        <v>317.728</v>
       </c>
       <c r="F204" s="2" t="n">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="G204" s="1" t="n"/>
     </row>
@@ -6336,20 +6323,20 @@
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>GSCN</t>
-        </is>
-      </c>
-      <c r="C205" s="57" t="n">
-        <v>4045.052</v>
+          <t>Otter</t>
+        </is>
+      </c>
+      <c r="C205" s="58" t="n">
+        <v>4026.883</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>4663.075</v>
+        <v>4823.565</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>309.0115</v>
+        <v>398.341</v>
       </c>
       <c r="F205" s="2" t="n">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="G205" s="1" t="n"/>
     </row>
@@ -6359,20 +6346,20 @@
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>Otter</t>
+          <t>LastChance74824</t>
         </is>
       </c>
       <c r="C206" s="58" t="n">
-        <v>4040.747</v>
+        <v>4010.095</v>
       </c>
       <c r="D206" s="2" t="n">
-        <v>4823.605</v>
+        <v>4740.81</v>
       </c>
       <c r="E206" s="2" t="n">
-        <v>391.429</v>
+        <v>365.3575</v>
       </c>
       <c r="F206" s="2" t="n">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="G206" s="1" t="n"/>
     </row>
@@ -6382,20 +6369,20 @@
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>Ultra</t>
+          <t>mcatooch</t>
         </is>
       </c>
       <c r="C207" s="58" t="n">
-        <v>4030.035</v>
+        <v>4004.169</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>4712.054999999999</v>
+        <v>4890.455</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>341.01</v>
+        <v>443.143</v>
       </c>
       <c r="F207" s="2" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G207" s="1" t="n"/>
     </row>
@@ -6405,20 +6392,20 @@
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>mcatooch</t>
+          <t>Sim_player</t>
         </is>
       </c>
       <c r="C208" s="58" t="n">
-        <v>4016.564</v>
+        <v>4001.503</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>4890.43</v>
+        <v>4938.52</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>436.933</v>
+        <v>468.5085</v>
       </c>
       <c r="F208" s="2" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G208" s="1" t="n"/>
     </row>
@@ -6428,20 +6415,20 @@
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>Sim_player</t>
-        </is>
-      </c>
-      <c r="C209" s="58" t="n">
-        <v>4013.2</v>
+          <t>pokey</t>
+        </is>
+      </c>
+      <c r="C209" s="59" t="n">
+        <v>3998.415</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>4938.469999999999</v>
+        <v>4930.41</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>462.635</v>
+        <v>465.9975</v>
       </c>
       <c r="F209" s="2" t="n">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="G209" s="1" t="n"/>
     </row>
@@ -6451,20 +6438,20 @@
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>pokey</t>
-        </is>
-      </c>
-      <c r="C210" s="58" t="n">
-        <v>4010.165</v>
+          <t>IceKeyHammer</t>
+        </is>
+      </c>
+      <c r="C210" s="59" t="n">
+        <v>3997.45</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>4930.35</v>
+        <v>4828.63</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>460.0925</v>
+        <v>415.59</v>
       </c>
       <c r="F210" s="2" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="G210" s="1" t="n"/>
     </row>
@@ -6474,20 +6461,20 @@
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>Lpcarver</t>
+          <t>soxfox</t>
         </is>
       </c>
       <c r="C211" s="59" t="n">
-        <v>3996.588</v>
+        <v>3994.75</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>4983.32</v>
+        <v>4773.32</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>493.366</v>
+        <v>389.285</v>
       </c>
       <c r="F211" s="2" t="n">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="G211" s="1" t="n"/>
     </row>
@@ -6497,20 +6484,20 @@
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>Lavina</t>
+          <t>Ultra</t>
         </is>
       </c>
       <c r="C212" s="59" t="n">
-        <v>3982.775000000001</v>
+        <v>3993.586</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>4763.5</v>
+        <v>4670.969999999999</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>390.3625</v>
+        <v>338.692</v>
       </c>
       <c r="F212" s="2" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G212" s="1" t="n"/>
     </row>
@@ -6520,20 +6507,20 @@
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>IceKeyHammer</t>
+          <t>Lpcarver</t>
         </is>
       </c>
       <c r="C213" s="59" t="n">
-        <v>3978.511</v>
+        <v>3985.63</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>4824.5</v>
+        <v>4983.385</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>422.9945</v>
+        <v>498.8774999999999</v>
       </c>
       <c r="F213" s="2" t="n">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="G213" s="1" t="n"/>
     </row>
@@ -6543,20 +6530,20 @@
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>zallard21</t>
+          <t>sparky ball</t>
         </is>
       </c>
       <c r="C214" s="59" t="n">
-        <v>3973.923</v>
+        <v>3977.734</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>4856.059999999999</v>
+        <v>4494.375</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>441.0685</v>
+        <v>258.3205</v>
       </c>
       <c r="F214" s="2" t="n">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G214" s="1" t="n"/>
     </row>
@@ -6566,20 +6553,20 @@
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>sparky ball</t>
+          <t>Lavina</t>
         </is>
       </c>
       <c r="C215" s="59" t="n">
-        <v>3969.145</v>
+        <v>3968.559</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>4484.23</v>
+        <v>4763.059999999999</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>257.5425</v>
+        <v>397.2505</v>
       </c>
       <c r="F215" s="2" t="n">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="G215" s="1" t="n"/>
     </row>
@@ -6589,20 +6576,20 @@
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>ReDleGiThacK</t>
+          <t>nosepass</t>
         </is>
       </c>
       <c r="C216" s="59" t="n">
-        <v>3968.608999999999</v>
+        <v>3962.974</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>4634.865</v>
+        <v>4933.26</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>333.128</v>
+        <v>485.143</v>
       </c>
       <c r="F216" s="2" t="n">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="G216" s="1" t="n"/>
     </row>
@@ -6612,20 +6599,20 @@
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>QuantumWillow</t>
+          <t>zallard21</t>
         </is>
       </c>
       <c r="C217" s="59" t="n">
-        <v>3961.033</v>
+        <v>3961.637000000001</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>4675.26</v>
+        <v>4856.070000000001</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>357.1135</v>
+        <v>447.2165</v>
       </c>
       <c r="F217" s="2" t="n">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="G217" s="1" t="n"/>
     </row>
@@ -6635,20 +6622,20 @@
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Brilliance</t>
+          <t>ReDleGiThacK</t>
         </is>
       </c>
       <c r="C218" s="60" t="n">
-        <v>3958.218</v>
+        <v>3953.489</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>4561.915</v>
+        <v>4635.84</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>301.8485</v>
+        <v>341.1755</v>
       </c>
       <c r="F218" s="2" t="n">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="G218" s="1" t="n"/>
     </row>
@@ -6662,13 +6649,13 @@
         </is>
       </c>
       <c r="C219" s="60" t="n">
-        <v>3955.524</v>
+        <v>3938.834</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>4577.33</v>
+        <v>4577.88</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>310.903</v>
+        <v>319.523</v>
       </c>
       <c r="F219" s="2" t="n">
         <v>43</v>
@@ -6681,20 +6668,20 @@
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>turtley</t>
+          <t>LuckyLootCrate</t>
         </is>
       </c>
       <c r="C220" s="60" t="n">
-        <v>3952.044</v>
+        <v>3937.831</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>4669.315000000001</v>
+        <v>4745.595</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>358.6355</v>
+        <v>403.8819999999999</v>
       </c>
       <c r="F220" s="2" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="G220" s="1" t="n"/>
     </row>
@@ -6704,20 +6691,20 @@
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>LuckyLootCrate</t>
+          <t>MidzyAoi</t>
         </is>
       </c>
       <c r="C221" s="60" t="n">
-        <v>3951.486</v>
+        <v>3922.527</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>4745.62</v>
+        <v>4413.035</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>397.067</v>
+        <v>245.254</v>
       </c>
       <c r="F221" s="2" t="n">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="G221" s="1" t="n"/>
     </row>
@@ -6727,20 +6714,20 @@
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>Chatterzard</t>
+          <t>turtley</t>
         </is>
       </c>
       <c r="C222" s="60" t="n">
-        <v>3928.401</v>
+        <v>3918.129</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>4708.59</v>
+        <v>4632.86</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>390.0945</v>
+        <v>357.3655</v>
       </c>
       <c r="F222" s="2" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G222" s="1" t="n"/>
     </row>
@@ -6750,20 +6737,20 @@
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>stargaze</t>
-        </is>
-      </c>
-      <c r="C223" s="60" t="n">
-        <v>3927.616</v>
+          <t>Brilliance</t>
+        </is>
+      </c>
+      <c r="C223" s="61" t="n">
+        <v>3914.979</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>4713.559999999999</v>
+        <v>4526.92</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>392.972</v>
+        <v>305.9705</v>
       </c>
       <c r="F223" s="2" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G223" s="1" t="n"/>
     </row>
@@ -6773,20 +6760,20 @@
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>LastChance74824</t>
-        </is>
-      </c>
-      <c r="C224" s="60" t="n">
-        <v>3923.372</v>
+          <t>Chatterzard</t>
+        </is>
+      </c>
+      <c r="C224" s="61" t="n">
+        <v>3914.912</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>4658.31</v>
+        <v>4708.99</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>367.4689999999999</v>
+        <v>397.039</v>
       </c>
       <c r="F224" s="2" t="n">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="G224" s="1" t="n"/>
     </row>
@@ -6796,20 +6783,20 @@
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>[REDACTED]</t>
-        </is>
-      </c>
-      <c r="C225" s="60" t="n">
-        <v>3921.605</v>
+          <t>stargaze</t>
+        </is>
+      </c>
+      <c r="C225" s="61" t="n">
+        <v>3913.759</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>4770.145</v>
+        <v>4713.465</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>424.27</v>
+        <v>399.853</v>
       </c>
       <c r="F225" s="2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G225" s="1" t="n"/>
     </row>
@@ -6822,14 +6809,14 @@
           <t>SlimeMan</t>
         </is>
       </c>
-      <c r="C226" s="60" t="n">
-        <v>3920.714</v>
+      <c r="C226" s="61" t="n">
+        <v>3907.541</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>4728.835</v>
+        <v>4729.08</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>404.0605</v>
+        <v>410.7695</v>
       </c>
       <c r="F226" s="2" t="n">
         <v>33</v>
@@ -6842,20 +6829,20 @@
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>TheSuj</t>
-        </is>
-      </c>
-      <c r="C227" s="60" t="n">
-        <v>3919.096</v>
+          <t>orbitball</t>
+        </is>
+      </c>
+      <c r="C227" s="61" t="n">
+        <v>3907.097</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>4739.195000000001</v>
+        <v>4881.515</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>410.0495</v>
+        <v>487.209</v>
       </c>
       <c r="F227" s="2" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G227" s="1" t="n"/>
     </row>
@@ -6865,20 +6852,20 @@
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>orbitball</t>
-        </is>
-      </c>
-      <c r="C228" s="60" t="n">
-        <v>3918.322</v>
+          <t>Illycadia</t>
+        </is>
+      </c>
+      <c r="C228" s="61" t="n">
+        <v>3906.087</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>4881.45</v>
+        <v>4557.395</v>
       </c>
       <c r="E228" s="2" t="n">
-        <v>481.564</v>
+        <v>325.654</v>
       </c>
       <c r="F228" s="2" t="n">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="G228" s="1" t="n"/>
     </row>
@@ -6888,20 +6875,20 @@
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>TheDoubledSquare</t>
+          <t>TheSuj</t>
         </is>
       </c>
       <c r="C229" s="61" t="n">
-        <v>3911.423</v>
+        <v>3905.884</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>4508.559999999999</v>
+        <v>4739.205</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>298.5685</v>
+        <v>416.6605</v>
       </c>
       <c r="F229" s="2" t="n">
-        <v>533</v>
+        <v>15</v>
       </c>
       <c r="G229" s="1" t="n"/>
     </row>
@@ -6911,20 +6898,20 @@
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>MidzyAoi</t>
+          <t>TheDoubledSquare</t>
         </is>
       </c>
       <c r="C230" s="61" t="n">
-        <v>3904.46</v>
+        <v>3893.255</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>4386.805</v>
+        <v>4508.385</v>
       </c>
       <c r="E230" s="2" t="n">
-        <v>241.1725</v>
+        <v>307.565</v>
       </c>
       <c r="F230" s="2" t="n">
-        <v>171</v>
+        <v>533</v>
       </c>
       <c r="G230" s="1" t="n"/>
     </row>
@@ -6934,20 +6921,20 @@
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>Mr_Z</t>
-        </is>
-      </c>
-      <c r="C231" s="61" t="n">
-        <v>3889.493</v>
+          <t>lane</t>
+        </is>
+      </c>
+      <c r="C231" s="62" t="n">
+        <v>3873.912</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>4586.315000000001</v>
+        <v>4671.34</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>348.4109999999999</v>
+        <v>398.714</v>
       </c>
       <c r="F231" s="2" t="n">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="G231" s="1" t="n"/>
     </row>
@@ -6957,20 +6944,20 @@
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>lane</t>
-        </is>
-      </c>
-      <c r="C232" s="61" t="n">
-        <v>3887.662</v>
+          <t>Mr_Z</t>
+        </is>
+      </c>
+      <c r="C232" s="62" t="n">
+        <v>3873.878</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>4671.27</v>
+        <v>4586.184999999999</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>391.804</v>
+        <v>356.1535</v>
       </c>
       <c r="F232" s="2" t="n">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="G232" s="1" t="n"/>
     </row>
@@ -6980,20 +6967,20 @@
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>Zoopy_Poptart</t>
+          <t>tchoo</t>
         </is>
       </c>
       <c r="C233" s="62" t="n">
-        <v>3863.905</v>
+        <v>3870.446</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>4861.125</v>
+        <v>4597.55</v>
       </c>
       <c r="E233" s="2" t="n">
-        <v>498.61</v>
+        <v>363.552</v>
       </c>
       <c r="F233" s="2" t="n">
-        <v>23</v>
+        <v>442</v>
       </c>
       <c r="G233" s="1" t="n"/>
     </row>
@@ -7007,13 +6994,13 @@
         </is>
       </c>
       <c r="C234" s="62" t="n">
-        <v>3859.244</v>
+        <v>3847.52</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>4781.530000000001</v>
+        <v>4781.59</v>
       </c>
       <c r="E234" s="2" t="n">
-        <v>461.143</v>
+        <v>467.035</v>
       </c>
       <c r="F234" s="2" t="n">
         <v>85</v>
@@ -7026,20 +7013,20 @@
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>20BitChip</t>
+          <t>[REDACTED]</t>
         </is>
       </c>
       <c r="C235" s="62" t="n">
-        <v>3853.487</v>
+        <v>3843.542</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>4385.155</v>
+        <v>4666.12</v>
       </c>
       <c r="E235" s="2" t="n">
-        <v>265.834</v>
+        <v>411.289</v>
       </c>
       <c r="F235" s="2" t="n">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="G235" s="1" t="n"/>
     </row>
@@ -7053,13 +7040,13 @@
         </is>
       </c>
       <c r="C236" s="62" t="n">
-        <v>3850.673</v>
+        <v>3838.457</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>4736.62</v>
+        <v>4736.655</v>
       </c>
       <c r="E236" s="2" t="n">
-        <v>442.9735</v>
+        <v>449.099</v>
       </c>
       <c r="F236" s="2" t="n">
         <v>16</v>
@@ -7076,13 +7063,13 @@
         </is>
       </c>
       <c r="C237" s="62" t="n">
-        <v>3848.394</v>
+        <v>3837.235</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>4818.6</v>
+        <v>4818.65</v>
       </c>
       <c r="E237" s="2" t="n">
-        <v>485.103</v>
+        <v>490.7075</v>
       </c>
       <c r="F237" s="2" t="n">
         <v>30</v>
@@ -7095,20 +7082,20 @@
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>murasaki</t>
+          <t>20BitChip</t>
         </is>
       </c>
       <c r="C238" s="62" t="n">
-        <v>3844.901</v>
+        <v>3833.432</v>
       </c>
       <c r="D238" s="2" t="n">
-        <v>4655.77</v>
+        <v>4385.24</v>
       </c>
       <c r="E238" s="2" t="n">
-        <v>405.4345</v>
+        <v>275.904</v>
       </c>
       <c r="F238" s="2" t="n">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="G238" s="1" t="n"/>
     </row>
@@ -7118,20 +7105,20 @@
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>Aa</t>
-        </is>
-      </c>
-      <c r="C239" s="62" t="n">
-        <v>3837.038</v>
+          <t>murasaki</t>
+        </is>
+      </c>
+      <c r="C239" s="63" t="n">
+        <v>3831.578</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>4617.27</v>
+        <v>4655.825</v>
       </c>
       <c r="E239" s="2" t="n">
-        <v>390.116</v>
+        <v>412.1235</v>
       </c>
       <c r="F239" s="2" t="n">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="G239" s="1" t="n"/>
     </row>
@@ -7141,20 +7128,20 @@
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>tchoo</t>
+          <t>Aa</t>
         </is>
       </c>
       <c r="C240" s="63" t="n">
-        <v>3828.867</v>
+        <v>3823.175</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>4566.775</v>
+        <v>4617.29</v>
       </c>
       <c r="E240" s="2" t="n">
-        <v>368.954</v>
+        <v>397.0575</v>
       </c>
       <c r="F240" s="2" t="n">
-        <v>441</v>
+        <v>199</v>
       </c>
       <c r="G240" s="1" t="n"/>
     </row>
@@ -7168,13 +7155,13 @@
         </is>
       </c>
       <c r="C241" s="63" t="n">
-        <v>3805.656</v>
+        <v>3794.029</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>4736.059999999999</v>
+        <v>4736.115</v>
       </c>
       <c r="E241" s="2" t="n">
-        <v>465.202</v>
+        <v>471.043</v>
       </c>
       <c r="F241" s="2" t="n">
         <v>96</v>
@@ -7190,14 +7177,14 @@
           <t>haxolotl</t>
         </is>
       </c>
-      <c r="C242" s="63" t="n">
-        <v>3797.391</v>
+      <c r="C242" s="64" t="n">
+        <v>3785.805</v>
       </c>
       <c r="D242" s="2" t="n">
-        <v>4730.73</v>
+        <v>4730.79</v>
       </c>
       <c r="E242" s="2" t="n">
-        <v>466.6695</v>
+        <v>472.4925000000001</v>
       </c>
       <c r="F242" s="2" t="n">
         <v>266</v>
@@ -7213,14 +7200,14 @@
           <t>Super21</t>
         </is>
       </c>
-      <c r="C243" s="63" t="n">
-        <v>3792.477</v>
+      <c r="C243" s="64" t="n">
+        <v>3780.121</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>4667.200000000001</v>
+        <v>4667.26</v>
       </c>
       <c r="E243" s="2" t="n">
-        <v>437.3615</v>
+        <v>443.5694999999999</v>
       </c>
       <c r="F243" s="2" t="n">
         <v>50</v>
@@ -7237,13 +7224,13 @@
         </is>
       </c>
       <c r="C244" s="64" t="n">
-        <v>3787.398000000001</v>
+        <v>3774.633</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>4640.23</v>
+        <v>4640.17</v>
       </c>
       <c r="E244" s="2" t="n">
-        <v>426.4159999999999</v>
+        <v>432.7685</v>
       </c>
       <c r="F244" s="2" t="n">
         <v>15</v>
@@ -7260,13 +7247,13 @@
         </is>
       </c>
       <c r="C245" s="64" t="n">
-        <v>3782.835</v>
+        <v>3771.502</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>4738.535</v>
+        <v>4738.58</v>
       </c>
       <c r="E245" s="2" t="n">
-        <v>477.85</v>
+        <v>483.539</v>
       </c>
       <c r="F245" s="2" t="n">
         <v>9</v>
@@ -7283,13 +7270,13 @@
         </is>
       </c>
       <c r="C246" s="64" t="n">
-        <v>3780.155</v>
+        <v>3767.921</v>
       </c>
       <c r="D246" s="2" t="n">
-        <v>4671.22</v>
+        <v>4671.139999999999</v>
       </c>
       <c r="E246" s="2" t="n">
-        <v>445.5325</v>
+        <v>451.6095</v>
       </c>
       <c r="F246" s="2" t="n">
         <v>7</v>
@@ -7302,20 +7289,20 @@
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>RadioTheRadio</t>
-        </is>
-      </c>
-      <c r="C247" s="64" t="n">
-        <v>3761.767</v>
+          <t>raine</t>
+        </is>
+      </c>
+      <c r="C247" s="65" t="n">
+        <v>3745.574000000001</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>4658.08</v>
+        <v>4536.37</v>
       </c>
       <c r="E247" s="2" t="n">
-        <v>448.1565</v>
+        <v>395.398</v>
       </c>
       <c r="F247" s="2" t="n">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="G247" s="1" t="n"/>
     </row>
@@ -7325,20 +7312,20 @@
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>bandi72006</t>
-        </is>
-      </c>
-      <c r="C248" s="64" t="n">
-        <v>3760.669</v>
+          <t>Matsubara Kanon</t>
+        </is>
+      </c>
+      <c r="C248" s="65" t="n">
+        <v>3739.634</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>4448.965</v>
+        <v>4556.42</v>
       </c>
       <c r="E248" s="2" t="n">
-        <v>344.148</v>
+        <v>408.393</v>
       </c>
       <c r="F248" s="2" t="n">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="G248" s="1" t="n"/>
     </row>
@@ -7348,20 +7335,20 @@
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>raine</t>
-        </is>
-      </c>
-      <c r="C249" s="64" t="n">
-        <v>3760.03</v>
+          <t>Uxinator</t>
+        </is>
+      </c>
+      <c r="C249" s="65" t="n">
+        <v>3736.111</v>
       </c>
       <c r="D249" s="2" t="n">
-        <v>4537.054999999999</v>
+        <v>4597.99</v>
       </c>
       <c r="E249" s="2" t="n">
-        <v>388.5125</v>
+        <v>430.9395</v>
       </c>
       <c r="F249" s="2" t="n">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="G249" s="1" t="n"/>
     </row>
@@ -7371,20 +7358,20 @@
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>Matsubara Kanon</t>
-        </is>
-      </c>
-      <c r="C250" s="64" t="n">
-        <v>3752.88</v>
+          <t>fitatfi</t>
+        </is>
+      </c>
+      <c r="C250" s="65" t="n">
+        <v>3729.679999999999</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>4556.15</v>
+        <v>4426.57</v>
       </c>
       <c r="E250" s="2" t="n">
-        <v>401.635</v>
+        <v>348.4449999999999</v>
       </c>
       <c r="F250" s="2" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G250" s="1" t="n"/>
     </row>
@@ -7394,20 +7381,20 @@
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>Uxinator</t>
+          <t>bandi72006</t>
         </is>
       </c>
       <c r="C251" s="65" t="n">
-        <v>3748.84</v>
+        <v>3727.23</v>
       </c>
       <c r="D251" s="2" t="n">
-        <v>4597.934999999999</v>
+        <v>4410.765</v>
       </c>
       <c r="E251" s="2" t="n">
-        <v>424.5475</v>
+        <v>341.7675</v>
       </c>
       <c r="F251" s="2" t="n">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="G251" s="1" t="n"/>
     </row>
@@ -7417,20 +7404,20 @@
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>fitatfi</t>
+          <t>lehii dime</t>
         </is>
       </c>
       <c r="C252" s="65" t="n">
-        <v>3745.187</v>
+        <v>3722.671</v>
       </c>
       <c r="D252" s="2" t="n">
-        <v>4426.395</v>
+        <v>4572.38</v>
       </c>
       <c r="E252" s="2" t="n">
-        <v>340.604</v>
+        <v>424.8545</v>
       </c>
       <c r="F252" s="2" t="n">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="G252" s="1" t="n"/>
     </row>
@@ -7440,20 +7427,20 @@
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>lehii dime</t>
-        </is>
-      </c>
-      <c r="C253" s="65" t="n">
-        <v>3735.59</v>
+          <t>Happy Fat</t>
+        </is>
+      </c>
+      <c r="C253" s="66" t="n">
+        <v>3698.475</v>
       </c>
       <c r="D253" s="2" t="n">
-        <v>4572.335</v>
+        <v>4525.21</v>
       </c>
       <c r="E253" s="2" t="n">
-        <v>418.3724999999999</v>
+        <v>413.3675</v>
       </c>
       <c r="F253" s="2" t="n">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G253" s="1" t="n"/>
     </row>
@@ -7463,20 +7450,20 @@
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>Happy Fat</t>
-        </is>
-      </c>
-      <c r="C254" s="65" t="n">
-        <v>3711.758</v>
+          <t>Otam</t>
+        </is>
+      </c>
+      <c r="C254" s="66" t="n">
+        <v>3687.603</v>
       </c>
       <c r="D254" s="2" t="n">
-        <v>4525.155</v>
+        <v>4523.690000000001</v>
       </c>
       <c r="E254" s="2" t="n">
-        <v>406.6985</v>
+        <v>418.0435</v>
       </c>
       <c r="F254" s="2" t="n">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G254" s="1" t="n"/>
     </row>
@@ -7486,20 +7473,20 @@
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>CyclonicRifted</t>
+          <t>B1NARY</t>
         </is>
       </c>
       <c r="C255" s="66" t="n">
-        <v>3701.152</v>
+        <v>3687.476000000001</v>
       </c>
       <c r="D255" s="2" t="n">
-        <v>4249.505</v>
+        <v>4607.97</v>
       </c>
       <c r="E255" s="2" t="n">
-        <v>274.1765</v>
+        <v>460.247</v>
       </c>
       <c r="F255" s="2" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G255" s="1" t="n"/>
     </row>
@@ -7509,20 +7496,20 @@
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>B1NARY</t>
+          <t>Quippybro</t>
         </is>
       </c>
       <c r="C256" s="66" t="n">
-        <v>3699.377</v>
+        <v>3684.776</v>
       </c>
       <c r="D256" s="2" t="n">
-        <v>4607.91</v>
+        <v>4628.675</v>
       </c>
       <c r="E256" s="2" t="n">
-        <v>454.2665</v>
+        <v>471.9495</v>
       </c>
       <c r="F256" s="2" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G256" s="1" t="n"/>
     </row>
@@ -7532,20 +7519,20 @@
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>Illycadia</t>
+          <t>How</t>
         </is>
       </c>
       <c r="C257" s="66" t="n">
-        <v>3698.619000000001</v>
+        <v>3679.669</v>
       </c>
       <c r="D257" s="2" t="n">
-        <v>4408.065000000001</v>
+        <v>4595.78</v>
       </c>
       <c r="E257" s="2" t="n">
-        <v>354.723</v>
+        <v>458.0554999999999</v>
       </c>
       <c r="F257" s="2" t="n">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="G257" s="1" t="n"/>
     </row>
@@ -7555,20 +7542,20 @@
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>Quippybro</t>
+          <t>CyclonicRifted</t>
         </is>
       </c>
       <c r="C258" s="66" t="n">
-        <v>3696.386</v>
+        <v>3678.404</v>
       </c>
       <c r="D258" s="2" t="n">
-        <v>4628.625</v>
+        <v>4241.27</v>
       </c>
       <c r="E258" s="2" t="n">
-        <v>466.1195</v>
+        <v>281.433</v>
       </c>
       <c r="F258" s="2" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G258" s="1" t="n"/>
     </row>
@@ -7578,20 +7565,20 @@
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>How</t>
+          <t>Douglas (BBall Dunker Animator)</t>
         </is>
       </c>
       <c r="C259" s="66" t="n">
-        <v>3691.5</v>
+        <v>3673.795</v>
       </c>
       <c r="D259" s="2" t="n">
-        <v>4595.61</v>
+        <v>4658.525000000001</v>
       </c>
       <c r="E259" s="2" t="n">
-        <v>452.055</v>
+        <v>492.365</v>
       </c>
       <c r="F259" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G259" s="1" t="n"/>
     </row>
@@ -7605,13 +7592,13 @@
         </is>
       </c>
       <c r="C260" s="66" t="n">
-        <v>3688.822</v>
+        <v>3673.166999999999</v>
       </c>
       <c r="D260" s="2" t="n">
-        <v>4363.3</v>
+        <v>4363.59</v>
       </c>
       <c r="E260" s="2" t="n">
-        <v>337.239</v>
+        <v>345.2115</v>
       </c>
       <c r="F260" s="2" t="n">
         <v>29</v>
@@ -7624,20 +7611,20 @@
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>Douglas (BBall Dunker Animator)</t>
+          <t>alexlion0511</t>
         </is>
       </c>
       <c r="C261" s="66" t="n">
-        <v>3684.944</v>
+        <v>3668.237</v>
       </c>
       <c r="D261" s="2" t="n">
-        <v>4658.514999999999</v>
+        <v>4437.28</v>
       </c>
       <c r="E261" s="2" t="n">
-        <v>486.7855</v>
+        <v>384.5215000000001</v>
       </c>
       <c r="F261" s="2" t="n">
-        <v>5</v>
+        <v>370</v>
       </c>
       <c r="G261" s="1" t="n"/>
     </row>
@@ -7647,20 +7634,20 @@
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>Huri Churi</t>
+          <t>Yerboi 73</t>
         </is>
       </c>
       <c r="C262" s="66" t="n">
-        <v>3683.747</v>
+        <v>3667.719</v>
       </c>
       <c r="D262" s="2" t="n">
-        <v>4510.695</v>
+        <v>4493.38</v>
       </c>
       <c r="E262" s="2" t="n">
-        <v>413.474</v>
+        <v>412.8305</v>
       </c>
       <c r="F262" s="2" t="n">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="G262" s="1" t="n"/>
     </row>
@@ -7670,20 +7657,20 @@
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>alexlion0511</t>
-        </is>
-      </c>
-      <c r="C263" s="66" t="n">
-        <v>3682.558</v>
+          <t>Andyman</t>
+        </is>
+      </c>
+      <c r="C263" s="67" t="n">
+        <v>3663.599</v>
       </c>
       <c r="D263" s="2" t="n">
-        <v>4437.255</v>
+        <v>4569.764999999999</v>
       </c>
       <c r="E263" s="2" t="n">
-        <v>377.3485</v>
+        <v>453.083</v>
       </c>
       <c r="F263" s="2" t="n">
-        <v>370</v>
+        <v>187</v>
       </c>
       <c r="G263" s="1" t="n"/>
     </row>
@@ -7693,20 +7680,20 @@
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>Yerboi 73</t>
-        </is>
-      </c>
-      <c r="C264" s="66" t="n">
-        <v>3681.022</v>
+          <t>pink man</t>
+        </is>
+      </c>
+      <c r="C264" s="67" t="n">
+        <v>3662.953</v>
       </c>
       <c r="D264" s="2" t="n">
-        <v>4493.33</v>
+        <v>4445.71</v>
       </c>
       <c r="E264" s="2" t="n">
-        <v>406.154</v>
+        <v>391.3785</v>
       </c>
       <c r="F264" s="2" t="n">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="G264" s="1" t="n"/>
     </row>
@@ -7716,20 +7703,20 @@
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>pink man</t>
-        </is>
-      </c>
-      <c r="C265" s="66" t="n">
-        <v>3677.087</v>
+          <t>RadioTheRadio</t>
+        </is>
+      </c>
+      <c r="C265" s="67" t="n">
+        <v>3657.083</v>
       </c>
       <c r="D265" s="2" t="n">
-        <v>4445.725</v>
+        <v>4520.44</v>
       </c>
       <c r="E265" s="2" t="n">
-        <v>384.319</v>
+        <v>431.6785</v>
       </c>
       <c r="F265" s="2" t="n">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="G265" s="1" t="n"/>
     </row>
@@ -7739,20 +7726,20 @@
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>Andyman</t>
-        </is>
-      </c>
-      <c r="C266" s="66" t="n">
-        <v>3675.691000000001</v>
+          <t>OveCZ</t>
+        </is>
+      </c>
+      <c r="C266" s="67" t="n">
+        <v>3656.872</v>
       </c>
       <c r="D266" s="2" t="n">
-        <v>4569.705</v>
+        <v>4604.345</v>
       </c>
       <c r="E266" s="2" t="n">
-        <v>447.0069999999999</v>
+        <v>473.7365</v>
       </c>
       <c r="F266" s="2" t="n">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="G266" s="1" t="n"/>
     </row>
@@ -7762,20 +7749,20 @@
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>OveCZ</t>
-        </is>
-      </c>
-      <c r="C267" s="66" t="n">
-        <v>3668.949</v>
+          <t>EvilPoPo</t>
+        </is>
+      </c>
+      <c r="C267" s="67" t="n">
+        <v>3653.11</v>
       </c>
       <c r="D267" s="2" t="n">
-        <v>4604.98</v>
+        <v>4522.555</v>
       </c>
       <c r="E267" s="2" t="n">
-        <v>468.0155</v>
+        <v>434.7225</v>
       </c>
       <c r="F267" s="2" t="n">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="G267" s="1" t="n"/>
     </row>
@@ -7785,20 +7772,20 @@
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>EvilPoPo</t>
+          <t>Huri Churi</t>
         </is>
       </c>
       <c r="C268" s="67" t="n">
-        <v>3665.738</v>
+        <v>3652.959</v>
       </c>
       <c r="D268" s="2" t="n">
-        <v>4522.525</v>
+        <v>4457.799999999999</v>
       </c>
       <c r="E268" s="2" t="n">
-        <v>428.3935</v>
+        <v>402.4205</v>
       </c>
       <c r="F268" s="2" t="n">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="G268" s="1" t="n"/>
     </row>
@@ -7812,13 +7799,13 @@
         </is>
       </c>
       <c r="C269" s="67" t="n">
-        <v>3663.223</v>
+        <v>3650.275000000001</v>
       </c>
       <c r="D269" s="2" t="n">
-        <v>4497.895</v>
+        <v>4497.95</v>
       </c>
       <c r="E269" s="2" t="n">
-        <v>417.336</v>
+        <v>423.8375</v>
       </c>
       <c r="F269" s="2" t="n">
         <v>41</v>
@@ -7834,14 +7821,14 @@
           <t>awepi</t>
         </is>
       </c>
-      <c r="C270" s="67" t="n">
-        <v>3632.321</v>
+      <c r="C270" s="68" t="n">
+        <v>3621.23</v>
       </c>
       <c r="D270" s="2" t="n">
-        <v>4607.19</v>
+        <v>4607.255</v>
       </c>
       <c r="E270" s="2" t="n">
-        <v>487.4345</v>
+        <v>493.0125</v>
       </c>
       <c r="F270" s="2" t="n">
         <v>86</v>
@@ -7857,14 +7844,14 @@
           <t>zsboS</t>
         </is>
       </c>
-      <c r="C271" s="67" t="n">
-        <v>3626.477</v>
+      <c r="C271" s="68" t="n">
+        <v>3614.091</v>
       </c>
       <c r="D271" s="2" t="n">
-        <v>4500.04</v>
+        <v>4500.085</v>
       </c>
       <c r="E271" s="2" t="n">
-        <v>436.7815000000001</v>
+        <v>442.997</v>
       </c>
       <c r="F271" s="2" t="n">
         <v>130</v>
@@ -7881,13 +7868,13 @@
         </is>
       </c>
       <c r="C272" s="68" t="n">
-        <v>3618.84</v>
+        <v>3604.637</v>
       </c>
       <c r="D272" s="2" t="n">
-        <v>4377.955</v>
+        <v>4378.025</v>
       </c>
       <c r="E272" s="2" t="n">
-        <v>379.5575</v>
+        <v>386.694</v>
       </c>
       <c r="F272" s="2" t="n">
         <v>79</v>
@@ -7904,13 +7891,13 @@
         </is>
       </c>
       <c r="C273" s="69" t="n">
-        <v>3576.781</v>
+        <v>3562.679</v>
       </c>
       <c r="D273" s="2" t="n">
-        <v>4342.285</v>
+        <v>4342.34</v>
       </c>
       <c r="E273" s="2" t="n">
-        <v>382.752</v>
+        <v>389.8305</v>
       </c>
       <c r="F273" s="2" t="n">
         <v>172</v>
@@ -7923,20 +7910,20 @@
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>spongebob cum rag</t>
         </is>
       </c>
       <c r="C274" s="69" t="n">
-        <v>3575.017</v>
+        <v>3556.452</v>
       </c>
       <c r="D274" s="2" t="n">
-        <v>4182.099999999999</v>
+        <v>4471.995</v>
       </c>
       <c r="E274" s="2" t="n">
-        <v>303.5415</v>
+        <v>457.7715</v>
       </c>
       <c r="F274" s="2" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G274" s="1" t="n"/>
     </row>
@@ -7946,20 +7933,20 @@
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>spongebob cum rag</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C275" s="69" t="n">
-        <v>3568.444</v>
+        <v>3556.09</v>
       </c>
       <c r="D275" s="2" t="n">
-        <v>4471.96</v>
+        <v>4157.775</v>
       </c>
       <c r="E275" s="2" t="n">
-        <v>451.758</v>
+        <v>300.8425</v>
       </c>
       <c r="F275" s="2" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G275" s="1" t="n"/>
     </row>
@@ -7973,13 +7960,13 @@
         </is>
       </c>
       <c r="C276" s="69" t="n">
-        <v>3564.429</v>
+        <v>3550.983</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>4361.474999999999</v>
+        <v>4361.429999999999</v>
       </c>
       <c r="E276" s="2" t="n">
-        <v>398.523</v>
+        <v>405.2235000000001</v>
       </c>
       <c r="F276" s="2" t="n">
         <v>26</v>
@@ -7992,20 +7979,20 @@
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>Maglev Whale</t>
-        </is>
-      </c>
-      <c r="C277" s="69" t="n">
-        <v>3550.936000000001</v>
+          <t>ObjectionOverruled</t>
+        </is>
+      </c>
+      <c r="C277" s="70" t="n">
+        <v>3535.554</v>
       </c>
       <c r="D277" s="2" t="n">
-        <v>4222.16</v>
+        <v>4505.88</v>
       </c>
       <c r="E277" s="2" t="n">
-        <v>335.612</v>
+        <v>485.163</v>
       </c>
       <c r="F277" s="2" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G277" s="1" t="n"/>
     </row>
@@ -8015,20 +8002,20 @@
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>ObjectionOverruled</t>
-        </is>
-      </c>
-      <c r="C278" s="69" t="n">
-        <v>3546.838</v>
+          <t>Maglev Whale</t>
+        </is>
+      </c>
+      <c r="C278" s="70" t="n">
+        <v>3534.81</v>
       </c>
       <c r="D278" s="2" t="n">
-        <v>4505.825</v>
+        <v>4222.12</v>
       </c>
       <c r="E278" s="2" t="n">
-        <v>479.4935</v>
+        <v>343.655</v>
       </c>
       <c r="F278" s="2" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="G278" s="1" t="n"/>
     </row>
@@ -8042,13 +8029,13 @@
         </is>
       </c>
       <c r="C279" s="70" t="n">
-        <v>3532.112</v>
+        <v>3518.188</v>
       </c>
       <c r="D279" s="2" t="n">
-        <v>4300.66</v>
+        <v>4300.804999999999</v>
       </c>
       <c r="E279" s="2" t="n">
-        <v>384.274</v>
+        <v>391.3085</v>
       </c>
       <c r="F279" s="2" t="n">
         <v>17</v>
@@ -8065,13 +8052,13 @@
         </is>
       </c>
       <c r="C280" s="70" t="n">
-        <v>3532.002</v>
+        <v>3515.827</v>
       </c>
       <c r="D280" s="2" t="n">
-        <v>4198.46</v>
+        <v>4198.495</v>
       </c>
       <c r="E280" s="2" t="n">
-        <v>333.229</v>
+        <v>341.334</v>
       </c>
       <c r="F280" s="2" t="n">
         <v>284</v>
@@ -8084,20 +8071,20 @@
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>Otam</t>
+          <t>Ragu Pasta Sauce</t>
         </is>
       </c>
       <c r="C281" s="70" t="n">
-        <v>3528.61</v>
+        <v>3515.26</v>
       </c>
       <c r="D281" s="2" t="n">
-        <v>4381.78</v>
+        <v>4368.745</v>
       </c>
       <c r="E281" s="2" t="n">
-        <v>426.585</v>
+        <v>426.7425</v>
       </c>
       <c r="F281" s="2" t="n">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="G281" s="1" t="n"/>
     </row>
@@ -8107,20 +8094,20 @@
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>Ragu Pasta Sauce</t>
+          <t>Little Luigi</t>
         </is>
       </c>
       <c r="C282" s="70" t="n">
-        <v>3528.118</v>
+        <v>3507.434</v>
       </c>
       <c r="D282" s="2" t="n">
-        <v>4368.690000000001</v>
+        <v>4427.925</v>
       </c>
       <c r="E282" s="2" t="n">
-        <v>420.2859999999999</v>
+        <v>460.2455</v>
       </c>
       <c r="F282" s="2" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G282" s="1" t="n"/>
     </row>
@@ -8130,20 +8117,20 @@
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>Little Luigi</t>
-        </is>
-      </c>
-      <c r="C283" s="70" t="n">
-        <v>3519.407</v>
+          <t>Monika</t>
+        </is>
+      </c>
+      <c r="C283" s="71" t="n">
+        <v>3495.855</v>
       </c>
       <c r="D283" s="2" t="n">
-        <v>4427.97</v>
+        <v>4489.39</v>
       </c>
       <c r="E283" s="2" t="n">
-        <v>454.2815000000001</v>
+        <v>496.7675</v>
       </c>
       <c r="F283" s="2" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G283" s="1" t="n"/>
     </row>
@@ -8153,20 +8140,20 @@
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>Monika</t>
-        </is>
-      </c>
-      <c r="C284" s="70" t="n">
-        <v>3506.866</v>
+          <t>KingdomClasher</t>
+        </is>
+      </c>
+      <c r="C284" s="71" t="n">
+        <v>3491.804</v>
       </c>
       <c r="D284" s="2" t="n">
-        <v>4489.33</v>
+        <v>4489.845</v>
       </c>
       <c r="E284" s="2" t="n">
-        <v>491.232</v>
+        <v>499.0205</v>
       </c>
       <c r="F284" s="2" t="n">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="G284" s="1" t="n"/>
     </row>
@@ -8176,20 +8163,20 @@
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>XxSlime_GamerxX</t>
-        </is>
-      </c>
-      <c r="C285" s="70" t="n">
-        <v>3502.874</v>
+          <t>Powerman103</t>
+        </is>
+      </c>
+      <c r="C285" s="71" t="n">
+        <v>3470.723</v>
       </c>
       <c r="D285" s="2" t="n">
-        <v>4298.125</v>
+        <v>4429.92</v>
       </c>
       <c r="E285" s="2" t="n">
-        <v>397.6255</v>
+        <v>479.5985000000001</v>
       </c>
       <c r="F285" s="2" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G285" s="1" t="n"/>
     </row>
@@ -8199,20 +8186,20 @@
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>Copernicium</t>
+          <t>SlimeGamer7</t>
         </is>
       </c>
       <c r="C286" s="71" t="n">
-        <v>3476.236</v>
+        <v>3470.467</v>
       </c>
       <c r="D286" s="2" t="n">
-        <v>4176.05</v>
+        <v>4249.005</v>
       </c>
       <c r="E286" s="2" t="n">
-        <v>349.907</v>
+        <v>389.269</v>
       </c>
       <c r="F286" s="2" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G286" s="1" t="n"/>
     </row>
@@ -8222,20 +8209,20 @@
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>Square</t>
+          <t>Copernicium</t>
         </is>
       </c>
       <c r="C287" s="71" t="n">
-        <v>3467.763</v>
+        <v>3460.816</v>
       </c>
       <c r="D287" s="2" t="n">
-        <v>4455.335</v>
+        <v>4176.085</v>
       </c>
       <c r="E287" s="2" t="n">
-        <v>493.786</v>
+        <v>357.6345</v>
       </c>
       <c r="F287" s="2" t="n">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="G287" s="1" t="n"/>
     </row>
@@ -8245,20 +8232,20 @@
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>flying</t>
-        </is>
-      </c>
-      <c r="C288" s="71" t="n">
-        <v>3459.753</v>
+          <t>Square</t>
+        </is>
+      </c>
+      <c r="C288" s="72" t="n">
+        <v>3456.796</v>
       </c>
       <c r="D288" s="2" t="n">
-        <v>4156.68</v>
+        <v>4455.365</v>
       </c>
       <c r="E288" s="2" t="n">
-        <v>348.4635</v>
+        <v>499.2845</v>
       </c>
       <c r="F288" s="2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G288" s="1" t="n"/>
     </row>
@@ -8268,20 +8255,20 @@
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>Aster Green</t>
+          <t>Jess</t>
         </is>
       </c>
       <c r="C289" s="72" t="n">
-        <v>3454.718</v>
+        <v>3447.053</v>
       </c>
       <c r="D289" s="2" t="n">
-        <v>4260.535</v>
+        <v>4144.24</v>
       </c>
       <c r="E289" s="2" t="n">
-        <v>402.9085</v>
+        <v>348.5935</v>
       </c>
       <c r="F289" s="2" t="n">
-        <v>119</v>
+        <v>332</v>
       </c>
       <c r="G289" s="1" t="n"/>
     </row>
@@ -8291,20 +8278,20 @@
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>one direction saved my life</t>
+          <t>flying</t>
         </is>
       </c>
       <c r="C290" s="72" t="n">
-        <v>3454.045</v>
+        <v>3444.315</v>
       </c>
       <c r="D290" s="2" t="n">
-        <v>4362.475</v>
+        <v>4156.764999999999</v>
       </c>
       <c r="E290" s="2" t="n">
-        <v>454.215</v>
+        <v>356.225</v>
       </c>
       <c r="F290" s="2" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G290" s="1" t="n"/>
     </row>
@@ -8314,20 +8301,20 @@
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>So</t>
+          <t>one direction saved my life</t>
         </is>
       </c>
       <c r="C291" s="72" t="n">
-        <v>3444.121</v>
+        <v>3442.12</v>
       </c>
       <c r="D291" s="2" t="n">
-        <v>4357.365</v>
+        <v>4362.51</v>
       </c>
       <c r="E291" s="2" t="n">
-        <v>456.622</v>
+        <v>460.195</v>
       </c>
       <c r="F291" s="2" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G291" s="1" t="n"/>
     </row>
@@ -8337,20 +8324,20 @@
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>Friendly Neighborhood Spinster</t>
+          <t>Aster Green</t>
         </is>
       </c>
       <c r="C292" s="72" t="n">
-        <v>3437.615</v>
+        <v>3441.382000000001</v>
       </c>
       <c r="D292" s="2" t="n">
-        <v>4277.26</v>
+        <v>4260.665</v>
       </c>
       <c r="E292" s="2" t="n">
-        <v>419.8225</v>
+        <v>409.6415</v>
       </c>
       <c r="F292" s="2" t="n">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="G292" s="1" t="n"/>
     </row>
@@ -8360,20 +8347,20 @@
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>IceBox</t>
+          <t>So</t>
         </is>
       </c>
       <c r="C293" s="72" t="n">
-        <v>3432.31</v>
+        <v>3432.276000000001</v>
       </c>
       <c r="D293" s="2" t="n">
-        <v>4353.805</v>
+        <v>4357.42</v>
       </c>
       <c r="E293" s="2" t="n">
-        <v>460.7475</v>
+        <v>462.572</v>
       </c>
       <c r="F293" s="2" t="n">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="G293" s="1" t="n"/>
     </row>
@@ -8383,20 +8370,20 @@
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>RaphaPxyl</t>
+          <t>Friendly Neighborhood Spinster</t>
         </is>
       </c>
       <c r="C294" s="72" t="n">
-        <v>3431.573</v>
+        <v>3424.706</v>
       </c>
       <c r="D294" s="2" t="n">
-        <v>4052.925</v>
+        <v>4277.275000000001</v>
       </c>
       <c r="E294" s="2" t="n">
-        <v>310.676</v>
+        <v>426.2845</v>
       </c>
       <c r="F294" s="2" t="n">
-        <v>296</v>
+        <v>47</v>
       </c>
       <c r="G294" s="1" t="n"/>
     </row>
@@ -8406,20 +8393,20 @@
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>TDoggo_Washere</t>
+          <t>IceBox</t>
         </is>
       </c>
       <c r="C295" s="72" t="n">
-        <v>3421.447</v>
+        <v>3420.571</v>
       </c>
       <c r="D295" s="2" t="n">
-        <v>4132.84</v>
+        <v>4353.860000000001</v>
       </c>
       <c r="E295" s="2" t="n">
-        <v>355.6965</v>
+        <v>466.6445</v>
       </c>
       <c r="F295" s="2" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G295" s="1" t="n"/>
     </row>
@@ -8429,20 +8416,20 @@
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>Moltres</t>
+          <t>TDoggo_Washere</t>
         </is>
       </c>
       <c r="C296" s="73" t="n">
-        <v>3404.656</v>
+        <v>3406.333999999999</v>
       </c>
       <c r="D296" s="2" t="n">
-        <v>4242.835</v>
+        <v>4132.92</v>
       </c>
       <c r="E296" s="2" t="n">
-        <v>419.0895</v>
+        <v>363.293</v>
       </c>
       <c r="F296" s="2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G296" s="1" t="n"/>
     </row>
@@ -8452,20 +8439,20 @@
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>TestSubjection</t>
+          <t>crap</t>
         </is>
       </c>
       <c r="C297" s="73" t="n">
-        <v>3402.008</v>
+        <v>3405.341</v>
       </c>
       <c r="D297" s="2" t="n">
-        <v>4401.375</v>
+        <v>4113.940000000001</v>
       </c>
       <c r="E297" s="2" t="n">
-        <v>499.6835</v>
+        <v>354.2995</v>
       </c>
       <c r="F297" s="2" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G297" s="1" t="n"/>
     </row>
@@ -8475,20 +8462,20 @@
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>GamerMcViolentPants</t>
+          <t>Moltres</t>
         </is>
       </c>
       <c r="C298" s="73" t="n">
-        <v>3401.952</v>
+        <v>3391.718</v>
       </c>
       <c r="D298" s="2" t="n">
-        <v>4380.615</v>
+        <v>4242.87</v>
       </c>
       <c r="E298" s="2" t="n">
-        <v>489.3315</v>
+        <v>425.576</v>
       </c>
       <c r="F298" s="2" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G298" s="1" t="n"/>
     </row>
@@ -8498,20 +8485,20 @@
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>asc</t>
+          <t>GamerMcViolentPants</t>
         </is>
       </c>
       <c r="C299" s="73" t="n">
-        <v>3396.984</v>
+        <v>3390.873000000001</v>
       </c>
       <c r="D299" s="2" t="n">
-        <v>4261.8</v>
+        <v>4380.65</v>
       </c>
       <c r="E299" s="2" t="n">
-        <v>432.408</v>
+        <v>494.8885</v>
       </c>
       <c r="F299" s="2" t="n">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="G299" s="1" t="n"/>
     </row>
@@ -8521,20 +8508,20 @@
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>dumbjames5305</t>
+          <t>n_cube877</t>
         </is>
       </c>
       <c r="C300" s="73" t="n">
-        <v>3377.003</v>
+        <v>3388.269</v>
       </c>
       <c r="D300" s="2" t="n">
-        <v>4082.38</v>
+        <v>4009.205</v>
       </c>
       <c r="E300" s="2" t="n">
-        <v>352.6885</v>
+        <v>310.468</v>
       </c>
       <c r="F300" s="2" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G300" s="1" t="n"/>
     </row>
@@ -8544,20 +8531,20 @@
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>PretzelDinosaur</t>
+          <t>asc</t>
         </is>
       </c>
       <c r="C301" s="73" t="n">
-        <v>3376.575</v>
+        <v>3384.493</v>
       </c>
       <c r="D301" s="2" t="n">
-        <v>4284.965</v>
+        <v>4261.865</v>
       </c>
       <c r="E301" s="2" t="n">
-        <v>454.195</v>
+        <v>438.686</v>
       </c>
       <c r="F301" s="2" t="n">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="G301" s="1" t="n"/>
     </row>
@@ -8567,20 +8554,20 @@
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>axnjxn9</t>
+          <t>RaphaPxyl</t>
         </is>
       </c>
       <c r="C302" s="74" t="n">
-        <v>3374.79</v>
+        <v>3366.842000000001</v>
       </c>
       <c r="D302" s="2" t="n">
-        <v>4144.895</v>
+        <v>3991.68</v>
       </c>
       <c r="E302" s="2" t="n">
-        <v>385.0525</v>
+        <v>312.419</v>
       </c>
       <c r="F302" s="2" t="n">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="G302" s="1" t="n"/>
     </row>
@@ -8590,20 +8577,20 @@
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>Jess</t>
+          <t>PretzelDinosaur</t>
         </is>
       </c>
       <c r="C303" s="74" t="n">
-        <v>3365.774</v>
+        <v>3364.657999999999</v>
       </c>
       <c r="D303" s="2" t="n">
-        <v>4067.41</v>
+        <v>4285.01</v>
       </c>
       <c r="E303" s="2" t="n">
-        <v>350.818</v>
+        <v>460.176</v>
       </c>
       <c r="F303" s="2" t="n">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="G303" s="1" t="n"/>
     </row>
@@ -8613,20 +8600,20 @@
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>TheRandomSapphire</t>
+          <t>axnjxn9</t>
         </is>
       </c>
       <c r="C304" s="74" t="n">
-        <v>3354.361</v>
+        <v>3360.282</v>
       </c>
       <c r="D304" s="2" t="n">
-        <v>4252.24</v>
+        <v>4144.21</v>
       </c>
       <c r="E304" s="2" t="n">
-        <v>448.9395</v>
+        <v>391.9639999999999</v>
       </c>
       <c r="F304" s="2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G304" s="1" t="n"/>
     </row>
@@ -8636,20 +8623,20 @@
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>A discord user</t>
+          <t>TheRandomSapphire</t>
         </is>
       </c>
       <c r="C305" s="74" t="n">
-        <v>3350</v>
+        <v>3342.317</v>
       </c>
       <c r="D305" s="2" t="n">
-        <v>4243.965</v>
+        <v>4252.295</v>
       </c>
       <c r="E305" s="2" t="n">
-        <v>446.9825</v>
+        <v>454.989</v>
       </c>
       <c r="F305" s="2" t="n">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="G305" s="1" t="n"/>
     </row>
@@ -8659,20 +8646,20 @@
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>cy</t>
+          <t>A discord user</t>
         </is>
       </c>
       <c r="C306" s="74" t="n">
-        <v>3346.809</v>
+        <v>3337.903</v>
       </c>
       <c r="D306" s="2" t="n">
-        <v>4080.83</v>
+        <v>4244.02</v>
       </c>
       <c r="E306" s="2" t="n">
-        <v>367.0105</v>
+        <v>453.0585</v>
       </c>
       <c r="F306" s="2" t="n">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="G306" s="1" t="n"/>
     </row>
@@ -8686,13 +8673,13 @@
         </is>
       </c>
       <c r="C307" s="74" t="n">
-        <v>3345.686</v>
+        <v>3334.513</v>
       </c>
       <c r="D307" s="2" t="n">
-        <v>4314.95</v>
+        <v>4314.995</v>
       </c>
       <c r="E307" s="2" t="n">
-        <v>484.632</v>
+        <v>490.241</v>
       </c>
       <c r="F307" s="2" t="n">
         <v>18</v>
@@ -8705,20 +8692,20 @@
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>Powerman103</t>
+          <t>cy</t>
         </is>
       </c>
       <c r="C308" s="75" t="n">
-        <v>3331.687</v>
+        <v>3330.982</v>
       </c>
       <c r="D308" s="2" t="n">
-        <v>4320.885</v>
+        <v>4056.925</v>
       </c>
       <c r="E308" s="2" t="n">
-        <v>494.599</v>
+        <v>362.9715</v>
       </c>
       <c r="F308" s="2" t="n">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="G308" s="1" t="n"/>
     </row>
@@ -8728,20 +8715,20 @@
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>n_cube877</t>
+          <t>dumbjames5305</t>
         </is>
       </c>
       <c r="C309" s="75" t="n">
-        <v>3329.49</v>
+        <v>3307.259</v>
       </c>
       <c r="D309" s="2" t="n">
-        <v>3969.29</v>
+        <v>4012.42</v>
       </c>
       <c r="E309" s="2" t="n">
-        <v>319.9</v>
+        <v>352.5805</v>
       </c>
       <c r="F309" s="2" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G309" s="1" t="n"/>
     </row>
@@ -8751,20 +8738,20 @@
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>☆Darbian☆</t>
+          <t>NoSorryIDK</t>
         </is>
       </c>
       <c r="C310" s="75" t="n">
-        <v>3325.402</v>
+        <v>3307.127</v>
       </c>
       <c r="D310" s="2" t="n">
-        <v>4096.97</v>
+        <v>4242.775</v>
       </c>
       <c r="E310" s="2" t="n">
-        <v>385.784</v>
+        <v>467.824</v>
       </c>
       <c r="F310" s="2" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G310" s="1" t="n"/>
     </row>
@@ -8774,20 +8761,20 @@
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>NoSorryIDK</t>
+          <t>Pyos</t>
         </is>
       </c>
       <c r="C311" s="75" t="n">
-        <v>3318.836</v>
+        <v>3305.771</v>
       </c>
       <c r="D311" s="2" t="n">
-        <v>4242.72</v>
+        <v>4183.955</v>
       </c>
       <c r="E311" s="2" t="n">
-        <v>461.942</v>
+        <v>439.092</v>
       </c>
       <c r="F311" s="2" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G311" s="1" t="n"/>
     </row>
@@ -8797,20 +8784,20 @@
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>Pyos</t>
-        </is>
-      </c>
-      <c r="C312" s="75" t="n">
-        <v>3318.27</v>
+          <t>Eulengi</t>
+        </is>
+      </c>
+      <c r="C312" s="76" t="n">
+        <v>3289.301</v>
       </c>
       <c r="D312" s="2" t="n">
-        <v>4183.91</v>
+        <v>4020.28</v>
       </c>
       <c r="E312" s="2" t="n">
-        <v>432.8199999999999</v>
+        <v>365.4895</v>
       </c>
       <c r="F312" s="2" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G312" s="1" t="n"/>
     </row>
@@ -8820,20 +8807,20 @@
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>coolgamer7</t>
-        </is>
-      </c>
-      <c r="C313" s="75" t="n">
-        <v>3303.975</v>
+          <t>MoonQuake</t>
+        </is>
+      </c>
+      <c r="C313" s="76" t="n">
+        <v>3257.242</v>
       </c>
       <c r="D313" s="2" t="n">
-        <v>4264.73</v>
+        <v>4172.085</v>
       </c>
       <c r="E313" s="2" t="n">
-        <v>480.3775000000001</v>
+        <v>457.4215</v>
       </c>
       <c r="F313" s="2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G313" s="1" t="n"/>
     </row>
@@ -8843,20 +8830,20 @@
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>MoonQuake</t>
-        </is>
-      </c>
-      <c r="C314" s="76" t="n">
-        <v>3268.968</v>
+          <t>Zac#8107</t>
+        </is>
+      </c>
+      <c r="C314" s="77" t="n">
+        <v>3242.107</v>
       </c>
       <c r="D314" s="2" t="n">
-        <v>4171.9</v>
+        <v>4143.21</v>
       </c>
       <c r="E314" s="2" t="n">
-        <v>451.466</v>
+        <v>450.5515</v>
       </c>
       <c r="F314" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G314" s="1" t="n"/>
     </row>
@@ -8866,20 +8853,20 @@
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>Eulengi</t>
-        </is>
-      </c>
-      <c r="C315" s="76" t="n">
-        <v>3256.465</v>
+          <t>☆Darbian☆</t>
+        </is>
+      </c>
+      <c r="C315" s="77" t="n">
+        <v>3238.728</v>
       </c>
       <c r="D315" s="2" t="n">
-        <v>3995.41</v>
+        <v>4002.495</v>
       </c>
       <c r="E315" s="2" t="n">
-        <v>369.4725</v>
+        <v>381.8835</v>
       </c>
       <c r="F315" s="2" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G315" s="1" t="n"/>
     </row>
@@ -8893,13 +8880,13 @@
         </is>
       </c>
       <c r="C316" s="77" t="n">
-        <v>3249.974</v>
+        <v>3235.637</v>
       </c>
       <c r="D316" s="2" t="n">
-        <v>4004.875</v>
+        <v>4004.905</v>
       </c>
       <c r="E316" s="2" t="n">
-        <v>377.4505</v>
+        <v>384.634</v>
       </c>
       <c r="F316" s="2" t="n">
         <v>70</v>
@@ -8916,13 +8903,13 @@
         </is>
       </c>
       <c r="C317" s="77" t="n">
-        <v>3246.336</v>
+        <v>3232.066</v>
       </c>
       <c r="D317" s="2" t="n">
-        <v>4012.8</v>
+        <v>4012.605</v>
       </c>
       <c r="E317" s="2" t="n">
-        <v>383.232</v>
+        <v>390.2695</v>
       </c>
       <c r="F317" s="2" t="n">
         <v>38</v>
@@ -8938,17 +8925,17 @@
           <t>LegitSi</t>
         </is>
       </c>
-      <c r="C318" s="77" t="n">
-        <v>3225.174</v>
+      <c r="C318" s="78" t="n">
+        <v>3203.169</v>
       </c>
       <c r="D318" s="2" t="n">
-        <v>3914.715</v>
+        <v>3890.425</v>
       </c>
       <c r="E318" s="2" t="n">
-        <v>344.7705</v>
+        <v>343.628</v>
       </c>
       <c r="F318" s="2" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G318" s="1" t="n"/>
     </row>
@@ -8958,20 +8945,20 @@
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>Zac#8107</t>
+          <t>coolgamer7</t>
         </is>
       </c>
       <c r="C319" s="78" t="n">
-        <v>3199.342000000001</v>
+        <v>3201.569</v>
       </c>
       <c r="D319" s="2" t="n">
-        <v>4125.905000000001</v>
+        <v>4121.695000000001</v>
       </c>
       <c r="E319" s="2" t="n">
-        <v>463.2815</v>
+        <v>460.063</v>
       </c>
       <c r="F319" s="2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G319" s="1" t="n"/>
     </row>
@@ -8981,20 +8968,20 @@
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>SquardWed</t>
+          <t>ItsYellow</t>
         </is>
       </c>
       <c r="C320" s="78" t="n">
-        <v>3187.165</v>
+        <v>3197.626</v>
       </c>
       <c r="D320" s="2" t="n">
-        <v>4083.345</v>
+        <v>4024.19</v>
       </c>
       <c r="E320" s="2" t="n">
-        <v>448.09</v>
+        <v>413.282</v>
       </c>
       <c r="F320" s="2" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G320" s="1" t="n"/>
     </row>
@@ -9004,20 +8991,20 @@
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>! cirnoed lollipoop</t>
+          <t>SquardWed</t>
         </is>
       </c>
       <c r="C321" s="78" t="n">
-        <v>3186.175</v>
+        <v>3175.852</v>
       </c>
       <c r="D321" s="2" t="n">
-        <v>3971.365</v>
+        <v>4084.215</v>
       </c>
       <c r="E321" s="2" t="n">
-        <v>392.595</v>
+        <v>454.1815</v>
       </c>
       <c r="F321" s="2" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G321" s="1" t="n"/>
     </row>
@@ -9027,20 +9014,20 @@
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>dumbbac0n</t>
+          <t>Chez</t>
         </is>
       </c>
       <c r="C322" s="78" t="n">
-        <v>3185.95</v>
+        <v>3175.422</v>
       </c>
       <c r="D322" s="2" t="n">
-        <v>3922.575</v>
+        <v>4108.03</v>
       </c>
       <c r="E322" s="2" t="n">
-        <v>368.3125</v>
+        <v>466.304</v>
       </c>
       <c r="F322" s="2" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="G322" s="1" t="n"/>
     </row>
@@ -9050,20 +9037,20 @@
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>crap</t>
+          <t>! cirnoed lollipoop</t>
         </is>
       </c>
       <c r="C323" s="78" t="n">
-        <v>3185.45</v>
+        <v>3172.417</v>
       </c>
       <c r="D323" s="2" t="n">
-        <v>3966.725</v>
+        <v>3971.415</v>
       </c>
       <c r="E323" s="2" t="n">
-        <v>390.6375</v>
+        <v>399.499</v>
       </c>
       <c r="F323" s="2" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G323" s="1" t="n"/>
     </row>
@@ -9073,20 +9060,20 @@
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>Chez</t>
+          <t>dumbbac0n</t>
         </is>
       </c>
       <c r="C324" s="78" t="n">
-        <v>3184.656</v>
+        <v>3171.715</v>
       </c>
       <c r="D324" s="2" t="n">
-        <v>4105.64</v>
+        <v>3922.94</v>
       </c>
       <c r="E324" s="2" t="n">
-        <v>460.492</v>
+        <v>375.6125</v>
       </c>
       <c r="F324" s="2" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G324" s="1" t="n"/>
     </row>
@@ -9100,13 +9087,13 @@
         </is>
       </c>
       <c r="C325" s="79" t="n">
-        <v>3161.213</v>
+        <v>3149.962</v>
       </c>
       <c r="D325" s="2" t="n">
-        <v>4122.09</v>
+        <v>4122.155000000001</v>
       </c>
       <c r="E325" s="2" t="n">
-        <v>480.4385</v>
+        <v>486.0965</v>
       </c>
       <c r="F325" s="2" t="n">
         <v>171</v>
@@ -9119,20 +9106,20 @@
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>ItsYellow</t>
-        </is>
-      </c>
-      <c r="C326" s="79" t="n">
-        <v>3160.238</v>
+          <t>Discord Watcher</t>
+        </is>
+      </c>
+      <c r="C326" s="80" t="n">
+        <v>3124.398999999999</v>
       </c>
       <c r="D326" s="2" t="n">
-        <v>3998.77</v>
+        <v>3878.28</v>
       </c>
       <c r="E326" s="2" t="n">
-        <v>419.266</v>
+        <v>376.9405</v>
       </c>
       <c r="F326" s="2" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G326" s="1" t="n"/>
     </row>
@@ -9142,20 +9129,20 @@
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>LTLITS</t>
-        </is>
-      </c>
-      <c r="C327" s="79" t="n">
-        <v>3140.38</v>
+          <t>I'm Dynex</t>
+        </is>
+      </c>
+      <c r="C327" s="80" t="n">
+        <v>3117.876</v>
       </c>
       <c r="D327" s="2" t="n">
-        <v>3750.905</v>
+        <v>3993.965</v>
       </c>
       <c r="E327" s="2" t="n">
-        <v>305.2625</v>
+        <v>438.0445</v>
       </c>
       <c r="F327" s="2" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G327" s="1" t="n"/>
     </row>
@@ -9165,20 +9152,20 @@
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>Discord Watcher</t>
-        </is>
-      </c>
-      <c r="C328" s="79" t="n">
-        <v>3139.062</v>
+          <t>XPoint021</t>
+        </is>
+      </c>
+      <c r="C328" s="80" t="n">
+        <v>3105.833</v>
       </c>
       <c r="D328" s="2" t="n">
-        <v>3878.455</v>
+        <v>3876.345</v>
       </c>
       <c r="E328" s="2" t="n">
-        <v>369.6965</v>
+        <v>385.256</v>
       </c>
       <c r="F328" s="2" t="n">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="G328" s="1" t="n"/>
     </row>
@@ -9188,20 +9175,20 @@
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>I'm Dynex</t>
-        </is>
-      </c>
-      <c r="C329" s="79" t="n">
-        <v>3130.396</v>
+          <t>LTLITS</t>
+        </is>
+      </c>
+      <c r="C329" s="80" t="n">
+        <v>3098.577</v>
       </c>
       <c r="D329" s="2" t="n">
-        <v>3993.91</v>
+        <v>3706.51</v>
       </c>
       <c r="E329" s="2" t="n">
-        <v>431.757</v>
+        <v>303.9665</v>
       </c>
       <c r="F329" s="2" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G329" s="1" t="n"/>
     </row>
@@ -9211,20 +9198,20 @@
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>XPoint021</t>
-        </is>
-      </c>
-      <c r="C330" s="80" t="n">
-        <v>3120.116</v>
+          <t>Sam Bair</t>
+        </is>
+      </c>
+      <c r="C330" s="81" t="n">
+        <v>3074.826</v>
       </c>
       <c r="D330" s="2" t="n">
-        <v>3876.3</v>
+        <v>4001.11</v>
       </c>
       <c r="E330" s="2" t="n">
-        <v>378.092</v>
+        <v>463.142</v>
       </c>
       <c r="F330" s="2" t="n">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="G330" s="1" t="n"/>
     </row>
@@ -9234,20 +9221,20 @@
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>Sam Bair</t>
-        </is>
-      </c>
-      <c r="C331" s="80" t="n">
-        <v>3086.41</v>
+          <t>Elemental Domino</t>
+        </is>
+      </c>
+      <c r="C331" s="81" t="n">
+        <v>3070.812</v>
       </c>
       <c r="D331" s="2" t="n">
-        <v>4000.82</v>
+        <v>3815.6</v>
       </c>
       <c r="E331" s="2" t="n">
-        <v>457.205</v>
+        <v>372.394</v>
       </c>
       <c r="F331" s="2" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G331" s="1" t="n"/>
     </row>
@@ -9257,20 +9244,20 @@
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>Elemental Domino</t>
-        </is>
-      </c>
-      <c r="C332" s="80" t="n">
-        <v>3085.552</v>
+          <t>appleCider</t>
+        </is>
+      </c>
+      <c r="C332" s="81" t="n">
+        <v>3070.299</v>
       </c>
       <c r="D332" s="2" t="n">
-        <v>3815.51</v>
+        <v>4024.175</v>
       </c>
       <c r="E332" s="2" t="n">
-        <v>364.979</v>
+        <v>476.938</v>
       </c>
       <c r="F332" s="2" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="G332" s="1" t="n"/>
     </row>
@@ -9280,20 +9267,20 @@
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>appleCider</t>
+          <t>beeixz</t>
         </is>
       </c>
       <c r="C333" s="81" t="n">
-        <v>3081.778</v>
+        <v>3056.778</v>
       </c>
       <c r="D333" s="2" t="n">
-        <v>4024.13</v>
+        <v>3828.75</v>
       </c>
       <c r="E333" s="2" t="n">
-        <v>471.176</v>
+        <v>385.986</v>
       </c>
       <c r="F333" s="2" t="n">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="G333" s="1" t="n"/>
     </row>
@@ -9303,20 +9290,20 @@
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>the guyman</t>
+          <t>Xoob</t>
         </is>
       </c>
       <c r="C334" s="81" t="n">
-        <v>3066.272</v>
+        <v>3043.668</v>
       </c>
       <c r="D334" s="2" t="n">
-        <v>4055.785</v>
+        <v>3893.525</v>
       </c>
       <c r="E334" s="2" t="n">
-        <v>494.7565</v>
+        <v>424.9285</v>
       </c>
       <c r="F334" s="2" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G334" s="1" t="n"/>
     </row>
@@ -9326,20 +9313,20 @@
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>Xoob</t>
+          <t>LordPickleKing</t>
         </is>
       </c>
       <c r="C335" s="81" t="n">
-        <v>3056.587</v>
+        <v>3042.558</v>
       </c>
       <c r="D335" s="2" t="n">
-        <v>3893.475</v>
+        <v>3915.15</v>
       </c>
       <c r="E335" s="2" t="n">
-        <v>418.444</v>
+        <v>436.296</v>
       </c>
       <c r="F335" s="2" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="G335" s="1" t="n"/>
     </row>
@@ -9349,20 +9336,20 @@
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>LordPickleKing</t>
-        </is>
-      </c>
-      <c r="C336" s="81" t="n">
-        <v>3055.135</v>
+          <t>Rhilunam?</t>
+        </is>
+      </c>
+      <c r="C336" s="82" t="n">
+        <v>3006.867</v>
       </c>
       <c r="D336" s="2" t="n">
-        <v>3915.1</v>
+        <v>3996.965</v>
       </c>
       <c r="E336" s="2" t="n">
-        <v>429.9825</v>
+        <v>495.049</v>
       </c>
       <c r="F336" s="2" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G336" s="1" t="n"/>
     </row>
@@ -9375,14 +9362,14 @@
           <t>Robby</t>
         </is>
       </c>
-      <c r="C337" s="82" t="n">
-        <v>3001.835</v>
+      <c r="C337" s="83" t="n">
+        <v>2988.746</v>
       </c>
       <c r="D337" s="2" t="n">
-        <v>3827.65</v>
+        <v>3827.7</v>
       </c>
       <c r="E337" s="2" t="n">
-        <v>412.9075</v>
+        <v>419.477</v>
       </c>
       <c r="F337" s="2" t="n">
         <v>77</v>
@@ -9399,13 +9386,13 @@
         </is>
       </c>
       <c r="C338" s="83" t="n">
-        <v>2992.303</v>
+        <v>2980.661</v>
       </c>
       <c r="D338" s="2" t="n">
-        <v>3923.205</v>
+        <v>3923.235</v>
       </c>
       <c r="E338" s="2" t="n">
-        <v>465.451</v>
+        <v>471.287</v>
       </c>
       <c r="F338" s="2" t="n">
         <v>8</v>
@@ -9422,13 +9409,13 @@
         </is>
       </c>
       <c r="C339" s="83" t="n">
-        <v>2973.319</v>
+        <v>2962.336</v>
       </c>
       <c r="D339" s="2" t="n">
-        <v>3960.695</v>
+        <v>3960.73</v>
       </c>
       <c r="E339" s="2" t="n">
-        <v>493.688</v>
+        <v>499.197</v>
       </c>
       <c r="F339" s="2" t="n">
         <v>8</v>
@@ -9441,20 +9428,20 @@
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>Derp</t>
+          <t>Ayisi</t>
         </is>
       </c>
       <c r="C340" s="84" t="n">
-        <v>2914.538</v>
+        <v>2907.141000000001</v>
       </c>
       <c r="D340" s="2" t="n">
-        <v>3851.42</v>
+        <v>3874.755</v>
       </c>
       <c r="E340" s="2" t="n">
-        <v>468.441</v>
+        <v>483.807</v>
       </c>
       <c r="F340" s="2" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G340" s="1" t="n"/>
     </row>
@@ -9464,20 +9451,20 @@
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>beeixz</t>
+          <t>Derp</t>
         </is>
       </c>
       <c r="C341" s="84" t="n">
-        <v>2904.247</v>
+        <v>2902.99</v>
       </c>
       <c r="D341" s="2" t="n">
-        <v>3686.01</v>
+        <v>3851.475</v>
       </c>
       <c r="E341" s="2" t="n">
-        <v>390.8815</v>
+        <v>474.2425</v>
       </c>
       <c r="F341" s="2" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G341" s="1" t="n"/>
     </row>
@@ -9491,13 +9478,13 @@
         </is>
       </c>
       <c r="C342" s="84" t="n">
-        <v>2897.412</v>
+        <v>2884.967</v>
       </c>
       <c r="D342" s="2" t="n">
-        <v>3766.03</v>
+        <v>3766.085</v>
       </c>
       <c r="E342" s="2" t="n">
-        <v>434.309</v>
+        <v>440.559</v>
       </c>
       <c r="F342" s="2" t="n">
         <v>112</v>
@@ -9510,20 +9497,20 @@
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>V.The1Kenny-/•-</t>
+          <t>NicholasCYA</t>
         </is>
       </c>
       <c r="C343" s="84" t="n">
-        <v>2891.856</v>
+        <v>2881.076</v>
       </c>
       <c r="D343" s="2" t="n">
-        <v>3491.105</v>
+        <v>3767.115</v>
       </c>
       <c r="E343" s="2" t="n">
-        <v>299.6245</v>
+        <v>443.0195</v>
       </c>
       <c r="F343" s="2" t="n">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="G343" s="1" t="n"/>
     </row>
@@ -9533,20 +9520,20 @@
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>xXRaichu_FireXx</t>
+          <t>V.The1Kenny-/•-</t>
         </is>
       </c>
       <c r="C344" s="85" t="n">
-        <v>2872.217</v>
+        <v>2874.187</v>
       </c>
       <c r="D344" s="2" t="n">
-        <v>3788.41</v>
+        <v>3491.41</v>
       </c>
       <c r="E344" s="2" t="n">
-        <v>458.0965</v>
+        <v>308.6115</v>
       </c>
       <c r="F344" s="2" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="G344" s="1" t="n"/>
     </row>
@@ -9556,20 +9543,20 @@
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>Formula E</t>
-        </is>
-      </c>
-      <c r="C345" s="86" t="n">
-        <v>2814.386</v>
+          <t>xXRaichu_FireXx</t>
+        </is>
+      </c>
+      <c r="C345" s="85" t="n">
+        <v>2860.304</v>
       </c>
       <c r="D345" s="2" t="n">
-        <v>3757.985</v>
+        <v>3788.37</v>
       </c>
       <c r="E345" s="2" t="n">
-        <v>471.7995</v>
+        <v>464.033</v>
       </c>
       <c r="F345" s="2" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G345" s="1" t="n"/>
     </row>
@@ -9579,20 +9566,20 @@
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>4dice</t>
+          <t>Formula E</t>
         </is>
       </c>
       <c r="C346" s="86" t="n">
-        <v>2810.531</v>
+        <v>2804.36</v>
       </c>
       <c r="D346" s="2" t="n">
-        <v>3671.795</v>
+        <v>3759.55</v>
       </c>
       <c r="E346" s="2" t="n">
-        <v>430.632</v>
+        <v>477.595</v>
       </c>
       <c r="F346" s="2" t="n">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G346" s="1" t="n"/>
     </row>
@@ -9602,20 +9589,20 @@
       </c>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t>Creative Name</t>
+          <t>4dice</t>
         </is>
       </c>
       <c r="C347" s="86" t="n">
-        <v>2806.354</v>
+        <v>2798.532</v>
       </c>
       <c r="D347" s="2" t="n">
-        <v>3649.135</v>
+        <v>3672.475</v>
       </c>
       <c r="E347" s="2" t="n">
-        <v>421.3905</v>
+        <v>436.9715</v>
       </c>
       <c r="F347" s="2" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="G347" s="1" t="n"/>
     </row>
@@ -9625,20 +9612,20 @@
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>Amazanzanpotato</t>
+          <t>Creative Name</t>
         </is>
       </c>
       <c r="C348" s="86" t="n">
-        <v>2798.035</v>
+        <v>2793.682</v>
       </c>
       <c r="D348" s="2" t="n">
-        <v>3656.13</v>
+        <v>3649.345</v>
       </c>
       <c r="E348" s="2" t="n">
-        <v>429.0475</v>
+        <v>427.8315</v>
       </c>
       <c r="F348" s="2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G348" s="1" t="n"/>
     </row>
@@ -9648,20 +9635,20 @@
       </c>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t>NicholasCYA</t>
+          <t>Amazanzanpotato</t>
         </is>
       </c>
       <c r="C349" s="87" t="n">
-        <v>2782.012</v>
+        <v>2785.427</v>
       </c>
       <c r="D349" s="2" t="n">
-        <v>3687.515</v>
+        <v>3656.175</v>
       </c>
       <c r="E349" s="2" t="n">
-        <v>452.7515</v>
+        <v>435.374</v>
       </c>
       <c r="F349" s="2" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G349" s="1" t="n"/>
     </row>
@@ -9675,13 +9662,13 @@
         </is>
       </c>
       <c r="C350" s="87" t="n">
-        <v>2775.701</v>
+        <v>2764.285</v>
       </c>
       <c r="D350" s="2" t="n">
-        <v>3742.515</v>
+        <v>3742.18</v>
       </c>
       <c r="E350" s="2" t="n">
-        <v>483.407</v>
+        <v>488.9475</v>
       </c>
       <c r="F350" s="2" t="n">
         <v>30</v>
@@ -9698,16 +9685,16 @@
         </is>
       </c>
       <c r="C351" s="87" t="n">
-        <v>2774.951</v>
+        <v>2754.743</v>
       </c>
       <c r="D351" s="2" t="n">
-        <v>3751.16</v>
+        <v>3706.8</v>
       </c>
       <c r="E351" s="2" t="n">
-        <v>488.1045</v>
+        <v>476.0285</v>
       </c>
       <c r="F351" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G351" s="1" t="n"/>
     </row>
@@ -9717,20 +9704,20 @@
       </c>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>Vividria</t>
+          <t>ShinyPichu</t>
         </is>
       </c>
       <c r="C352" s="88" t="n">
-        <v>2703.928</v>
+        <v>2698.35</v>
       </c>
       <c r="D352" s="2" t="n">
-        <v>3678.765</v>
+        <v>3680.34</v>
       </c>
       <c r="E352" s="2" t="n">
-        <v>487.4185</v>
+        <v>490.995</v>
       </c>
       <c r="F352" s="2" t="n">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="G352" s="1" t="n"/>
     </row>
@@ -9740,20 +9727,20 @@
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>Frix</t>
+          <t>object fan</t>
         </is>
       </c>
       <c r="C353" s="88" t="n">
-        <v>2673.823</v>
+        <v>2697.126</v>
       </c>
       <c r="D353" s="2" t="n">
-        <v>3594.09</v>
+        <v>3478.845</v>
       </c>
       <c r="E353" s="2" t="n">
-        <v>460.1335</v>
+        <v>390.8595</v>
       </c>
       <c r="F353" s="2" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G353" s="1" t="n"/>
     </row>
@@ -9763,20 +9750,20 @@
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>object fan</t>
-        </is>
-      </c>
-      <c r="C354" s="89" t="n">
-        <v>2653.681</v>
+          <t>Vividria</t>
+        </is>
+      </c>
+      <c r="C354" s="88" t="n">
+        <v>2692.838999999999</v>
       </c>
       <c r="D354" s="2" t="n">
-        <v>3437.8</v>
+        <v>3678.83</v>
       </c>
       <c r="E354" s="2" t="n">
-        <v>392.0595</v>
+        <v>492.9955</v>
       </c>
       <c r="F354" s="2" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G354" s="1" t="n"/>
     </row>
@@ -9786,20 +9773,20 @@
       </c>
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t>Veggie</t>
+          <t>Frix</t>
         </is>
       </c>
       <c r="C355" s="89" t="n">
-        <v>2631.484</v>
+        <v>2662.059</v>
       </c>
       <c r="D355" s="2" t="n">
-        <v>3563.72</v>
+        <v>3594.135</v>
       </c>
       <c r="E355" s="2" t="n">
-        <v>466.1180000000001</v>
+        <v>466.038</v>
       </c>
       <c r="F355" s="2" t="n">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G355" s="1" t="n"/>
     </row>
@@ -9809,20 +9796,20 @@
       </c>
       <c r="B356" s="2" t="inlineStr">
         <is>
-          <t>battle prattle</t>
+          <t>Veggie</t>
         </is>
       </c>
       <c r="C356" s="90" t="n">
-        <v>2616.721</v>
+        <v>2619.717</v>
       </c>
       <c r="D356" s="2" t="n">
-        <v>3500.57</v>
+        <v>3563.47</v>
       </c>
       <c r="E356" s="2" t="n">
-        <v>441.9245</v>
+        <v>471.8765</v>
       </c>
       <c r="F356" s="2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G356" s="1" t="n"/>
     </row>
@@ -9832,20 +9819,20 @@
       </c>
       <c r="B357" s="2" t="inlineStr">
         <is>
-          <t>YTPFan188</t>
-        </is>
-      </c>
-      <c r="C357" s="91" t="n">
-        <v>2577.456</v>
+          <t>battle prattle</t>
+        </is>
+      </c>
+      <c r="C357" s="90" t="n">
+        <v>2604.503</v>
       </c>
       <c r="D357" s="2" t="n">
-        <v>3466.4</v>
+        <v>3500.645</v>
       </c>
       <c r="E357" s="2" t="n">
-        <v>444.472</v>
+        <v>448.071</v>
       </c>
       <c r="F357" s="2" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="G357" s="1" t="n"/>
     </row>
@@ -9855,20 +9842,20 @@
       </c>
       <c r="B358" s="2" t="inlineStr">
         <is>
-          <t>Bevan</t>
-        </is>
-      </c>
-      <c r="C358" s="92" t="n">
-        <v>2516.419</v>
+          <t>YTPFan188</t>
+        </is>
+      </c>
+      <c r="C358" s="91" t="n">
+        <v>2565.246</v>
       </c>
       <c r="D358" s="2" t="n">
-        <v>3420.875</v>
+        <v>3466.425</v>
       </c>
       <c r="E358" s="2" t="n">
-        <v>452.228</v>
+        <v>450.5895</v>
       </c>
       <c r="F358" s="2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G358" s="1" t="n"/>
     </row>
@@ -9878,20 +9865,20 @@
       </c>
       <c r="B359" s="2" t="inlineStr">
         <is>
-          <t>barrellikeplay</t>
-        </is>
-      </c>
-      <c r="C359" s="92" t="n">
-        <v>2512.103</v>
+          <t>Cherry Blossom</t>
+        </is>
+      </c>
+      <c r="C359" s="91" t="n">
+        <v>2557.604</v>
       </c>
       <c r="D359" s="2" t="n">
-        <v>3328.845</v>
+        <v>3552.92</v>
       </c>
       <c r="E359" s="2" t="n">
-        <v>408.371</v>
+        <v>497.658</v>
       </c>
       <c r="F359" s="2" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G359" s="1" t="n"/>
     </row>
@@ -9901,20 +9888,20 @@
       </c>
       <c r="B360" s="2" t="inlineStr">
         <is>
-          <t>LuxuryLapras</t>
-        </is>
-      </c>
-      <c r="C360" s="93" t="n">
-        <v>2464.586</v>
+          <t>Bevan</t>
+        </is>
+      </c>
+      <c r="C360" s="92" t="n">
+        <v>2504.499</v>
       </c>
       <c r="D360" s="2" t="n">
-        <v>3452.54</v>
+        <v>3420.985</v>
       </c>
       <c r="E360" s="2" t="n">
-        <v>493.977</v>
+        <v>458.243</v>
       </c>
       <c r="F360" s="2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G360" s="1" t="n"/>
     </row>
@@ -9924,20 +9911,20 @@
       </c>
       <c r="B361" s="2" t="inlineStr">
         <is>
-          <t>soda11pro!</t>
+          <t>barrellikeplay</t>
         </is>
       </c>
       <c r="C361" s="93" t="n">
-        <v>2461.876</v>
+        <v>2498.849</v>
       </c>
       <c r="D361" s="2" t="n">
-        <v>3361.645</v>
+        <v>3328.875</v>
       </c>
       <c r="E361" s="2" t="n">
-        <v>449.8845</v>
+        <v>415.013</v>
       </c>
       <c r="F361" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G361" s="1" t="n"/>
     </row>
@@ -9947,20 +9934,20 @@
       </c>
       <c r="B362" s="2" t="inlineStr">
         <is>
-          <t>Bluey444</t>
+          <t>LuxuryLapras</t>
         </is>
       </c>
       <c r="C362" s="94" t="n">
-        <v>2433.924</v>
+        <v>2453.929</v>
       </c>
       <c r="D362" s="2" t="n">
-        <v>3353.690000000001</v>
+        <v>3452.845</v>
       </c>
       <c r="E362" s="2" t="n">
-        <v>459.883</v>
+        <v>499.458</v>
       </c>
       <c r="F362" s="2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G362" s="1" t="n"/>
     </row>
@@ -9970,20 +9957,20 @@
       </c>
       <c r="B363" s="2" t="inlineStr">
         <is>
-          <t>blu(irre)</t>
-        </is>
-      </c>
-      <c r="C363" s="95" t="n">
-        <v>2415.737</v>
+          <t>soda11pro!</t>
+        </is>
+      </c>
+      <c r="C363" s="94" t="n">
+        <v>2449.907</v>
       </c>
       <c r="D363" s="2" t="n">
-        <v>3412.21</v>
+        <v>3361.77</v>
       </c>
       <c r="E363" s="2" t="n">
-        <v>498.2365</v>
+        <v>455.9315</v>
       </c>
       <c r="F363" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G363" s="1" t="n"/>
     </row>
@@ -9993,20 +9980,20 @@
       </c>
       <c r="B364" s="2" t="inlineStr">
         <is>
-          <t>jamo62</t>
-        </is>
-      </c>
-      <c r="C364" s="96" t="n">
-        <v>2300.499</v>
+          <t>Bluey444</t>
+        </is>
+      </c>
+      <c r="C364" s="94" t="n">
+        <v>2422.134</v>
       </c>
       <c r="D364" s="2" t="n">
-        <v>3132.065</v>
+        <v>3353.715</v>
       </c>
       <c r="E364" s="2" t="n">
-        <v>415.783</v>
+        <v>465.7905</v>
       </c>
       <c r="F364" s="2" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G364" s="1" t="n"/>
     </row>
@@ -10016,20 +10003,20 @@
       </c>
       <c r="B365" s="2" t="inlineStr">
         <is>
-          <t>Libertarial</t>
-        </is>
-      </c>
-      <c r="C365" s="97" t="n">
-        <v>2263.984</v>
+          <t>blu(irre)</t>
+        </is>
+      </c>
+      <c r="C365" s="95" t="n">
+        <v>2352.143</v>
       </c>
       <c r="D365" s="2" t="n">
-        <v>3221.585</v>
+        <v>3317.440000000001</v>
       </c>
       <c r="E365" s="2" t="n">
-        <v>478.8004999999999</v>
+        <v>482.6485</v>
       </c>
       <c r="F365" s="2" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G365" s="1" t="n"/>
     </row>
@@ -10039,20 +10026,20 @@
       </c>
       <c r="B366" s="2" t="inlineStr">
         <is>
-          <t>Su_TartEmpire</t>
-        </is>
-      </c>
-      <c r="C366" s="98" t="n">
-        <v>2230.507</v>
+          <t>jamo62</t>
+        </is>
+      </c>
+      <c r="C366" s="96" t="n">
+        <v>2259.643</v>
       </c>
       <c r="D366" s="2" t="n">
-        <v>3112.675</v>
+        <v>3088.265</v>
       </c>
       <c r="E366" s="2" t="n">
-        <v>441.0840000000001</v>
+        <v>414.311</v>
       </c>
       <c r="F366" s="2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G366" s="1" t="n"/>
     </row>
@@ -10062,20 +10049,20 @@
       </c>
       <c r="B367" s="2" t="inlineStr">
         <is>
-          <t>Foam Soap</t>
-        </is>
-      </c>
-      <c r="C367" s="99" t="n">
-        <v>2146.657</v>
+          <t>Libertarial</t>
+        </is>
+      </c>
+      <c r="C367" s="96" t="n">
+        <v>2252.687</v>
       </c>
       <c r="D367" s="2" t="n">
-        <v>3015.415</v>
+        <v>3221.64</v>
       </c>
       <c r="E367" s="2" t="n">
-        <v>434.379</v>
+        <v>484.4765</v>
       </c>
       <c r="F367" s="2" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G367" s="1" t="n"/>
     </row>
@@ -10085,20 +10072,20 @@
       </c>
       <c r="B368" s="2" t="inlineStr">
         <is>
-          <t>bananapajama27</t>
-        </is>
-      </c>
-      <c r="C368" s="100" t="n">
-        <v>2121.136</v>
+          <t>Su_TartEmpire</t>
+        </is>
+      </c>
+      <c r="C368" s="97" t="n">
+        <v>2218.352</v>
       </c>
       <c r="D368" s="2" t="n">
-        <v>3062.755</v>
+        <v>3112.85</v>
       </c>
       <c r="E368" s="2" t="n">
-        <v>470.8095</v>
+        <v>447.249</v>
       </c>
       <c r="F368" s="2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G368" s="1" t="n"/>
     </row>
@@ -10108,22 +10095,68 @@
       </c>
       <c r="B369" s="2" t="inlineStr">
         <is>
+          <t>Foam Soap</t>
+        </is>
+      </c>
+      <c r="C369" s="98" t="n">
+        <v>2126.656</v>
+      </c>
+      <c r="D369" s="2" t="n">
+        <v>2998.995</v>
+      </c>
+      <c r="E369" s="2" t="n">
+        <v>436.1695</v>
+      </c>
+      <c r="F369" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G369" s="1" t="n"/>
+    </row>
+    <row r="370" ht="23" customHeight="1">
+      <c r="A370" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B370" s="2" t="inlineStr">
+        <is>
+          <t>bananapajama27</t>
+        </is>
+      </c>
+      <c r="C370" s="99" t="n">
+        <v>2109.63</v>
+      </c>
+      <c r="D370" s="2" t="n">
+        <v>3062.795</v>
+      </c>
+      <c r="E370" s="2" t="n">
+        <v>476.5825</v>
+      </c>
+      <c r="F370" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G370" s="1" t="n"/>
+    </row>
+    <row r="371" ht="23" customHeight="1">
+      <c r="A371" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B371" s="2" t="inlineStr">
+        <is>
           <t>gary777777</t>
         </is>
       </c>
-      <c r="C369" s="101" t="n">
-        <v>1314.68</v>
-      </c>
-      <c r="D369" s="2" t="n">
-        <v>2200.615</v>
-      </c>
-      <c r="E369" s="2" t="n">
-        <v>442.9675</v>
-      </c>
-      <c r="F369" s="2" t="n">
+      <c r="C371" s="100" t="n">
+        <v>1302.427</v>
+      </c>
+      <c r="D371" s="2" t="n">
+        <v>2200.62</v>
+      </c>
+      <c r="E371" s="2" t="n">
+        <v>449.0965</v>
+      </c>
+      <c r="F371" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="G369" s="1" t="n"/>
+      <c r="G371" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dailyglicko.xlsx
+++ b/dailyglicko.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="96">
+  <fonts count="98">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,6 +38,11 @@
     <font>
       <name val="Assistant"/>
       <color rgb="00FFCFD7"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Assistant"/>
+      <color rgb="00FFCFD6"/>
       <sz val="13"/>
     </font>
     <font>
@@ -477,6 +482,11 @@
     </font>
     <font>
       <name val="Assistant"/>
+      <color rgb="00D6FFCF"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Assistant"/>
       <color rgb="00D5FFCF"/>
       <sz val="13"/>
     </font>
@@ -501,7 +511,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="98">
+  <fills count="100">
     <fill>
       <patternFill/>
     </fill>
@@ -524,6 +534,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00300008"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00300007"/>
       </patternFill>
     </fill>
     <fill>
@@ -963,6 +978,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00073000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00063000"/>
       </patternFill>
     </fill>
@@ -1004,11 +1024,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,16 +1093,16 @@
     <xf numFmtId="1" fontId="20" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="21" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="24" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="21" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="24" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="24" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="1" fontId="23" fillId="25" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="23" fillId="25" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
@@ -1097,27 +1117,27 @@
     <xf numFmtId="1" fontId="26" fillId="28" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="29" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="27" fillId="29" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="28" fillId="30" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="28" fillId="30" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="29" fillId="31" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="32" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="32" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="31" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="31" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="32" fillId="34" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,6 +1328,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="95" fillId="97" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="96" fillId="98" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="97" fillId="99" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1610,7 +1636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G371"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1666,13 +1692,13 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>6806.056</v>
+        <v>6806.255</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7596.35</v>
+        <v>7596.549999999999</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>395.147</v>
+        <v>395.1475</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>155</v>
@@ -1689,13 +1715,13 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6370.73</v>
+        <v>6371.243</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6872.9</v>
+        <v>6873.35</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>251.085</v>
+        <v>251.0535</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>71</v>
@@ -1712,13 +1738,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>6287.128000000001</v>
+        <v>6295.528999999999</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6736.35</v>
+        <v>6744.2</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>224.611</v>
+        <v>224.3355</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>358</v>
@@ -1734,14 +1760,14 @@
           <t>Azimuthal</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>6287.112000000001</v>
+      <c r="C5" s="6" t="n">
+        <v>6287.642</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>6769.450000000001</v>
+        <v>6769.9</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>241.169</v>
+        <v>241.129</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>885</v>
@@ -1757,14 +1783,14 @@
           <t>Oshawott_</t>
         </is>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>6184.371</v>
+      <c r="C6" s="7" t="n">
+        <v>6184.646000000001</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6898.65</v>
+        <v>6898.9</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>357.1395</v>
+        <v>357.127</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>123</v>
@@ -1780,14 +1806,14 @@
           <t>Dark</t>
         </is>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>6171.671</v>
+      <c r="C7" s="7" t="n">
+        <v>6172.613</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6664.5</v>
+        <v>6665.349999999999</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>246.4145</v>
+        <v>246.3685</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>567</v>
@@ -1803,14 +1829,14 @@
           <t>PlasmicTrojan</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>6143.428</v>
+      <c r="C8" s="8" t="n">
+        <v>6143.404</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>6727.9</v>
+        <v>6727.799999999999</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>292.236</v>
+        <v>292.198</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>534</v>
@@ -1826,14 +1852,14 @@
           <t>TieTiePerson</t>
         </is>
       </c>
-      <c r="C9" s="8" t="n">
-        <v>6073.065000000001</v>
+      <c r="C9" s="9" t="n">
+        <v>6073.546</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>6575.2</v>
+        <v>6575.650000000001</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>251.0675</v>
+        <v>251.052</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>366</v>
@@ -1849,14 +1875,14 @@
           <t>Lady_Molyb</t>
         </is>
       </c>
-      <c r="C10" s="9" t="n">
-        <v>6025.907999999999</v>
+      <c r="C10" s="10" t="n">
+        <v>6026.107</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6876.5</v>
+        <v>6876.7</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>425.296</v>
+        <v>425.2965</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>104</v>
@@ -1872,14 +1898,14 @@
           <t>Blandy</t>
         </is>
       </c>
-      <c r="C11" s="9" t="n">
-        <v>6024.928</v>
+      <c r="C11" s="10" t="n">
+        <v>6025.338999999999</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6575.25</v>
+        <v>6575.599999999999</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>275.161</v>
+        <v>275.1305</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>442</v>
@@ -1895,14 +1921,14 @@
           <t>Cole</t>
         </is>
       </c>
-      <c r="C12" s="9" t="n">
-        <v>6021.666</v>
+      <c r="C12" s="10" t="n">
+        <v>6021.862999999999</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6818.450000000001</v>
+        <v>6818.65</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>398.392</v>
+        <v>398.3935</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>167</v>
@@ -1918,14 +1944,14 @@
           <t>thenamesh</t>
         </is>
       </c>
-      <c r="C13" s="10" t="n">
-        <v>5944.924</v>
+      <c r="C13" s="11" t="n">
+        <v>5945.360999999999</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6585.2</v>
+        <v>6585.599999999999</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>320.138</v>
+        <v>320.1195</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>399</v>
@@ -1941,14 +1967,14 @@
           <t>sighofdisdain~</t>
         </is>
       </c>
-      <c r="C14" s="10" t="n">
-        <v>5929.930999999999</v>
+      <c r="C14" s="11" t="n">
+        <v>5930.692</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>6381.849999999999</v>
+        <v>6382.55</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>225.9595</v>
+        <v>225.929</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>235</v>
@@ -1964,14 +1990,14 @@
           <t>concraay</t>
         </is>
       </c>
-      <c r="C15" s="10" t="n">
-        <v>5929.265</v>
+      <c r="C15" s="11" t="n">
+        <v>5929.524</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6475.1</v>
+        <v>6475.349999999999</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>272.9175</v>
+        <v>272.913</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>243</v>
@@ -1987,14 +2013,14 @@
           <t>Wiscáuse</t>
         </is>
       </c>
-      <c r="C16" s="11" t="n">
-        <v>5829.047</v>
+      <c r="C16" s="12" t="n">
+        <v>5829.717999999999</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6357.3</v>
+        <v>6357.9</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>264.1265</v>
+        <v>264.091</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>608</v>
@@ -2010,14 +2036,14 @@
           <t>BrandotheMando</t>
         </is>
       </c>
-      <c r="C17" s="11" t="n">
-        <v>5826.15</v>
+      <c r="C17" s="12" t="n">
+        <v>5827.105</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>6331.599999999999</v>
+        <v>6332.4</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>252.725</v>
+        <v>252.6475</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>547</v>
@@ -2033,17 +2059,17 @@
           <t>MarbleMint</t>
         </is>
       </c>
-      <c r="C18" s="12" t="n">
-        <v>5773.534</v>
+      <c r="C18" s="13" t="n">
+        <v>5774.19</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6299.15</v>
+        <v>6299.700000000001</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>262.808</v>
+        <v>262.755</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G18" s="1" t="n"/>
     </row>
@@ -2056,14 +2082,14 @@
           <t>terminatedslime789</t>
         </is>
       </c>
-      <c r="C19" s="12" t="n">
-        <v>5760.025000000001</v>
+      <c r="C19" s="13" t="n">
+        <v>5760.337</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6299.95</v>
+        <v>6300.25</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>269.9625</v>
+        <v>269.9565</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>343</v>
@@ -2079,14 +2105,14 @@
           <t>Funo</t>
         </is>
       </c>
-      <c r="C20" s="13" t="n">
-        <v>5682.74</v>
+      <c r="C20" s="14" t="n">
+        <v>5683.942000000001</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6225</v>
+        <v>6226</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>271.13</v>
+        <v>271.029</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>88</v>
@@ -2099,20 +2125,20 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>cobaltforever</t>
+          <t>worldceriise~</t>
         </is>
       </c>
       <c r="C21" s="14" t="n">
-        <v>5659.078</v>
+        <v>5669.211</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>6445.2</v>
+        <v>6124.6</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>393.061</v>
+        <v>227.6945</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>198</v>
+        <v>371</v>
       </c>
       <c r="G21" s="1" t="n"/>
     </row>
@@ -2122,20 +2148,20 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>wyattcs</t>
-        </is>
-      </c>
-      <c r="C22" s="14" t="n">
-        <v>5650.708000000001</v>
+          <t>cobaltforever</t>
+        </is>
+      </c>
+      <c r="C22" s="15" t="n">
+        <v>5659.227999999999</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>6140.900000000001</v>
+        <v>6445.349999999999</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>245.096</v>
+        <v>393.061</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>429</v>
+        <v>198</v>
       </c>
       <c r="G22" s="1" t="n"/>
     </row>
@@ -2145,20 +2171,20 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>TheMooshroomKing</t>
-        </is>
-      </c>
-      <c r="C23" s="14" t="n">
-        <v>5637.143</v>
+          <t>wyattcs</t>
+        </is>
+      </c>
+      <c r="C23" s="15" t="n">
+        <v>5651.378999999999</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>6465.299999999999</v>
+        <v>6141.549999999999</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>414.0785</v>
+        <v>245.0855</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>124</v>
+        <v>429</v>
       </c>
       <c r="G23" s="1" t="n"/>
     </row>
@@ -2168,20 +2194,20 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>YoshiAwesum</t>
-        </is>
-      </c>
-      <c r="C24" s="14" t="n">
-        <v>5633.98</v>
+          <t>Ean EStone</t>
+        </is>
+      </c>
+      <c r="C24" s="15" t="n">
+        <v>5649.885999999999</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>6081.1</v>
+        <v>6182.95</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>223.56</v>
+        <v>266.532</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="G24" s="1" t="n"/>
     </row>
@@ -2191,20 +2217,20 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Ean EStone</t>
+          <t>TheMooshroomKing</t>
         </is>
       </c>
       <c r="C25" s="15" t="n">
-        <v>5617.330000000001</v>
+        <v>5637.391</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>6144.85</v>
+        <v>6465.549999999999</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>263.76</v>
+        <v>414.0795</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="G25" s="1" t="n"/>
     </row>
@@ -2214,20 +2240,20 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>BurritoBurger</t>
+          <t>YoshiAwesum</t>
         </is>
       </c>
       <c r="C26" s="15" t="n">
-        <v>5615.376999999999</v>
+        <v>5635.114</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>6158.6</v>
+        <v>6082.150000000001</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>271.6115</v>
+        <v>223.518</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>533</v>
+        <v>332</v>
       </c>
       <c r="G26" s="1" t="n"/>
     </row>
@@ -2237,20 +2263,20 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>worldceriise~</t>
-        </is>
-      </c>
-      <c r="C27" s="15" t="n">
-        <v>5602.268</v>
+          <t>BurritoBurger</t>
+        </is>
+      </c>
+      <c r="C27" s="16" t="n">
+        <v>5616.212999999999</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>6054.450000000001</v>
+        <v>6159.349999999999</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>226.091</v>
+        <v>271.5685</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>372</v>
+        <v>533</v>
       </c>
       <c r="G27" s="1" t="n"/>
     </row>
@@ -2263,14 +2289,14 @@
           <t>Bipede</t>
         </is>
       </c>
-      <c r="C28" s="15" t="n">
-        <v>5599.695</v>
+      <c r="C28" s="16" t="n">
+        <v>5600.439</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>6060.599999999999</v>
+        <v>6061.3</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>230.4525</v>
+        <v>230.4305</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>345</v>
@@ -2287,13 +2313,13 @@
         </is>
       </c>
       <c r="C29" s="16" t="n">
-        <v>5583.043</v>
+        <v>5583.573</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6137.3</v>
+        <v>6137.75</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>277.1285</v>
+        <v>277.0885</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>71</v>
@@ -2309,14 +2335,14 @@
           <t>Quippy</t>
         </is>
       </c>
-      <c r="C30" s="16" t="n">
-        <v>5559.415</v>
+      <c r="C30" s="17" t="n">
+        <v>5559.620999999999</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>6136.35</v>
+        <v>6136.549999999999</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>288.4675</v>
+        <v>288.4645</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>148</v>
@@ -2329,20 +2355,20 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Verxite</t>
-        </is>
-      </c>
-      <c r="C31" s="16" t="n">
-        <v>5556.636</v>
+          <t>Crafty7</t>
+        </is>
+      </c>
+      <c r="C31" s="17" t="n">
+        <v>5555.594</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>5994.8</v>
+        <v>6157.25</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>219.082</v>
+        <v>300.828</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="G31" s="1" t="n"/>
     </row>
@@ -2352,20 +2378,20 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Crafty7</t>
-        </is>
-      </c>
-      <c r="C32" s="16" t="n">
-        <v>5555.33</v>
+          <t>Verxite</t>
+        </is>
+      </c>
+      <c r="C32" s="17" t="n">
+        <v>5543.308000000001</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>6157</v>
+        <v>5979.700000000001</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>300.835</v>
+        <v>218.196</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="G32" s="1" t="n"/>
     </row>
@@ -2378,14 +2404,14 @@
           <t>Real Frog Hours</t>
         </is>
       </c>
-      <c r="C33" s="17" t="n">
-        <v>5537.403</v>
+      <c r="C33" s="18" t="n">
+        <v>5538.078</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>6187.05</v>
+        <v>6187.7</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>324.8235</v>
+        <v>324.811</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>56</v>
@@ -2401,11 +2427,11 @@
           <t>Alecane6</t>
         </is>
       </c>
-      <c r="C34" s="17" t="n">
-        <v>5529.227</v>
+      <c r="C34" s="18" t="n">
+        <v>5529.376999999999</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>6208.75</v>
+        <v>6208.9</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>339.7615</v>
@@ -2425,16 +2451,16 @@
         </is>
       </c>
       <c r="C35" s="18" t="n">
-        <v>5490.486999999999</v>
+        <v>5509.245</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>5956.599999999999</v>
+        <v>5973</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>233.0565</v>
+        <v>231.8775</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G35" s="1" t="n"/>
     </row>
@@ -2447,14 +2473,14 @@
           <t>fonda1515</t>
         </is>
       </c>
-      <c r="C36" s="18" t="n">
-        <v>5460.972</v>
+      <c r="C36" s="19" t="n">
+        <v>5461.120999999999</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>6386.599999999999</v>
+        <v>6386.75</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>462.814</v>
+        <v>462.8145</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>181</v>
@@ -2470,14 +2496,14 @@
           <t>Triko</t>
         </is>
       </c>
-      <c r="C37" s="19" t="n">
-        <v>5434.52</v>
+      <c r="C37" s="20" t="n">
+        <v>5434.827</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>5928.3</v>
+        <v>5928.6</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>246.89</v>
+        <v>246.8865</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>240</v>
@@ -2493,14 +2519,14 @@
           <t>Reselectings</t>
         </is>
       </c>
-      <c r="C38" s="19" t="n">
-        <v>5430.743</v>
+      <c r="C38" s="20" t="n">
+        <v>5430.892</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>6021.1</v>
+        <v>6021.25</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>295.1785</v>
+        <v>295.179</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>509</v>
@@ -2516,14 +2542,14 @@
           <t>PokeLeaf</t>
         </is>
       </c>
-      <c r="C39" s="20" t="n">
-        <v>5411.907</v>
+      <c r="C39" s="21" t="n">
+        <v>5413.072</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>5888.3</v>
+        <v>5889.349999999999</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>238.1965</v>
+        <v>238.139</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>501</v>
@@ -2539,14 +2565,14 @@
           <t>dizzy</t>
         </is>
       </c>
-      <c r="C40" s="20" t="n">
-        <v>5411.523000000001</v>
+      <c r="C40" s="21" t="n">
+        <v>5411.826</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>5995.85</v>
+        <v>5996.15</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>292.1635</v>
+        <v>292.162</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>187</v>
@@ -2562,14 +2588,14 @@
           <t>Moralitea</t>
         </is>
       </c>
-      <c r="C41" s="20" t="n">
-        <v>5409.562999999999</v>
+      <c r="C41" s="21" t="n">
+        <v>5410.976000000001</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5903.099999999999</v>
+        <v>5904.450000000001</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>246.7685</v>
+        <v>246.737</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>70</v>
@@ -2585,14 +2611,14 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="C42" s="20" t="n">
-        <v>5381.35</v>
+      <c r="C42" s="21" t="n">
+        <v>5381.889000000001</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>6170.15</v>
+        <v>6170.650000000001</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>394.4</v>
+        <v>394.3805</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>11</v>
@@ -2608,14 +2634,14 @@
           <t>izzy</t>
         </is>
       </c>
-      <c r="C43" s="21" t="n">
-        <v>5369.182000000001</v>
+      <c r="C43" s="22" t="n">
+        <v>5369.277999999999</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>6050.650000000001</v>
+        <v>6050.599999999999</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>340.734</v>
+        <v>340.661</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>329</v>
@@ -2631,11 +2657,11 @@
           <t>Bled</t>
         </is>
       </c>
-      <c r="C44" s="21" t="n">
-        <v>5360.800999999999</v>
+      <c r="C44" s="22" t="n">
+        <v>5361.001</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>6238.049999999999</v>
+        <v>6238.25</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>438.6245</v>
@@ -2654,14 +2680,14 @@
           <t>MetaCyde</t>
         </is>
       </c>
-      <c r="C45" s="21" t="n">
-        <v>5360.516</v>
+      <c r="C45" s="22" t="n">
+        <v>5360.98</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>5915.950000000001</v>
+        <v>5916.4</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>277.717</v>
+        <v>277.71</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>46</v>
@@ -2677,37 +2703,37 @@
           <t>LeiZ123321</t>
         </is>
       </c>
-      <c r="C46" s="21" t="n">
-        <v>5345.753999999999</v>
+      <c r="C46" s="22" t="n">
+        <v>5345.789999999999</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>5908</v>
+        <v>5915.5</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>281.123</v>
+        <v>284.855</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46" s="1" t="n"/>
     </row>
     <row r="47" ht="23" customHeight="1">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="22" t="inlineStr">
+      <c r="B47" s="23" t="inlineStr">
         <is>
           <t>MrFerf</t>
         </is>
       </c>
-      <c r="C47" s="23" t="n">
-        <v>5345.57</v>
-      </c>
-      <c r="D47" s="22" t="n">
-        <v>6561.45</v>
-      </c>
-      <c r="E47" s="22" t="n">
-        <v>607.9399999999999</v>
-      </c>
-      <c r="F47" s="22" t="n">
+      <c r="C47" s="24" t="n">
+        <v>5345.63</v>
+      </c>
+      <c r="D47" s="23" t="n">
+        <v>6561.5</v>
+      </c>
+      <c r="E47" s="23" t="n">
+        <v>607.9350000000001</v>
+      </c>
+      <c r="F47" s="23" t="n">
         <v>34</v>
       </c>
       <c r="G47" s="1" t="n"/>
@@ -2721,14 +2747,14 @@
           <t>Dan.</t>
         </is>
       </c>
-      <c r="C48" s="21" t="n">
-        <v>5342.19</v>
+      <c r="C48" s="22" t="n">
+        <v>5342.388</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>6047.7</v>
+        <v>6047.9</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>352.755</v>
+        <v>352.756</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>65</v>
@@ -2736,46 +2762,46 @@
       <c r="G48" s="1" t="n"/>
     </row>
     <row r="49" ht="23" customHeight="1">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="22" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>AnEpik</t>
+        </is>
+      </c>
+      <c r="C49" s="22" t="n">
+        <v>5337.436</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>5828.6</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>245.582</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="G49" s="1" t="n"/>
+    </row>
+    <row r="50" ht="23" customHeight="1">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="23" t="inlineStr">
         <is>
           <t>ConspicuousPiggy</t>
         </is>
       </c>
-      <c r="C49" s="24" t="n">
-        <v>5323.35</v>
-      </c>
-      <c r="D49" s="22" t="n">
-        <v>6463.200000000001</v>
-      </c>
-      <c r="E49" s="22" t="n">
-        <v>569.925</v>
-      </c>
-      <c r="F49" s="22" t="n">
+      <c r="C50" s="25" t="n">
+        <v>5323.61</v>
+      </c>
+      <c r="D50" s="23" t="n">
+        <v>6463.450000000001</v>
+      </c>
+      <c r="E50" s="23" t="n">
+        <v>569.92</v>
+      </c>
+      <c r="F50" s="23" t="n">
         <v>79</v>
-      </c>
-      <c r="G49" s="1" t="n"/>
-    </row>
-    <row r="50" ht="23" customHeight="1">
-      <c r="A50" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>jane</t>
-        </is>
-      </c>
-      <c r="C50" s="25" t="n">
-        <v>5308.034</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>5964.9</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>328.433</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>378</v>
       </c>
       <c r="G50" s="1" t="n"/>
     </row>
@@ -2785,20 +2811,20 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Marble volcano</t>
-        </is>
-      </c>
-      <c r="C51" s="25" t="n">
-        <v>5304.988000000001</v>
+          <t>jane</t>
+        </is>
+      </c>
+      <c r="C51" s="26" t="n">
+        <v>5308.234</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>6002.25</v>
+        <v>5965.1</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>348.631</v>
+        <v>328.433</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>262</v>
+        <v>378</v>
       </c>
       <c r="G51" s="1" t="n"/>
     </row>
@@ -2808,20 +2834,20 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>AnEpik</t>
-        </is>
-      </c>
-      <c r="C52" s="25" t="n">
-        <v>5303.355</v>
+          <t>Marble volcano</t>
+        </is>
+      </c>
+      <c r="C52" s="26" t="n">
+        <v>5305.188</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>5790.599999999999</v>
+        <v>6002.45</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>243.6225</v>
+        <v>348.631</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>717</v>
+        <v>262</v>
       </c>
       <c r="G52" s="1" t="n"/>
     </row>
@@ -2834,17 +2860,17 @@
           <t>Navy</t>
         </is>
       </c>
-      <c r="C53" s="26" t="n">
-        <v>5274.898000000001</v>
+      <c r="C53" s="27" t="n">
+        <v>5272.240000000001</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>5738.55</v>
+        <v>5734.450000000001</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>231.826</v>
+        <v>231.105</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G53" s="1" t="n"/>
     </row>
@@ -2857,14 +2883,14 @@
           <t>japanjane</t>
         </is>
       </c>
-      <c r="C54" s="26" t="n">
-        <v>5270.147000000001</v>
+      <c r="C54" s="27" t="n">
+        <v>5270.66</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>6035.900000000001</v>
+        <v>6036.4</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>382.8765</v>
+        <v>382.87</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>11</v>
@@ -2880,14 +2906,14 @@
           <t>JamimaFlemms</t>
         </is>
       </c>
-      <c r="C55" s="26" t="n">
-        <v>5257.953</v>
+      <c r="C55" s="27" t="n">
+        <v>5260.071</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>5941.5</v>
+        <v>5943.35</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>341.7735</v>
+        <v>341.6395</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>15</v>
@@ -2903,17 +2929,17 @@
           <t>Purplegaze</t>
         </is>
       </c>
-      <c r="C56" s="27" t="n">
-        <v>5238.985000000001</v>
+      <c r="C56" s="28" t="n">
+        <v>5238.902</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>6006.4</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>383.7075</v>
+        <v>383.749</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="G56" s="1" t="n"/>
     </row>
@@ -2926,14 +2952,14 @@
           <t>Rizlyme</t>
         </is>
       </c>
-      <c r="C57" s="27" t="n">
-        <v>5225.225</v>
+      <c r="C57" s="28" t="n">
+        <v>5226.912</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>5792.65</v>
+        <v>5794.099999999999</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>283.7125</v>
+        <v>283.594</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>28</v>
@@ -2949,11 +2975,11 @@
           <t>biscuitmistress</t>
         </is>
       </c>
-      <c r="C58" s="28" t="n">
-        <v>5204.772999999999</v>
+      <c r="C58" s="29" t="n">
+        <v>5204.923</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>6080.599999999999</v>
+        <v>6080.75</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>437.9135</v>
@@ -2972,14 +2998,14 @@
           <t>Gizmote</t>
         </is>
       </c>
-      <c r="C59" s="28" t="n">
-        <v>5199.809999999999</v>
+      <c r="C59" s="29" t="n">
+        <v>5200.396</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>5814.9</v>
+        <v>5815.5</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>307.545</v>
+        <v>307.552</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>627</v>
@@ -2995,14 +3021,14 @@
           <t>Yjntrx</t>
         </is>
       </c>
-      <c r="C60" s="28" t="n">
-        <v>5182.147999999999</v>
+      <c r="C60" s="29" t="n">
+        <v>5182.368</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>5913.450000000001</v>
+        <v>5913.7</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>365.651</v>
+        <v>365.666</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>115</v>
@@ -3018,14 +3044,14 @@
           <t>iTeoti</t>
         </is>
       </c>
-      <c r="C61" s="28" t="n">
-        <v>5181.366</v>
+      <c r="C61" s="29" t="n">
+        <v>5182.168000000001</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>5679.450000000001</v>
+        <v>5680.2</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>249.042</v>
+        <v>249.016</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>456</v>
@@ -3041,11 +3067,11 @@
           <t>mazuat</t>
         </is>
       </c>
-      <c r="C62" s="28" t="n">
-        <v>5175.001</v>
+      <c r="C62" s="29" t="n">
+        <v>5175.151</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>5849.75</v>
+        <v>5849.9</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>337.3745</v>
@@ -3064,14 +3090,14 @@
           <t>tbdotwav</t>
         </is>
       </c>
-      <c r="C63" s="28" t="n">
-        <v>5172.212</v>
+      <c r="C63" s="29" t="n">
+        <v>5172.651000000001</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>5732.849999999999</v>
+        <v>5733.3</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>280.319</v>
+        <v>280.3245</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>251</v>
@@ -3087,14 +3113,14 @@
           <t>Nonexistential</t>
         </is>
       </c>
-      <c r="C64" s="29" t="n">
-        <v>5161.544</v>
+      <c r="C64" s="30" t="n">
+        <v>5161.924</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>5907.75</v>
+        <v>5908.150000000001</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>373.103</v>
+        <v>373.1130000000001</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>90</v>
@@ -3110,11 +3136,11 @@
           <t>Alleywr</t>
         </is>
       </c>
-      <c r="C65" s="29" t="n">
-        <v>5142.008999999999</v>
+      <c r="C65" s="30" t="n">
+        <v>5142.159000000001</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>5843</v>
+        <v>5843.150000000001</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>350.4955</v>
@@ -3130,20 +3156,20 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>MysteriousGrimReaper</t>
-        </is>
-      </c>
-      <c r="C66" s="29" t="n">
-        <v>5139.969</v>
+          <t>RazorForce21</t>
+        </is>
+      </c>
+      <c r="C66" s="30" t="n">
+        <v>5138.025</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>5606.75</v>
+        <v>5664.75</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>233.3905</v>
+        <v>263.3625</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="G66" s="1" t="n"/>
     </row>
@@ -3153,17 +3179,17 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>RazorForce21</t>
-        </is>
-      </c>
-      <c r="C67" s="29" t="n">
-        <v>5137.820000000001</v>
+          <t>Heronix</t>
+        </is>
+      </c>
+      <c r="C67" s="30" t="n">
+        <v>5137.494000000001</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>5664.5</v>
+        <v>5817.3</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>263.34</v>
+        <v>339.903</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>256</v>
@@ -3176,20 +3202,20 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Heronix</t>
-        </is>
-      </c>
-      <c r="C68" s="29" t="n">
-        <v>5137.345</v>
+          <t>nate#5410</t>
+        </is>
+      </c>
+      <c r="C68" s="30" t="n">
+        <v>5132.832</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>5817.150000000001</v>
+        <v>5679.5</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>339.9025</v>
+        <v>273.334</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="G68" s="1" t="n"/>
     </row>
@@ -3199,40 +3225,40 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>nate#5410</t>
-        </is>
-      </c>
-      <c r="C69" s="29" t="n">
-        <v>5132.596</v>
+          <t>MysteriousGrimReaper</t>
+        </is>
+      </c>
+      <c r="C69" s="31" t="n">
+        <v>5116.484</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>5679.25</v>
+        <v>5586.05</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>273.327</v>
+        <v>234.783</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="G69" s="1" t="n"/>
     </row>
     <row r="70" ht="23" customHeight="1">
       <c r="A70" s="1" t="n"/>
-      <c r="B70" s="22" t="inlineStr">
+      <c r="B70" s="23" t="inlineStr">
         <is>
           <t>chip idiot</t>
         </is>
       </c>
-      <c r="C70" s="30" t="n">
-        <v>5101.190000000001</v>
-      </c>
-      <c r="D70" s="22" t="n">
-        <v>6160</v>
-      </c>
-      <c r="E70" s="22" t="n">
+      <c r="C70" s="32" t="n">
+        <v>5101.34</v>
+      </c>
+      <c r="D70" s="23" t="n">
+        <v>6160.15</v>
+      </c>
+      <c r="E70" s="23" t="n">
         <v>529.405</v>
       </c>
-      <c r="F70" s="22" t="n">
+      <c r="F70" s="23" t="n">
         <v>64</v>
       </c>
       <c r="G70" s="1" t="n"/>
@@ -3247,10 +3273,10 @@
         </is>
       </c>
       <c r="C71" s="31" t="n">
-        <v>5098.945</v>
+        <v>5099.094999999999</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>5731.65</v>
+        <v>5731.799999999999</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>316.3525</v>
@@ -3270,10 +3296,10 @@
         </is>
       </c>
       <c r="C72" s="31" t="n">
-        <v>5084.911000000001</v>
+        <v>5085.061000000001</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>5713.200000000001</v>
+        <v>5713.35</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>314.1445</v>
@@ -3292,14 +3318,14 @@
           <t>note xisty</t>
         </is>
       </c>
-      <c r="C73" s="32" t="n">
-        <v>5047.299000000001</v>
+      <c r="C73" s="33" t="n">
+        <v>5047.608</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>5670.650000000001</v>
+        <v>5670.950000000001</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>311.6755</v>
+        <v>311.671</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>157</v>
@@ -3315,14 +3341,14 @@
           <t>Xes</t>
         </is>
       </c>
-      <c r="C74" s="32" t="n">
-        <v>5046.832</v>
+      <c r="C74" s="33" t="n">
+        <v>5047.222</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>5703.55</v>
+        <v>5703.95</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>328.359</v>
+        <v>328.364</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>23</v>
@@ -3335,20 +3361,20 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Cohaki</t>
-        </is>
-      </c>
-      <c r="C75" s="33" t="n">
-        <v>5036.317</v>
+          <t>LuckiestPara</t>
+        </is>
+      </c>
+      <c r="C75" s="34" t="n">
+        <v>5037.678999999999</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>5528.65</v>
+        <v>5795.549999999999</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>246.1665</v>
+        <v>378.9355</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>371</v>
+        <v>15</v>
       </c>
       <c r="G75" s="1" t="n"/>
     </row>
@@ -3358,20 +3384,20 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>LuckiestPara</t>
-        </is>
-      </c>
-      <c r="C76" s="33" t="n">
-        <v>5035.744999999999</v>
+          <t>IronicIntrovert</t>
+        </is>
+      </c>
+      <c r="C76" s="34" t="n">
+        <v>5031.296</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>5794</v>
+        <v>5590.15</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>379.1275000000001</v>
+        <v>279.427</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c r="G76" s="1" t="n"/>
     </row>
@@ -3384,11 +3410,11 @@
           <t>JCL Kaytwo</t>
         </is>
       </c>
-      <c r="C77" s="33" t="n">
-        <v>5030.992</v>
+      <c r="C77" s="34" t="n">
+        <v>5031.142000000001</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>5648.150000000001</v>
+        <v>5648.3</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>308.579</v>
@@ -3404,20 +3430,20 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>IronicIntrovert</t>
-        </is>
-      </c>
-      <c r="C78" s="33" t="n">
-        <v>5030.854</v>
+          <t>amazingpikachu_37</t>
+        </is>
+      </c>
+      <c r="C78" s="34" t="n">
+        <v>5025.816000000001</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>5589.700000000001</v>
+        <v>5849.700000000001</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>279.423</v>
+        <v>411.942</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>263</v>
+        <v>9</v>
       </c>
       <c r="G78" s="1" t="n"/>
     </row>
@@ -3427,20 +3453,20 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>darrest</t>
-        </is>
-      </c>
-      <c r="C79" s="33" t="n">
-        <v>5028.071000000001</v>
+          <t>Koopa472</t>
+        </is>
+      </c>
+      <c r="C79" s="34" t="n">
+        <v>5016.735000000001</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>5504.400000000001</v>
+        <v>5452.1</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>238.1645</v>
+        <v>217.6825</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>218</v>
+        <v>486</v>
       </c>
       <c r="G79" s="1" t="n"/>
     </row>
@@ -3450,20 +3476,20 @@
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>amazingpikachu_37</t>
-        </is>
-      </c>
-      <c r="C80" s="33" t="n">
-        <v>5025.666</v>
+          <t>Xincopathy</t>
+        </is>
+      </c>
+      <c r="C80" s="34" t="n">
+        <v>5016.303</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>5849.55</v>
+        <v>5479.15</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>411.942</v>
+        <v>231.4235</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="G80" s="1" t="n"/>
     </row>
@@ -3473,20 +3499,20 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Koopa472</t>
-        </is>
-      </c>
-      <c r="C81" s="33" t="n">
-        <v>5003.911</v>
+          <t>Cohaki</t>
+        </is>
+      </c>
+      <c r="C81" s="34" t="n">
+        <v>5013.849</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>5439.6</v>
+        <v>5510.8</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>217.8445</v>
+        <v>248.4755</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>486</v>
+        <v>370</v>
       </c>
       <c r="G81" s="1" t="n"/>
     </row>
@@ -3499,14 +3525,14 @@
           <t>Samburger</t>
         </is>
       </c>
-      <c r="C82" s="34" t="n">
-        <v>4995.811</v>
+      <c r="C82" s="35" t="n">
+        <v>4996.009999999999</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>5735.25</v>
+        <v>5735.45</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>369.7195</v>
+        <v>369.72</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>317</v>
@@ -3522,14 +3548,14 @@
           <t>Thanos Whale</t>
         </is>
       </c>
-      <c r="C83" s="34" t="n">
-        <v>4992.300999999999</v>
+      <c r="C83" s="35" t="n">
+        <v>4993.251999999999</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>5501</v>
+        <v>5501.849999999999</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>254.3495</v>
+        <v>254.299</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>185</v>
@@ -3545,14 +3571,14 @@
           <t>TaraMinova</t>
         </is>
       </c>
-      <c r="C84" s="34" t="n">
-        <v>4990.422</v>
+      <c r="C84" s="35" t="n">
+        <v>4990.917</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>5759.450000000001</v>
+        <v>5759.95</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>384.514</v>
+        <v>384.5165</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>11</v>
@@ -3561,21 +3587,21 @@
     </row>
     <row r="85" ht="23" customHeight="1">
       <c r="A85" s="1" t="n"/>
-      <c r="B85" s="22" t="inlineStr">
+      <c r="B85" s="23" t="inlineStr">
         <is>
           <t>Kunai</t>
         </is>
       </c>
-      <c r="C85" s="35" t="n">
-        <v>4972.61</v>
-      </c>
-      <c r="D85" s="22" t="n">
-        <v>6210.1</v>
-      </c>
-      <c r="E85" s="22" t="n">
+      <c r="C85" s="36" t="n">
+        <v>4972.759999999999</v>
+      </c>
+      <c r="D85" s="23" t="n">
+        <v>6210.25</v>
+      </c>
+      <c r="E85" s="23" t="n">
         <v>618.745</v>
       </c>
-      <c r="F85" s="22" t="n">
+      <c r="F85" s="23" t="n">
         <v>148</v>
       </c>
       <c r="G85" s="1" t="n"/>
@@ -3589,14 +3615,14 @@
           <t>Neonic</t>
         </is>
       </c>
-      <c r="C86" s="34" t="n">
-        <v>4969.617999999999</v>
+      <c r="C86" s="35" t="n">
+        <v>4969.856</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>5501.3</v>
+        <v>5501.5</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>265.841</v>
+        <v>265.822</v>
       </c>
       <c r="F86" s="2" t="n">
         <v>166</v>
@@ -3612,14 +3638,14 @@
           <t>zubug/rex</t>
         </is>
       </c>
-      <c r="C87" s="34" t="n">
-        <v>4963.351000000001</v>
+      <c r="C87" s="35" t="n">
+        <v>4963.688999999999</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>5542.65</v>
+        <v>5543</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>289.6495</v>
+        <v>289.6555</v>
       </c>
       <c r="F87" s="2" t="n">
         <v>197</v>
@@ -3635,14 +3661,14 @@
           <t>Grey</t>
         </is>
       </c>
-      <c r="C88" s="34" t="n">
-        <v>4961.57</v>
+      <c r="C88" s="35" t="n">
+        <v>4962.484</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>5487.45</v>
+        <v>5488.3</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>262.94</v>
+        <v>262.908</v>
       </c>
       <c r="F88" s="2" t="n">
         <v>55</v>
@@ -3658,14 +3684,14 @@
           <t>Dogew00f</t>
         </is>
       </c>
-      <c r="C89" s="36" t="n">
-        <v>4944.099999999999</v>
+      <c r="C89" s="37" t="n">
+        <v>4944.563999999999</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>5572.5</v>
+        <v>5573</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>314.2</v>
+        <v>314.218</v>
       </c>
       <c r="F89" s="2" t="n">
         <v>111</v>
@@ -3681,11 +3707,11 @@
           <t>The PiSquared</t>
         </is>
       </c>
-      <c r="C90" s="36" t="n">
-        <v>4943.360000000001</v>
+      <c r="C90" s="37" t="n">
+        <v>4943.51</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>5573.8</v>
+        <v>5573.95</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>315.22</v>
@@ -3704,14 +3730,14 @@
           <t>GioD</t>
         </is>
       </c>
-      <c r="C91" s="36" t="n">
-        <v>4937.681</v>
+      <c r="C91" s="37" t="n">
+        <v>4937.874000000001</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>5485.700000000001</v>
+        <v>5485.900000000001</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>274.0095</v>
+        <v>274.013</v>
       </c>
       <c r="F91" s="2" t="n">
         <v>125</v>
@@ -3724,20 +3750,20 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Foxy</t>
-        </is>
-      </c>
-      <c r="C92" s="37" t="n">
-        <v>4898.108999999999</v>
+          <t>Azurite</t>
+        </is>
+      </c>
+      <c r="C92" s="38" t="n">
+        <v>4890.286999999999</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>5487.75</v>
+        <v>5846.7</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>294.8205</v>
+        <v>478.2065</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="G92" s="1" t="n"/>
     </row>
@@ -3747,20 +3773,20 @@
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>Mr. Dell</t>
-        </is>
-      </c>
-      <c r="C93" s="37" t="n">
-        <v>4897.048999999999</v>
+          <t>Lhistoire</t>
+        </is>
+      </c>
+      <c r="C93" s="39" t="n">
+        <v>4870.317999999999</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>5515.25</v>
+        <v>5313.9</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>309.1005</v>
+        <v>221.791</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>766</v>
+        <v>156</v>
       </c>
       <c r="G93" s="1" t="n"/>
     </row>
@@ -3770,20 +3796,20 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Lhistoire</t>
-        </is>
-      </c>
-      <c r="C94" s="37" t="n">
-        <v>4893.951</v>
+          <t>Whiffle64</t>
+        </is>
+      </c>
+      <c r="C94" s="39" t="n">
+        <v>4865.057</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>5337.55</v>
+        <v>5603.8</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>221.7995</v>
+        <v>369.3715</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>156</v>
+        <v>286</v>
       </c>
       <c r="G94" s="1" t="n"/>
     </row>
@@ -3793,20 +3819,20 @@
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Azurite</t>
-        </is>
-      </c>
-      <c r="C95" s="37" t="n">
-        <v>4890.182999999999</v>
+          <t>Foxy</t>
+        </is>
+      </c>
+      <c r="C95" s="39" t="n">
+        <v>4854.603</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>5846.599999999999</v>
+        <v>5454.650000000001</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>478.2085</v>
+        <v>300.0235</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="G95" s="1" t="n"/>
     </row>
@@ -3816,20 +3842,20 @@
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Whiffle64</t>
-        </is>
-      </c>
-      <c r="C96" s="38" t="n">
-        <v>4864.857</v>
+          <t>Nutball</t>
+        </is>
+      </c>
+      <c r="C96" s="39" t="n">
+        <v>4842.801</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>5603.6</v>
+        <v>5467.65</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>369.3715</v>
+        <v>312.4245</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>286</v>
+        <v>400</v>
       </c>
       <c r="G96" s="1" t="n"/>
     </row>
@@ -3839,20 +3865,20 @@
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Nutball</t>
-        </is>
-      </c>
-      <c r="C97" s="38" t="n">
-        <v>4842.401000000001</v>
+          <t>Subwoofer</t>
+        </is>
+      </c>
+      <c r="C97" s="39" t="n">
+        <v>4840.315</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>5467.25</v>
+        <v>5375.45</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>312.4245</v>
+        <v>267.5675</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>397</v>
+        <v>123</v>
       </c>
       <c r="G97" s="1" t="n"/>
     </row>
@@ -3862,20 +3888,20 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Subwoofer</t>
-        </is>
-      </c>
-      <c r="C98" s="38" t="n">
-        <v>4839.685</v>
+          <t>ThatOneGuy</t>
+        </is>
+      </c>
+      <c r="C98" s="39" t="n">
+        <v>4837.423</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>5374.85</v>
+        <v>5790.599999999999</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>267.5825</v>
+        <v>476.5885</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="G98" s="1" t="n"/>
     </row>
@@ -3885,20 +3911,20 @@
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>ThatOneGuy</t>
-        </is>
-      </c>
-      <c r="C99" s="38" t="n">
-        <v>4837.224999999999</v>
+          <t>RandomGamer123</t>
+        </is>
+      </c>
+      <c r="C99" s="39" t="n">
+        <v>4837.307</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>5790.4</v>
+        <v>5349.049999999999</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>476.5875</v>
+        <v>255.8715</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>33</v>
+        <v>426</v>
       </c>
       <c r="G99" s="1" t="n"/>
     </row>
@@ -3911,14 +3937,14 @@
           <t>Obesidora</t>
         </is>
       </c>
-      <c r="C100" s="39" t="n">
-        <v>4831.197000000001</v>
+      <c r="C100" s="40" t="n">
+        <v>4831.718</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>5603.150000000001</v>
+        <v>5603.7</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>385.9765</v>
+        <v>385.991</v>
       </c>
       <c r="F100" s="2" t="n">
         <v>11</v>
@@ -3931,20 +3957,20 @@
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>figgyc</t>
-        </is>
-      </c>
-      <c r="C101" s="39" t="n">
-        <v>4809.23</v>
+          <t>Mr. Dell</t>
+        </is>
+      </c>
+      <c r="C101" s="40" t="n">
+        <v>4826.084</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>5375</v>
+        <v>5456.3</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>282.885</v>
+        <v>315.108</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>38</v>
+        <v>765</v>
       </c>
       <c r="G101" s="1" t="n"/>
     </row>
@@ -3954,20 +3980,20 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Italic</t>
-        </is>
-      </c>
-      <c r="C102" s="39" t="n">
-        <v>4801.971</v>
+          <t>Joa</t>
+        </is>
+      </c>
+      <c r="C102" s="41" t="n">
+        <v>4785.849</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>5335.5</v>
+        <v>5355.85</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>266.7645</v>
+        <v>285.0005</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>418</v>
+        <v>244</v>
       </c>
       <c r="G102" s="1" t="n"/>
     </row>
@@ -3980,14 +4006,14 @@
           <t>Mini Panga |Dave|</t>
         </is>
       </c>
-      <c r="C103" s="40" t="n">
-        <v>4777.429</v>
+      <c r="C103" s="41" t="n">
+        <v>4777.628000000001</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>5494.25</v>
+        <v>5494.450000000001</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>358.4105</v>
+        <v>358.4109999999999</v>
       </c>
       <c r="F103" s="2" t="n">
         <v>308</v>
@@ -4003,14 +4029,14 @@
           <t>Tsukiwuki</t>
         </is>
       </c>
-      <c r="C104" s="40" t="n">
-        <v>4754.503000000001</v>
+      <c r="C104" s="41" t="n">
+        <v>4755.553000000001</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>5264.9</v>
+        <v>5265.900000000001</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>255.1985</v>
+        <v>255.1735</v>
       </c>
       <c r="F104" s="2" t="n">
         <v>182</v>
@@ -4023,20 +4049,20 @@
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>RandomGamer123</t>
+          <t>figgyc</t>
         </is>
       </c>
       <c r="C105" s="41" t="n">
-        <v>4748.936</v>
+        <v>4754.871000000001</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>5258.5</v>
+        <v>5329.6</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>254.782</v>
+        <v>287.3645</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>426</v>
+        <v>37</v>
       </c>
       <c r="G105" s="1" t="n"/>
     </row>
@@ -4046,20 +4072,20 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Joa</t>
-        </is>
-      </c>
-      <c r="C106" s="41" t="n">
-        <v>4742.677000000001</v>
+          <t>Italic</t>
+        </is>
+      </c>
+      <c r="C106" s="42" t="n">
+        <v>4749.81</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>5319.6</v>
+        <v>5290.950000000001</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>288.4615</v>
+        <v>270.57</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="G106" s="1" t="n"/>
     </row>
@@ -4072,14 +4098,14 @@
           <t>Adamm</t>
         </is>
       </c>
-      <c r="C107" s="41" t="n">
-        <v>4736.388</v>
+      <c r="C107" s="42" t="n">
+        <v>4736.486999999999</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>5360.15</v>
+        <v>5360.25</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>311.881</v>
+        <v>311.8815</v>
       </c>
       <c r="F107" s="2" t="n">
         <v>45</v>
@@ -4095,11 +4121,11 @@
           <t>masrock9</t>
         </is>
       </c>
-      <c r="C108" s="41" t="n">
-        <v>4725.741</v>
+      <c r="C108" s="42" t="n">
+        <v>4725.891</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>5568.8</v>
+        <v>5568.95</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>421.5295</v>
@@ -4118,14 +4144,14 @@
           <t>8th</t>
         </is>
       </c>
-      <c r="C109" s="41" t="n">
-        <v>4725.352999999999</v>
+      <c r="C109" s="42" t="n">
+        <v>4725.501999999999</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>5382.95</v>
+        <v>5383.099999999999</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>328.7985</v>
+        <v>328.799</v>
       </c>
       <c r="F109" s="2" t="n">
         <v>385</v>
@@ -4138,20 +4164,20 @@
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>LookAtThatGGman</t>
-        </is>
-      </c>
-      <c r="C110" s="41" t="n">
-        <v>4712.494</v>
+          <t>halcyon</t>
+        </is>
+      </c>
+      <c r="C110" s="43" t="n">
+        <v>4703.002</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>5233.85</v>
+        <v>5683.5</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>260.678</v>
+        <v>490.249</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="G110" s="1" t="n"/>
     </row>
@@ -4161,20 +4187,20 @@
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>halcyon</t>
-        </is>
-      </c>
-      <c r="C111" s="42" t="n">
-        <v>4702.801</v>
+          <t>Charito</t>
+        </is>
+      </c>
+      <c r="C111" s="43" t="n">
+        <v>4700.371</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>5683.3</v>
+        <v>5187.3</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>490.2495</v>
+        <v>243.4645</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="G111" s="1" t="n"/>
     </row>
@@ -4187,14 +4213,14 @@
           <t>ChromiaSpeed</t>
         </is>
       </c>
-      <c r="C112" s="42" t="n">
-        <v>4693.875</v>
+      <c r="C112" s="43" t="n">
+        <v>4695.605</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>5407.65</v>
+        <v>5409.15</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>356.8875</v>
+        <v>356.7725</v>
       </c>
       <c r="F112" s="2" t="n">
         <v>19</v>
@@ -4207,20 +4233,20 @@
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>AngelSassin</t>
-        </is>
-      </c>
-      <c r="C113" s="42" t="n">
-        <v>4691.054</v>
+          <t>LookAtThatGGman</t>
+        </is>
+      </c>
+      <c r="C113" s="43" t="n">
+        <v>4695.396</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>5466.3</v>
+        <v>5223.9</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>387.623</v>
+        <v>264.252</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="G113" s="1" t="n"/>
     </row>
@@ -4230,20 +4256,20 @@
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Charito</t>
-        </is>
-      </c>
-      <c r="C114" s="42" t="n">
-        <v>4686.873000000001</v>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C114" s="43" t="n">
+        <v>4691.254</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>5169.400000000001</v>
+        <v>5466.5</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>241.2635</v>
+        <v>387.623</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G114" s="1" t="n"/>
     </row>
@@ -4256,14 +4282,14 @@
           <t>Sef</t>
         </is>
       </c>
-      <c r="C115" s="42" t="n">
-        <v>4670.224</v>
+      <c r="C115" s="43" t="n">
+        <v>4670.514</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>5179.8</v>
+        <v>5180.1</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>254.788</v>
+        <v>254.793</v>
       </c>
       <c r="F115" s="2" t="n">
         <v>282</v>
@@ -4279,14 +4305,14 @@
           <t>Dragonified</t>
         </is>
       </c>
-      <c r="C116" s="43" t="n">
-        <v>4663.512999999999</v>
+      <c r="C116" s="44" t="n">
+        <v>4663.612000000001</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>5448.099999999999</v>
+        <v>5448.200000000001</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>392.2935</v>
+        <v>392.294</v>
       </c>
       <c r="F116" s="2" t="n">
         <v>13</v>
@@ -4302,11 +4328,11 @@
           <t>HazelKnight</t>
         </is>
       </c>
-      <c r="C117" s="43" t="n">
-        <v>4659.443</v>
+      <c r="C117" s="44" t="n">
+        <v>4659.593</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>5408.7</v>
+        <v>5408.85</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>374.6285</v>
@@ -4325,11 +4351,11 @@
           <t>Swagbard</t>
         </is>
       </c>
-      <c r="C118" s="43" t="n">
-        <v>4656.772</v>
+      <c r="C118" s="44" t="n">
+        <v>4656.972</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>5434.6</v>
+        <v>5434.8</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>388.914</v>
@@ -4345,20 +4371,20 @@
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>Plutoniumcube</t>
-        </is>
-      </c>
-      <c r="C119" s="43" t="n">
-        <v>4651.256</v>
+          <t>Wenyunity</t>
+        </is>
+      </c>
+      <c r="C119" s="44" t="n">
+        <v>4654.550999999999</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>5286.25</v>
+        <v>5164.2</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>317.497</v>
+        <v>254.8245</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>98</v>
+        <v>502</v>
       </c>
       <c r="G119" s="1" t="n"/>
     </row>
@@ -4368,20 +4394,20 @@
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Wenyunity</t>
-        </is>
-      </c>
-      <c r="C120" s="43" t="n">
-        <v>4644.858</v>
+          <t>Plutoniumcube</t>
+        </is>
+      </c>
+      <c r="C120" s="44" t="n">
+        <v>4651.5</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>5148.85</v>
+        <v>5286.5</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>251.996</v>
+        <v>317.5</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="G120" s="1" t="n"/>
     </row>
@@ -4394,14 +4420,14 @@
           <t>test994</t>
         </is>
       </c>
-      <c r="C121" s="43" t="n">
-        <v>4637.183</v>
+      <c r="C121" s="44" t="n">
+        <v>4637.332</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>5330.900000000001</v>
+        <v>5331.05</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>346.8585</v>
+        <v>346.859</v>
       </c>
       <c r="F121" s="2" t="n">
         <v>39</v>
@@ -4417,14 +4443,14 @@
           <t>WEIXD</t>
         </is>
       </c>
-      <c r="C122" s="43" t="n">
-        <v>4632.194</v>
+      <c r="C122" s="44" t="n">
+        <v>4632.343</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>5485</v>
+        <v>5485.15</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>426.403</v>
+        <v>426.4035</v>
       </c>
       <c r="F122" s="2" t="n">
         <v>9</v>
@@ -4440,14 +4466,14 @@
           <t>MarbleCyde</t>
         </is>
       </c>
-      <c r="C123" s="44" t="n">
-        <v>4624.012000000001</v>
+      <c r="C123" s="45" t="n">
+        <v>4624.471</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>5091.05</v>
+        <v>5091.5</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>233.519</v>
+        <v>233.5145</v>
       </c>
       <c r="F123" s="2" t="n">
         <v>378</v>
@@ -4463,14 +4489,14 @@
           <t>Nihonium_Tomopy</t>
         </is>
       </c>
-      <c r="C124" s="44" t="n">
-        <v>4607.166</v>
+      <c r="C124" s="45" t="n">
+        <v>4607.315000000001</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>5243.200000000001</v>
+        <v>5243.35</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>318.017</v>
+        <v>318.0175</v>
       </c>
       <c r="F124" s="2" t="n">
         <v>425</v>
@@ -4486,14 +4512,14 @@
           <t>Fánai</t>
         </is>
       </c>
-      <c r="C125" s="44" t="n">
-        <v>4590.344999999999</v>
+      <c r="C125" s="45" t="n">
+        <v>4590.398999999999</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>5415</v>
+        <v>5415.05</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>412.3275</v>
+        <v>412.3255</v>
       </c>
       <c r="F125" s="2" t="n">
         <v>76</v>
@@ -4509,11 +4535,11 @@
           <t>Sushi</t>
         </is>
       </c>
-      <c r="C126" s="44" t="n">
-        <v>4587.375</v>
+      <c r="C126" s="45" t="n">
+        <v>4587.525</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>5304.15</v>
+        <v>5304.299999999999</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>358.3875</v>
@@ -4532,14 +4558,14 @@
           <t>Mervin</t>
         </is>
       </c>
-      <c r="C127" s="45" t="n">
-        <v>4575.391</v>
+      <c r="C127" s="46" t="n">
+        <v>4575.588</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>5482.75</v>
+        <v>5482.95</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>453.6795</v>
+        <v>453.681</v>
       </c>
       <c r="F127" s="2" t="n">
         <v>41</v>
@@ -4555,17 +4581,17 @@
           <t>Danny the Unicorn</t>
         </is>
       </c>
-      <c r="C128" s="45" t="n">
-        <v>4569.168</v>
+      <c r="C128" s="46" t="n">
+        <v>4569.751</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>5341.65</v>
+        <v>5342.25</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>386.241</v>
+        <v>386.2495</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G128" s="1" t="n"/>
     </row>
@@ -4578,14 +4604,14 @@
           <t>Visurient</t>
         </is>
       </c>
-      <c r="C129" s="45" t="n">
-        <v>4566.336</v>
+      <c r="C129" s="46" t="n">
+        <v>4566.476000000001</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>5103.1</v>
+        <v>5103.25</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>268.382</v>
+        <v>268.387</v>
       </c>
       <c r="F129" s="2" t="n">
         <v>537</v>
@@ -4601,14 +4627,14 @@
           <t>Discordpernya</t>
         </is>
       </c>
-      <c r="C130" s="45" t="n">
-        <v>4560.764999999999</v>
+      <c r="C130" s="46" t="n">
+        <v>4560.914</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>5210.349999999999</v>
+        <v>5210.5</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>324.7925</v>
+        <v>324.793</v>
       </c>
       <c r="F130" s="2" t="n">
         <v>52</v>
@@ -4624,14 +4650,14 @@
           <t>Europe Bill</t>
         </is>
       </c>
-      <c r="C131" s="45" t="n">
-        <v>4551.107999999999</v>
+      <c r="C131" s="46" t="n">
+        <v>4552.098</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>5184.349999999999</v>
+        <v>5185.25</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>316.621</v>
+        <v>316.576</v>
       </c>
       <c r="F131" s="2" t="n">
         <v>246</v>
@@ -4647,14 +4673,14 @@
           <t>weee50</t>
         </is>
       </c>
-      <c r="C132" s="45" t="n">
-        <v>4548.974999999999</v>
+      <c r="C132" s="46" t="n">
+        <v>4549.079</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>5187.849999999999</v>
+        <v>5187.95</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>319.4375</v>
+        <v>319.4355</v>
       </c>
       <c r="F132" s="2" t="n">
         <v>205</v>
@@ -4667,20 +4693,20 @@
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>Astra</t>
-        </is>
-      </c>
-      <c r="C133" s="45" t="n">
-        <v>4545.847</v>
+          <t>Energyshatter</t>
+        </is>
+      </c>
+      <c r="C133" s="46" t="n">
+        <v>4546.16</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>5259.2</v>
+        <v>5046.25</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>356.6765</v>
+        <v>250.045</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="G133" s="1" t="n"/>
     </row>
@@ -4690,20 +4716,20 @@
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>Vortex83</t>
+          <t>Astra</t>
         </is>
       </c>
       <c r="C134" s="46" t="n">
-        <v>4540.023999999999</v>
+        <v>4546.045</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>5292.95</v>
+        <v>5259.400000000001</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>376.463</v>
+        <v>356.6775</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="G134" s="1" t="n"/>
     </row>
@@ -4713,20 +4739,20 @@
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>WarBunnie</t>
-        </is>
-      </c>
-      <c r="C135" s="46" t="n">
-        <v>4536.043</v>
+          <t>Vortex83</t>
+        </is>
+      </c>
+      <c r="C135" s="47" t="n">
+        <v>4539.839</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>5510</v>
+        <v>5292.799999999999</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>486.9785000000001</v>
+        <v>376.4805</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="G135" s="1" t="n"/>
     </row>
@@ -4736,20 +4762,20 @@
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>ZeonZ</t>
-        </is>
-      </c>
-      <c r="C136" s="46" t="n">
-        <v>4524.143</v>
+          <t>WarBunnie</t>
+        </is>
+      </c>
+      <c r="C136" s="47" t="n">
+        <v>4536.192</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>5447.7</v>
+        <v>5510.15</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>461.7785</v>
+        <v>486.979</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="G136" s="1" t="n"/>
     </row>
@@ -4759,20 +4785,20 @@
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>Indigo</t>
-        </is>
-      </c>
-      <c r="C137" s="46" t="n">
-        <v>4519.57</v>
+          <t>ZeonZ</t>
+        </is>
+      </c>
+      <c r="C137" s="47" t="n">
+        <v>4524.344</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>5357.45</v>
+        <v>5447.9</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>418.94</v>
+        <v>461.778</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="G137" s="1" t="n"/>
     </row>
@@ -4782,20 +4808,20 @@
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Energyshatter</t>
-        </is>
-      </c>
-      <c r="C138" s="46" t="n">
-        <v>4508.833</v>
+          <t>Indigo</t>
+        </is>
+      </c>
+      <c r="C138" s="47" t="n">
+        <v>4519.839</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>5007.15</v>
+        <v>5357.75</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>249.1585</v>
+        <v>418.9555</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="G138" s="1" t="n"/>
     </row>
@@ -4805,20 +4831,20 @@
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>dom cos</t>
-        </is>
-      </c>
-      <c r="C139" s="46" t="n">
-        <v>4502.586</v>
+          <t>augmentic</t>
+        </is>
+      </c>
+      <c r="C139" s="47" t="n">
+        <v>4516.281</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>4980.865</v>
+        <v>5033.6</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>239.1395</v>
+        <v>258.6595</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>285</v>
+        <v>54</v>
       </c>
       <c r="G139" s="1" t="n"/>
     </row>
@@ -4831,14 +4857,14 @@
           <t>Abamy</t>
         </is>
       </c>
-      <c r="C140" s="47" t="n">
-        <v>4495.316</v>
+      <c r="C140" s="48" t="n">
+        <v>4497.261</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>5122.7</v>
+        <v>5124.450000000001</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>313.692</v>
+        <v>313.5945</v>
       </c>
       <c r="F140" s="2" t="n">
         <v>57</v>
@@ -4851,20 +4877,20 @@
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>augmentic</t>
-        </is>
-      </c>
-      <c r="C141" s="47" t="n">
-        <v>4493.501</v>
+          <t>Dawthon</t>
+        </is>
+      </c>
+      <c r="C141" s="48" t="n">
+        <v>4491.344</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>5015.9</v>
+        <v>5224.700000000001</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>261.1995</v>
+        <v>366.678</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="G141" s="1" t="n"/>
     </row>
@@ -4874,20 +4900,20 @@
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Dawthon</t>
-        </is>
-      </c>
-      <c r="C142" s="47" t="n">
-        <v>4491.144</v>
+          <t>dom cos</t>
+        </is>
+      </c>
+      <c r="C142" s="48" t="n">
+        <v>4483.101</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>5224.5</v>
+        <v>4958.735</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>366.678</v>
+        <v>237.817</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="G142" s="1" t="n"/>
     </row>
@@ -4900,14 +4926,14 @@
           <t>Allison</t>
         </is>
       </c>
-      <c r="C143" s="47" t="n">
-        <v>4481.159</v>
+      <c r="C143" s="48" t="n">
+        <v>4481.428</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>5140.75</v>
+        <v>5141.05</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>329.7955000000001</v>
+        <v>329.811</v>
       </c>
       <c r="F143" s="2" t="n">
         <v>29</v>
@@ -4923,14 +4949,14 @@
           <t>tr_</t>
         </is>
       </c>
-      <c r="C144" s="47" t="n">
-        <v>4466.717</v>
+      <c r="C144" s="48" t="n">
+        <v>4467.014</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>5133.7</v>
+        <v>5134</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>333.4915</v>
+        <v>333.493</v>
       </c>
       <c r="F144" s="2" t="n">
         <v>306</v>
@@ -4946,14 +4972,14 @@
           <t>Epsilon</t>
         </is>
       </c>
-      <c r="C145" s="47" t="n">
-        <v>4465.128999999999</v>
+      <c r="C145" s="48" t="n">
+        <v>4465.936000000001</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>5136.599999999999</v>
+        <v>5137.3</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>335.7355</v>
+        <v>335.682</v>
       </c>
       <c r="F145" s="2" t="n">
         <v>489</v>
@@ -4969,14 +4995,14 @@
           <t>virtue</t>
         </is>
       </c>
-      <c r="C146" s="48" t="n">
-        <v>4449.991</v>
+      <c r="C146" s="49" t="n">
+        <v>4451.29</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>5127.65</v>
+        <v>5128.85</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>338.8295</v>
+        <v>338.78</v>
       </c>
       <c r="F146" s="2" t="n">
         <v>30</v>
@@ -4992,14 +5018,14 @@
           <t>Dunkel Blau</t>
         </is>
       </c>
-      <c r="C147" s="48" t="n">
-        <v>4449.367</v>
+      <c r="C147" s="49" t="n">
+        <v>4449.543</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>5172.4</v>
+        <v>5172.6</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>361.5165</v>
+        <v>361.5285</v>
       </c>
       <c r="F147" s="2" t="n">
         <v>160</v>
@@ -5015,11 +5041,11 @@
           <t>Mega</t>
         </is>
       </c>
-      <c r="C148" s="48" t="n">
-        <v>4448.07</v>
+      <c r="C148" s="49" t="n">
+        <v>4448.22</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>5148</v>
+        <v>5148.150000000001</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>349.965</v>
@@ -5038,14 +5064,14 @@
           <t>DacTracked</t>
         </is>
       </c>
-      <c r="C149" s="48" t="n">
-        <v>4440.569</v>
+      <c r="C149" s="49" t="n">
+        <v>4440.719999999999</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>5307.95</v>
+        <v>5308.099999999999</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>433.6905</v>
+        <v>433.69</v>
       </c>
       <c r="F149" s="2" t="n">
         <v>84</v>
@@ -5061,14 +5087,14 @@
           <t>ShadowFlames</t>
         </is>
       </c>
-      <c r="C150" s="48" t="n">
-        <v>4426.603</v>
+      <c r="C150" s="49" t="n">
+        <v>4427.134</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>5271.1</v>
+        <v>5271.4</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>422.2485</v>
+        <v>422.133</v>
       </c>
       <c r="F150" s="2" t="n">
         <v>66</v>
@@ -5084,14 +5110,14 @@
           <t>doggo</t>
         </is>
       </c>
-      <c r="C151" s="48" t="n">
-        <v>4416.873</v>
+      <c r="C151" s="49" t="n">
+        <v>4417.074000000001</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>5270.599999999999</v>
+        <v>5270.8</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>426.8635</v>
+        <v>426.8630000000001</v>
       </c>
       <c r="F151" s="2" t="n">
         <v>596</v>
@@ -5107,14 +5133,14 @@
           <t>Gap2003</t>
         </is>
       </c>
-      <c r="C152" s="49" t="n">
-        <v>4393.904</v>
+      <c r="C152" s="50" t="n">
+        <v>4394.156999999999</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>5218.9</v>
+        <v>5219.2</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>412.498</v>
+        <v>412.5215</v>
       </c>
       <c r="F152" s="2" t="n">
         <v>40</v>
@@ -5130,14 +5156,14 @@
           <t>qwaintt</t>
         </is>
       </c>
-      <c r="C153" s="49" t="n">
-        <v>4391.902</v>
+      <c r="C153" s="50" t="n">
+        <v>4392.174</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>5141.2</v>
+        <v>5141.5</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>374.649</v>
+        <v>374.663</v>
       </c>
       <c r="F153" s="2" t="n">
         <v>93</v>
@@ -5153,17 +5179,17 @@
           <t>LegendFinder</t>
         </is>
       </c>
-      <c r="C154" s="49" t="n">
-        <v>4391.384</v>
+      <c r="C154" s="50" t="n">
+        <v>4391.534000000001</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>5028.3</v>
+        <v>5028.450000000001</v>
       </c>
       <c r="E154" s="2" t="n">
         <v>318.458</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G154" s="1" t="n"/>
     </row>
@@ -5176,11 +5202,11 @@
           <t>Zelo101</t>
         </is>
       </c>
-      <c r="C155" s="49" t="n">
-        <v>4382.454</v>
+      <c r="C155" s="50" t="n">
+        <v>4382.603999999999</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>5205.349999999999</v>
+        <v>5205.5</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>411.448</v>
@@ -5199,14 +5225,14 @@
           <t>Royal</t>
         </is>
       </c>
-      <c r="C156" s="50" t="n">
-        <v>4364.934000000001</v>
+      <c r="C156" s="51" t="n">
+        <v>4365.133</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>5323.400000000001</v>
+        <v>5323.6</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>479.2329999999999</v>
+        <v>479.2335</v>
       </c>
       <c r="F156" s="2" t="n">
         <v>17</v>
@@ -5222,14 +5248,14 @@
           <t>Lil Vince Freeze</t>
         </is>
       </c>
-      <c r="C157" s="51" t="n">
-        <v>4330.544</v>
+      <c r="C157" s="52" t="n">
+        <v>4330.745</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>5031.9</v>
+        <v>5032.099999999999</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>350.678</v>
+        <v>350.6775</v>
       </c>
       <c r="F157" s="2" t="n">
         <v>91</v>
@@ -5245,11 +5271,11 @@
           <t>Lennychu</t>
         </is>
       </c>
-      <c r="C158" s="51" t="n">
-        <v>4330.157</v>
+      <c r="C158" s="52" t="n">
+        <v>4330.357</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>5075.9</v>
+        <v>5076.1</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>372.8715</v>
@@ -5268,14 +5294,14 @@
           <t>kliomeno</t>
         </is>
       </c>
-      <c r="C159" s="51" t="n">
-        <v>4304.947</v>
+      <c r="C159" s="52" t="n">
+        <v>4305.098</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>5072.25</v>
+        <v>5072.4</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>383.6515</v>
+        <v>383.651</v>
       </c>
       <c r="F159" s="2" t="n">
         <v>34</v>
@@ -5291,14 +5317,14 @@
           <t>alphadragon2</t>
         </is>
       </c>
-      <c r="C160" s="51" t="n">
-        <v>4303.893</v>
+      <c r="C160" s="52" t="n">
+        <v>4304.042</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>5014</v>
+        <v>5014.150000000001</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>355.0535</v>
+        <v>355.054</v>
       </c>
       <c r="F160" s="2" t="n">
         <v>138</v>
@@ -5314,17 +5340,17 @@
           <t>APerson</t>
         </is>
       </c>
-      <c r="C161" s="51" t="n">
-        <v>4293.233</v>
+      <c r="C161" s="53" t="n">
+        <v>4288.492</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>4819.88</v>
+        <v>4822.7</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>263.3235</v>
+        <v>267.104</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G161" s="1" t="n"/>
     </row>
@@ -5337,14 +5363,14 @@
           <t>SuperS6</t>
         </is>
       </c>
-      <c r="C162" s="52" t="n">
-        <v>4282.029</v>
+      <c r="C162" s="53" t="n">
+        <v>4282.184</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>5206.950000000001</v>
+        <v>5207.1</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>462.4605</v>
+        <v>462.458</v>
       </c>
       <c r="F162" s="2" t="n">
         <v>29</v>
@@ -5360,14 +5386,14 @@
           <t>Val</t>
         </is>
       </c>
-      <c r="C163" s="52" t="n">
-        <v>4281.912</v>
+      <c r="C163" s="53" t="n">
+        <v>4282.056</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>4962.94</v>
+        <v>4963.085</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>340.514</v>
+        <v>340.5145</v>
       </c>
       <c r="F163" s="2" t="n">
         <v>165</v>
@@ -5380,20 +5406,20 @@
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Alg5br6</t>
-        </is>
-      </c>
-      <c r="C164" s="52" t="n">
-        <v>4280.340999999999</v>
+          <t>joss</t>
+        </is>
+      </c>
+      <c r="C164" s="53" t="n">
+        <v>4277.117999999999</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>4760.415</v>
+        <v>5068.75</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>240.037</v>
+        <v>395.816</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="G164" s="1" t="n"/>
     </row>
@@ -5403,20 +5429,20 @@
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>joss</t>
-        </is>
-      </c>
-      <c r="C165" s="52" t="n">
-        <v>4276.732</v>
+          <t>Dime</t>
+        </is>
+      </c>
+      <c r="C165" s="53" t="n">
+        <v>4272.88</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>5068.3</v>
+        <v>4963.355</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>395.784</v>
+        <v>345.2375</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="G165" s="1" t="n"/>
     </row>
@@ -5426,20 +5452,20 @@
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>Dime</t>
-        </is>
-      </c>
-      <c r="C166" s="52" t="n">
-        <v>4272.73</v>
+          <t>SuperVic</t>
+        </is>
+      </c>
+      <c r="C166" s="53" t="n">
+        <v>4272.203</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>4963.205</v>
+        <v>4943.675</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>345.2375</v>
+        <v>335.736</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G166" s="1" t="n"/>
     </row>
@@ -5449,20 +5475,20 @@
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>SuperVic</t>
-        </is>
-      </c>
-      <c r="C167" s="52" t="n">
-        <v>4272.007</v>
+          <t>D'Quartz</t>
+        </is>
+      </c>
+      <c r="C167" s="53" t="n">
+        <v>4262.417</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>4943.46</v>
+        <v>5204.400000000001</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>335.7265</v>
+        <v>470.9915</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="G167" s="1" t="n"/>
     </row>
@@ -5472,20 +5498,20 @@
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>D'Quartz</t>
-        </is>
-      </c>
-      <c r="C168" s="52" t="n">
-        <v>4262.266</v>
+          <t>Ant</t>
+        </is>
+      </c>
+      <c r="C168" s="53" t="n">
+        <v>4262.03</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>5204.25</v>
+        <v>5138</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>470.992</v>
+        <v>437.985</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="G168" s="1" t="n"/>
     </row>
@@ -5495,20 +5521,20 @@
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>Ant</t>
-        </is>
-      </c>
-      <c r="C169" s="52" t="n">
-        <v>4261.88</v>
+          <t>manasser99</t>
+        </is>
+      </c>
+      <c r="C169" s="53" t="n">
+        <v>4261.71</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>5137.849999999999</v>
+        <v>5023.3</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>437.985</v>
+        <v>380.795</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G169" s="1" t="n"/>
     </row>
@@ -5518,20 +5544,20 @@
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>manasser99</t>
-        </is>
-      </c>
-      <c r="C170" s="52" t="n">
-        <v>4261.61</v>
+          <t>SergeantSnivy</t>
+        </is>
+      </c>
+      <c r="C170" s="53" t="n">
+        <v>4254.247</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>5023.2</v>
+        <v>4985.165</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>380.795</v>
+        <v>365.4590000000001</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>129</v>
+        <v>326</v>
       </c>
       <c r="G170" s="1" t="n"/>
     </row>
@@ -5541,20 +5567,20 @@
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>SergeantSnivy</t>
-        </is>
-      </c>
-      <c r="C171" s="52" t="n">
-        <v>4254.459000000001</v>
+          <t>Bprice1998</t>
+        </is>
+      </c>
+      <c r="C171" s="54" t="n">
+        <v>4248.846</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>4985.375</v>
+        <v>5023.5</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>365.458</v>
+        <v>387.327</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>323</v>
+        <v>26</v>
       </c>
       <c r="G171" s="1" t="n"/>
     </row>
@@ -5564,20 +5590,20 @@
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>Bprice1998</t>
-        </is>
-      </c>
-      <c r="C172" s="53" t="n">
-        <v>4248.645</v>
+          <t>GameyFace 46</t>
+        </is>
+      </c>
+      <c r="C172" s="54" t="n">
+        <v>4246.111</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>5023.3</v>
+        <v>4843.9</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>387.3275</v>
+        <v>298.8945</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="G172" s="1" t="n"/>
     </row>
@@ -5587,20 +5613,20 @@
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>GameyFace 46</t>
-        </is>
-      </c>
-      <c r="C173" s="53" t="n">
-        <v>4245.965999999999</v>
+          <t>Nàgannach</t>
+        </is>
+      </c>
+      <c r="C173" s="54" t="n">
+        <v>4243.304999999999</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>4843.755</v>
+        <v>5144.349999999999</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>298.8945</v>
+        <v>450.5225</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="G173" s="1" t="n"/>
     </row>
@@ -5610,20 +5636,20 @@
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>Nàgannach</t>
-        </is>
-      </c>
-      <c r="C174" s="53" t="n">
-        <v>4243.102</v>
+          <t>Alg5br6</t>
+        </is>
+      </c>
+      <c r="C174" s="54" t="n">
+        <v>4238.911999999999</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>5144.15</v>
+        <v>4721.165</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>450.524</v>
+        <v>241.1265</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>378</v>
+        <v>166</v>
       </c>
       <c r="G174" s="1" t="n"/>
     </row>
@@ -5636,11 +5662,11 @@
           <t>inari~</t>
         </is>
       </c>
-      <c r="C175" s="53" t="n">
-        <v>4235.007000000001</v>
+      <c r="C175" s="54" t="n">
+        <v>4235.157</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>5154.650000000001</v>
+        <v>5154.8</v>
       </c>
       <c r="E175" s="2" t="n">
         <v>459.8215</v>
@@ -5659,14 +5685,14 @@
           <t>Rubyleafeon2080</t>
         </is>
       </c>
-      <c r="C176" s="53" t="n">
-        <v>4232.821</v>
+      <c r="C176" s="54" t="n">
+        <v>4232.969</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>5045.400000000001</v>
+        <v>5045.55</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>406.2895</v>
+        <v>406.2905</v>
       </c>
       <c r="F176" s="2" t="n">
         <v>19</v>
@@ -5682,14 +5708,14 @@
           <t>ukeadel</t>
         </is>
       </c>
-      <c r="C177" s="53" t="n">
-        <v>4221.453</v>
+      <c r="C177" s="54" t="n">
+        <v>4221.597</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>5124.15</v>
+        <v>5124.299999999999</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>451.3485</v>
+        <v>451.3515</v>
       </c>
       <c r="F177" s="2" t="n">
         <v>8</v>
@@ -5705,14 +5731,14 @@
           <t>Evolt</t>
         </is>
       </c>
-      <c r="C178" s="53" t="n">
-        <v>4220.833000000001</v>
+      <c r="C178" s="54" t="n">
+        <v>4221.025</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>5002.95</v>
+        <v>5003.15</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>391.0585</v>
+        <v>391.0625</v>
       </c>
       <c r="F178" s="2" t="n">
         <v>146</v>
@@ -5728,14 +5754,14 @@
           <t>DeafPixel</t>
         </is>
       </c>
-      <c r="C179" s="53" t="n">
-        <v>4209.371999999999</v>
+      <c r="C179" s="54" t="n">
+        <v>4209.57</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>5042.7</v>
+        <v>5042.900000000001</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>416.664</v>
+        <v>416.665</v>
       </c>
       <c r="F179" s="2" t="n">
         <v>25</v>
@@ -5751,14 +5777,14 @@
           <t>MyTwinBrotherCan'tBeThisCute!</t>
         </is>
       </c>
-      <c r="C180" s="54" t="n">
-        <v>4174.234</v>
+      <c r="C180" s="55" t="n">
+        <v>4174.38</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>5032.55</v>
+        <v>5032.7</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>429.158</v>
+        <v>429.16</v>
       </c>
       <c r="F180" s="2" t="n">
         <v>9</v>
@@ -5774,14 +5800,14 @@
           <t>OverheadRed</t>
         </is>
       </c>
-      <c r="C181" s="54" t="n">
-        <v>4170.878000000001</v>
+      <c r="C181" s="55" t="n">
+        <v>4171.027</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>5156</v>
+        <v>5156.15</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>492.561</v>
+        <v>492.5615</v>
       </c>
       <c r="F181" s="2" t="n">
         <v>83</v>
@@ -5797,14 +5823,14 @@
           <t>Geeky</t>
         </is>
       </c>
-      <c r="C182" s="55" t="n">
-        <v>4162.677</v>
+      <c r="C182" s="56" t="n">
+        <v>4163.365</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>4751.665</v>
+        <v>4752.320000000001</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>294.494</v>
+        <v>294.4775</v>
       </c>
       <c r="F182" s="2" t="n">
         <v>44</v>
@@ -5820,14 +5846,14 @@
           <t>zensol</t>
         </is>
       </c>
-      <c r="C183" s="55" t="n">
-        <v>4157.312</v>
+      <c r="C183" s="56" t="n">
+        <v>4157.46</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>5130.25</v>
+        <v>5130.4</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>486.4690000000001</v>
+        <v>486.47</v>
       </c>
       <c r="F183" s="2" t="n">
         <v>11</v>
@@ -5843,14 +5869,14 @@
           <t>Raioknight</t>
         </is>
       </c>
-      <c r="C184" s="55" t="n">
-        <v>4147.651999999999</v>
+      <c r="C184" s="56" t="n">
+        <v>4147.754</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>5134.099999999999</v>
+        <v>5134.2</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>493.224</v>
+        <v>493.223</v>
       </c>
       <c r="F184" s="2" t="n">
         <v>21</v>
@@ -5866,11 +5892,11 @@
           <t>LARAUJO</t>
         </is>
       </c>
-      <c r="C185" s="55" t="n">
-        <v>4145.581</v>
+      <c r="C185" s="56" t="n">
+        <v>4145.736</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>4910.68</v>
+        <v>4910.835</v>
       </c>
       <c r="E185" s="2" t="n">
         <v>382.5495</v>
@@ -5889,11 +5915,11 @@
           <t>SuperYoshi84</t>
         </is>
       </c>
-      <c r="C186" s="55" t="n">
-        <v>4143.164</v>
+      <c r="C186" s="56" t="n">
+        <v>4143.334</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>4918.27</v>
+        <v>4918.44</v>
       </c>
       <c r="E186" s="2" t="n">
         <v>387.553</v>
@@ -5912,14 +5938,14 @@
           <t>The_BinaryPuppeteer hello</t>
         </is>
       </c>
-      <c r="C187" s="55" t="n">
-        <v>4131.983</v>
+      <c r="C187" s="56" t="n">
+        <v>4132.406</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>4615.315</v>
+        <v>4615.745</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>241.666</v>
+        <v>241.6695</v>
       </c>
       <c r="F187" s="2" t="n">
         <v>115</v>
@@ -5935,14 +5961,14 @@
           <t>ZombieClub</t>
         </is>
       </c>
-      <c r="C188" s="55" t="n">
-        <v>4127.052</v>
+      <c r="C188" s="56" t="n">
+        <v>4128.026000000001</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>4681.35</v>
+        <v>4682.320000000001</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>277.149</v>
+        <v>277.147</v>
       </c>
       <c r="F188" s="2" t="n">
         <v>92</v>
@@ -5958,14 +5984,14 @@
           <t>MelecieDiancie</t>
         </is>
       </c>
-      <c r="C189" s="56" t="n">
-        <v>4121.854</v>
+      <c r="C189" s="57" t="n">
+        <v>4121.998000000001</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>4739.825</v>
+        <v>4739.97</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>308.9855</v>
+        <v>308.986</v>
       </c>
       <c r="F189" s="2" t="n">
         <v>59</v>
@@ -5981,14 +6007,14 @@
           <t>MeLikePie50</t>
         </is>
       </c>
-      <c r="C190" s="56" t="n">
-        <v>4117.303</v>
+      <c r="C190" s="57" t="n">
+        <v>4117.452</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>4836.58</v>
+        <v>4836.73</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>359.6385</v>
+        <v>359.639</v>
       </c>
       <c r="F190" s="2" t="n">
         <v>47</v>
@@ -6004,11 +6030,11 @@
           <t>thelegend27</t>
         </is>
       </c>
-      <c r="C191" s="56" t="n">
-        <v>4110.039</v>
+      <c r="C191" s="57" t="n">
+        <v>4110.214</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>4895.99</v>
+        <v>4896.165</v>
       </c>
       <c r="E191" s="2" t="n">
         <v>392.9755</v>
@@ -6027,11 +6053,11 @@
           <t>Nicholas Abbott</t>
         </is>
       </c>
-      <c r="C192" s="56" t="n">
-        <v>4103.228</v>
+      <c r="C192" s="57" t="n">
+        <v>4103.328</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>5097.75</v>
+        <v>5097.85</v>
       </c>
       <c r="E192" s="2" t="n">
         <v>497.261</v>
@@ -6050,14 +6076,14 @@
           <t>TheMathGuy</t>
         </is>
       </c>
-      <c r="C193" s="56" t="n">
-        <v>4085.076</v>
+      <c r="C193" s="57" t="n">
+        <v>4085.321</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>4791.96</v>
+        <v>4792.235</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>353.442</v>
+        <v>353.457</v>
       </c>
       <c r="F193" s="2" t="n">
         <v>251</v>
@@ -6073,14 +6099,14 @@
           <t>Alabaster</t>
         </is>
       </c>
-      <c r="C194" s="57" t="n">
-        <v>4082.265</v>
+      <c r="C194" s="58" t="n">
+        <v>4082.383</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>4833.75</v>
+        <v>4833.87</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>375.7425</v>
+        <v>375.7435</v>
       </c>
       <c r="F194" s="2" t="n">
         <v>19</v>
@@ -6096,14 +6122,14 @@
           <t>magniflcent</t>
         </is>
       </c>
-      <c r="C195" s="57" t="n">
-        <v>4081.892</v>
+      <c r="C195" s="58" t="n">
+        <v>4082.143999999999</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>4745.215</v>
+        <v>4745.485</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>331.6615</v>
+        <v>331.6705000000001</v>
       </c>
       <c r="F195" s="2" t="n">
         <v>111</v>
@@ -6119,14 +6145,14 @@
           <t>Maxfecteau</t>
         </is>
       </c>
-      <c r="C196" s="57" t="n">
-        <v>4081.294</v>
+      <c r="C196" s="58" t="n">
+        <v>4081.498</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>4761.69</v>
+        <v>4761.934999999999</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>340.198</v>
+        <v>340.2185</v>
       </c>
       <c r="F196" s="2" t="n">
         <v>98</v>
@@ -6142,14 +6168,14 @@
           <t>OpKos</t>
         </is>
       </c>
-      <c r="C197" s="57" t="n">
-        <v>4070.669</v>
+      <c r="C197" s="58" t="n">
+        <v>4072.062</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>4919.335</v>
+        <v>4920.545</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>424.333</v>
+        <v>424.2415</v>
       </c>
       <c r="F197" s="2" t="n">
         <v>109</v>
@@ -6165,17 +6191,17 @@
           <t>QuantumWillow</t>
         </is>
       </c>
-      <c r="C198" s="57" t="n">
-        <v>4070.341</v>
+      <c r="C198" s="58" t="n">
+        <v>4069.822</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>4783.48</v>
+        <v>4783.045</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>356.5695</v>
+        <v>356.6115</v>
       </c>
       <c r="F198" s="2" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G198" s="1" t="n"/>
     </row>
@@ -6188,11 +6214,11 @@
           <t>Pie Dude</t>
         </is>
       </c>
-      <c r="C199" s="57" t="n">
-        <v>4066.416</v>
+      <c r="C199" s="58" t="n">
+        <v>4066.571</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>4725.485</v>
+        <v>4725.64</v>
       </c>
       <c r="E199" s="2" t="n">
         <v>329.5345</v>
@@ -6208,20 +6234,20 @@
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>BoomYourDead</t>
-        </is>
-      </c>
-      <c r="C200" s="57" t="n">
-        <v>4052.09</v>
+          <t>Actionguy777</t>
+        </is>
+      </c>
+      <c r="C200" s="58" t="n">
+        <v>4052.545</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>4903.565</v>
+        <v>4762</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>425.7375</v>
+        <v>354.7275</v>
       </c>
       <c r="F200" s="2" t="n">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="G200" s="1" t="n"/>
     </row>
@@ -6231,20 +6257,20 @@
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>Actionguy777</t>
-        </is>
-      </c>
-      <c r="C201" s="57" t="n">
-        <v>4051.873</v>
+          <t>BoomYourDead</t>
+        </is>
+      </c>
+      <c r="C201" s="58" t="n">
+        <v>4052.203</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>4761.415</v>
+        <v>4903.68</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>354.771</v>
+        <v>425.7385</v>
       </c>
       <c r="F201" s="2" t="n">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="G201" s="1" t="n"/>
     </row>
@@ -6257,14 +6283,14 @@
           <t>Steel83</t>
         </is>
       </c>
-      <c r="C202" s="58" t="n">
-        <v>4036.846</v>
+      <c r="C202" s="59" t="n">
+        <v>4036.964</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>4835.93</v>
+        <v>4836.05</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>399.542</v>
+        <v>399.543</v>
       </c>
       <c r="F202" s="2" t="n">
         <v>19</v>
@@ -6280,14 +6306,14 @@
           <t>ACN</t>
         </is>
       </c>
-      <c r="C203" s="58" t="n">
-        <v>4033.658</v>
+      <c r="C203" s="59" t="n">
+        <v>4033.972</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>4561.075</v>
+        <v>4561.38</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>263.7085</v>
+        <v>263.704</v>
       </c>
       <c r="F203" s="2" t="n">
         <v>522</v>
@@ -6303,14 +6329,14 @@
           <t>GSCN</t>
         </is>
       </c>
-      <c r="C204" s="58" t="n">
-        <v>4027.814</v>
+      <c r="C204" s="59" t="n">
+        <v>4027.99</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>4663.27</v>
+        <v>4663.445</v>
       </c>
       <c r="E204" s="2" t="n">
-        <v>317.728</v>
+        <v>317.7275</v>
       </c>
       <c r="F204" s="2" t="n">
         <v>193</v>
@@ -6326,14 +6352,14 @@
           <t>Otter</t>
         </is>
       </c>
-      <c r="C205" s="58" t="n">
-        <v>4026.883</v>
+      <c r="C205" s="59" t="n">
+        <v>4026.98</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>4823.565</v>
+        <v>4823.665</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>398.341</v>
+        <v>398.3425</v>
       </c>
       <c r="F205" s="2" t="n">
         <v>68</v>
@@ -6349,14 +6375,14 @@
           <t>LastChance74824</t>
         </is>
       </c>
-      <c r="C206" s="58" t="n">
-        <v>4010.095</v>
+      <c r="C206" s="59" t="n">
+        <v>4010.16</v>
       </c>
       <c r="D206" s="2" t="n">
-        <v>4740.81</v>
+        <v>4740.885</v>
       </c>
       <c r="E206" s="2" t="n">
-        <v>365.3575</v>
+        <v>365.3625</v>
       </c>
       <c r="F206" s="2" t="n">
         <v>157</v>
@@ -6372,14 +6398,14 @@
           <t>mcatooch</t>
         </is>
       </c>
-      <c r="C207" s="58" t="n">
-        <v>4004.169</v>
+      <c r="C207" s="59" t="n">
+        <v>4004.295</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>4890.455</v>
+        <v>4890.585</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>443.143</v>
+        <v>443.145</v>
       </c>
       <c r="F207" s="2" t="n">
         <v>10</v>
@@ -6395,14 +6421,14 @@
           <t>Sim_player</t>
         </is>
       </c>
-      <c r="C208" s="58" t="n">
-        <v>4001.503</v>
+      <c r="C208" s="59" t="n">
+        <v>4001.639</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>4938.52</v>
+        <v>4938.66</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>468.5085</v>
+        <v>468.5105</v>
       </c>
       <c r="F208" s="2" t="n">
         <v>22</v>
@@ -6418,11 +6444,11 @@
           <t>pokey</t>
         </is>
       </c>
-      <c r="C209" s="59" t="n">
-        <v>3998.415</v>
+      <c r="C209" s="60" t="n">
+        <v>3998.54</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>4930.41</v>
+        <v>4930.535</v>
       </c>
       <c r="E209" s="2" t="n">
         <v>465.9975</v>
@@ -6441,14 +6467,14 @@
           <t>IceKeyHammer</t>
         </is>
       </c>
-      <c r="C210" s="59" t="n">
-        <v>3997.45</v>
+      <c r="C210" s="60" t="n">
+        <v>3997.417</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>4828.63</v>
+        <v>4828.62</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>415.59</v>
+        <v>415.6015</v>
       </c>
       <c r="F210" s="2" t="n">
         <v>26</v>
@@ -6461,20 +6487,20 @@
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>soxfox</t>
-        </is>
-      </c>
-      <c r="C211" s="59" t="n">
-        <v>3994.75</v>
+          <t>Ultra</t>
+        </is>
+      </c>
+      <c r="C211" s="60" t="n">
+        <v>3993.751</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>4773.32</v>
+        <v>4671.155</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>389.285</v>
+        <v>338.702</v>
       </c>
       <c r="F211" s="2" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G211" s="1" t="n"/>
     </row>
@@ -6484,20 +6510,20 @@
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>Ultra</t>
-        </is>
-      </c>
-      <c r="C212" s="59" t="n">
-        <v>3993.586</v>
+          <t>Lpcarver</t>
+        </is>
+      </c>
+      <c r="C212" s="60" t="n">
+        <v>3985.791999999999</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>4670.969999999999</v>
+        <v>4983.545</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>338.692</v>
+        <v>498.8765</v>
       </c>
       <c r="F212" s="2" t="n">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="G212" s="1" t="n"/>
     </row>
@@ -6507,20 +6533,20 @@
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>Lpcarver</t>
-        </is>
-      </c>
-      <c r="C213" s="59" t="n">
-        <v>3985.63</v>
+          <t>sparky ball</t>
+        </is>
+      </c>
+      <c r="C213" s="60" t="n">
+        <v>3978.537</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>4983.385</v>
+        <v>4495.2</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>498.8774999999999</v>
+        <v>258.3315</v>
       </c>
       <c r="F213" s="2" t="n">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="G213" s="1" t="n"/>
     </row>
@@ -6530,20 +6556,20 @@
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>sparky ball</t>
-        </is>
-      </c>
-      <c r="C214" s="59" t="n">
-        <v>3977.734</v>
+          <t>Lavina</t>
+        </is>
+      </c>
+      <c r="C214" s="60" t="n">
+        <v>3968.725</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>4494.375</v>
+        <v>4763.225</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>258.3205</v>
+        <v>397.25</v>
       </c>
       <c r="F214" s="2" t="n">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="G214" s="1" t="n"/>
     </row>
@@ -6553,20 +6579,20 @@
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>Lavina</t>
-        </is>
-      </c>
-      <c r="C215" s="59" t="n">
-        <v>3968.559</v>
+          <t>nosepass</t>
+        </is>
+      </c>
+      <c r="C215" s="60" t="n">
+        <v>3963.991</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>4763.059999999999</v>
+        <v>4934.01</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>397.2505</v>
+        <v>485.0095</v>
       </c>
       <c r="F215" s="2" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G215" s="1" t="n"/>
     </row>
@@ -6576,20 +6602,20 @@
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>nosepass</t>
-        </is>
-      </c>
-      <c r="C216" s="59" t="n">
-        <v>3962.974</v>
+          <t>zallard21</t>
+        </is>
+      </c>
+      <c r="C216" s="60" t="n">
+        <v>3961.758</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>4933.26</v>
+        <v>4856.195</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>485.143</v>
+        <v>447.2185000000001</v>
       </c>
       <c r="F216" s="2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G216" s="1" t="n"/>
     </row>
@@ -6599,20 +6625,20 @@
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>zallard21</t>
-        </is>
-      </c>
-      <c r="C217" s="59" t="n">
-        <v>3961.637000000001</v>
+          <t>ReDleGiThacK</t>
+        </is>
+      </c>
+      <c r="C217" s="61" t="n">
+        <v>3953.633</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>4856.070000000001</v>
+        <v>4635.985</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>447.2165</v>
+        <v>341.176</v>
       </c>
       <c r="F217" s="2" t="n">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="G217" s="1" t="n"/>
     </row>
@@ -6622,20 +6648,20 @@
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>ReDleGiThacK</t>
-        </is>
-      </c>
-      <c r="C218" s="60" t="n">
-        <v>3953.489</v>
+          <t>LuckyLootCrate</t>
+        </is>
+      </c>
+      <c r="C218" s="61" t="n">
+        <v>3937.97</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>4635.84</v>
+        <v>4745.735000000001</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>341.1755</v>
+        <v>403.8825</v>
       </c>
       <c r="F218" s="2" t="n">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="G218" s="1" t="n"/>
     </row>
@@ -6645,20 +6671,20 @@
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>hamburgerhelper</t>
-        </is>
-      </c>
-      <c r="C219" s="60" t="n">
-        <v>3938.834</v>
+          <t>MidzyAoi</t>
+        </is>
+      </c>
+      <c r="C219" s="61" t="n">
+        <v>3923.289</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>4577.88</v>
+        <v>4413.785</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>319.523</v>
+        <v>245.248</v>
       </c>
       <c r="F219" s="2" t="n">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="G219" s="1" t="n"/>
     </row>
@@ -6668,20 +6694,20 @@
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>LuckyLootCrate</t>
-        </is>
-      </c>
-      <c r="C220" s="60" t="n">
-        <v>3937.831</v>
+          <t>turtley</t>
+        </is>
+      </c>
+      <c r="C220" s="61" t="n">
+        <v>3918.178</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>4745.595</v>
+        <v>4632.92</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>403.8819999999999</v>
+        <v>357.371</v>
       </c>
       <c r="F220" s="2" t="n">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G220" s="1" t="n"/>
     </row>
@@ -6691,20 +6717,20 @@
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>MidzyAoi</t>
-        </is>
-      </c>
-      <c r="C221" s="60" t="n">
-        <v>3922.527</v>
+          <t>Brilliance</t>
+        </is>
+      </c>
+      <c r="C221" s="62" t="n">
+        <v>3915.698</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>4413.035</v>
+        <v>4527.645</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>245.254</v>
+        <v>305.9735</v>
       </c>
       <c r="F221" s="2" t="n">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="G221" s="1" t="n"/>
     </row>
@@ -6714,20 +6740,20 @@
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>turtley</t>
-        </is>
-      </c>
-      <c r="C222" s="60" t="n">
-        <v>3918.129</v>
+          <t>soxfox</t>
+        </is>
+      </c>
+      <c r="C222" s="62" t="n">
+        <v>3915.629</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>4632.86</v>
+        <v>4721.6</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>357.3655</v>
+        <v>402.9855</v>
       </c>
       <c r="F222" s="2" t="n">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="G222" s="1" t="n"/>
     </row>
@@ -6737,20 +6763,20 @@
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>Brilliance</t>
-        </is>
-      </c>
-      <c r="C223" s="61" t="n">
-        <v>3914.979</v>
+          <t>Chatterzard</t>
+        </is>
+      </c>
+      <c r="C223" s="62" t="n">
+        <v>3915.062</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>4526.92</v>
+        <v>4709.139999999999</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>305.9705</v>
+        <v>397.039</v>
       </c>
       <c r="F223" s="2" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="G223" s="1" t="n"/>
     </row>
@@ -6760,20 +6786,20 @@
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>Chatterzard</t>
-        </is>
-      </c>
-      <c r="C224" s="61" t="n">
-        <v>3914.912</v>
+          <t>stargaze</t>
+        </is>
+      </c>
+      <c r="C224" s="62" t="n">
+        <v>3913.881</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>4708.99</v>
+        <v>4713.59</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>397.039</v>
+        <v>399.8545</v>
       </c>
       <c r="F224" s="2" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G224" s="1" t="n"/>
     </row>
@@ -6783,20 +6809,20 @@
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>stargaze</t>
-        </is>
-      </c>
-      <c r="C225" s="61" t="n">
-        <v>3913.759</v>
+          <t>SlimeMan</t>
+        </is>
+      </c>
+      <c r="C225" s="62" t="n">
+        <v>3907.75</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>4713.465</v>
+        <v>4729.285</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>399.853</v>
+        <v>410.7675</v>
       </c>
       <c r="F225" s="2" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G225" s="1" t="n"/>
     </row>
@@ -6806,20 +6832,20 @@
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>SlimeMan</t>
-        </is>
-      </c>
-      <c r="C226" s="61" t="n">
-        <v>3907.541</v>
+          <t>orbitball</t>
+        </is>
+      </c>
+      <c r="C226" s="62" t="n">
+        <v>3907.25</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>4729.08</v>
+        <v>4881.67</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>410.7695</v>
+        <v>487.21</v>
       </c>
       <c r="F226" s="2" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G226" s="1" t="n"/>
     </row>
@@ -6829,20 +6855,20 @@
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>orbitball</t>
-        </is>
-      </c>
-      <c r="C227" s="61" t="n">
-        <v>3907.097</v>
+          <t>TheSuj</t>
+        </is>
+      </c>
+      <c r="C227" s="62" t="n">
+        <v>3906.017000000001</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>4881.515</v>
+        <v>4739.34</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>487.209</v>
+        <v>416.6615</v>
       </c>
       <c r="F227" s="2" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G227" s="1" t="n"/>
     </row>
@@ -6852,20 +6878,20 @@
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>Illycadia</t>
-        </is>
-      </c>
-      <c r="C228" s="61" t="n">
-        <v>3906.087</v>
+          <t>TheDoubledSquare</t>
+        </is>
+      </c>
+      <c r="C228" s="62" t="n">
+        <v>3902.551</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>4557.395</v>
+        <v>4530.16</v>
       </c>
       <c r="E228" s="2" t="n">
-        <v>325.654</v>
+        <v>313.8045</v>
       </c>
       <c r="F228" s="2" t="n">
-        <v>368</v>
+        <v>532</v>
       </c>
       <c r="G228" s="1" t="n"/>
     </row>
@@ -6875,20 +6901,20 @@
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>TheSuj</t>
-        </is>
-      </c>
-      <c r="C229" s="61" t="n">
-        <v>3905.884</v>
+          <t>hamburgerhelper</t>
+        </is>
+      </c>
+      <c r="C229" s="62" t="n">
+        <v>3901.183</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>4739.205</v>
+        <v>4554.43</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>416.6605</v>
+        <v>326.6235</v>
       </c>
       <c r="F229" s="2" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G229" s="1" t="n"/>
     </row>
@@ -6898,20 +6924,20 @@
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>TheDoubledSquare</t>
-        </is>
-      </c>
-      <c r="C230" s="61" t="n">
-        <v>3893.255</v>
+          <t>Mr_Z</t>
+        </is>
+      </c>
+      <c r="C230" s="63" t="n">
+        <v>3874.849</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>4508.385</v>
+        <v>4587.12</v>
       </c>
       <c r="E230" s="2" t="n">
-        <v>307.565</v>
+        <v>356.1355</v>
       </c>
       <c r="F230" s="2" t="n">
-        <v>533</v>
+        <v>25</v>
       </c>
       <c r="G230" s="1" t="n"/>
     </row>
@@ -6924,11 +6950,11 @@
           <t>lane</t>
         </is>
       </c>
-      <c r="C231" s="62" t="n">
-        <v>3873.912</v>
+      <c r="C231" s="63" t="n">
+        <v>3874.082</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>4671.34</v>
+        <v>4671.51</v>
       </c>
       <c r="E231" s="2" t="n">
         <v>398.714</v>
@@ -6944,20 +6970,20 @@
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>Mr_Z</t>
-        </is>
-      </c>
-      <c r="C232" s="62" t="n">
-        <v>3873.878</v>
+          <t>tchoo</t>
+        </is>
+      </c>
+      <c r="C232" s="63" t="n">
+        <v>3870.607</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>4586.184999999999</v>
+        <v>4597.735000000001</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>356.1535</v>
+        <v>363.564</v>
       </c>
       <c r="F232" s="2" t="n">
-        <v>25</v>
+        <v>442</v>
       </c>
       <c r="G232" s="1" t="n"/>
     </row>
@@ -6967,20 +6993,20 @@
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>tchoo</t>
-        </is>
-      </c>
-      <c r="C233" s="62" t="n">
-        <v>3870.446</v>
+          <t>Augie279</t>
+        </is>
+      </c>
+      <c r="C233" s="63" t="n">
+        <v>3847.695</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>4597.55</v>
+        <v>4781.764999999999</v>
       </c>
       <c r="E233" s="2" t="n">
-        <v>363.552</v>
+        <v>467.035</v>
       </c>
       <c r="F233" s="2" t="n">
-        <v>442</v>
+        <v>85</v>
       </c>
       <c r="G233" s="1" t="n"/>
     </row>
@@ -6990,20 +7016,20 @@
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>Augie279</t>
-        </is>
-      </c>
-      <c r="C234" s="62" t="n">
-        <v>3847.52</v>
+          <t>[REDACTED]</t>
+        </is>
+      </c>
+      <c r="C234" s="63" t="n">
+        <v>3843.780000000001</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>4781.59</v>
+        <v>4666.39</v>
       </c>
       <c r="E234" s="2" t="n">
-        <v>467.035</v>
+        <v>411.3049999999999</v>
       </c>
       <c r="F234" s="2" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G234" s="1" t="n"/>
     </row>
@@ -7013,20 +7039,20 @@
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>[REDACTED]</t>
-        </is>
-      </c>
-      <c r="C235" s="62" t="n">
-        <v>3843.542</v>
+          <t>Scorpio</t>
+        </is>
+      </c>
+      <c r="C235" s="63" t="n">
+        <v>3838.59</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>4666.12</v>
+        <v>4736.79</v>
       </c>
       <c r="E235" s="2" t="n">
-        <v>411.289</v>
+        <v>449.1</v>
       </c>
       <c r="F235" s="2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G235" s="1" t="n"/>
     </row>
@@ -7036,20 +7062,20 @@
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>Scorpio</t>
-        </is>
-      </c>
-      <c r="C236" s="62" t="n">
-        <v>3838.457</v>
+          <t>Pandroid</t>
+        </is>
+      </c>
+      <c r="C236" s="63" t="n">
+        <v>3837.364</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>4736.655</v>
+        <v>4818.78</v>
       </c>
       <c r="E236" s="2" t="n">
-        <v>449.099</v>
+        <v>490.708</v>
       </c>
       <c r="F236" s="2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G236" s="1" t="n"/>
     </row>
@@ -7059,20 +7085,20 @@
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>Pandroid</t>
-        </is>
-      </c>
-      <c r="C237" s="62" t="n">
-        <v>3837.235</v>
+          <t>20BitChip</t>
+        </is>
+      </c>
+      <c r="C237" s="63" t="n">
+        <v>3834.11</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>4818.65</v>
+        <v>4385.935</v>
       </c>
       <c r="E237" s="2" t="n">
-        <v>490.7075</v>
+        <v>275.9125</v>
       </c>
       <c r="F237" s="2" t="n">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="G237" s="1" t="n"/>
     </row>
@@ -7082,20 +7108,20 @@
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>20BitChip</t>
-        </is>
-      </c>
-      <c r="C238" s="62" t="n">
-        <v>3833.432</v>
+          <t>murasaki</t>
+        </is>
+      </c>
+      <c r="C238" s="64" t="n">
+        <v>3831.712</v>
       </c>
       <c r="D238" s="2" t="n">
-        <v>4385.24</v>
+        <v>4655.96</v>
       </c>
       <c r="E238" s="2" t="n">
-        <v>275.904</v>
+        <v>412.124</v>
       </c>
       <c r="F238" s="2" t="n">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="G238" s="1" t="n"/>
     </row>
@@ -7105,20 +7131,20 @@
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>murasaki</t>
-        </is>
-      </c>
-      <c r="C239" s="63" t="n">
-        <v>3831.578</v>
+          <t>Aa</t>
+        </is>
+      </c>
+      <c r="C239" s="64" t="n">
+        <v>3823.393999999999</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>4655.825</v>
+        <v>4617.505</v>
       </c>
       <c r="E239" s="2" t="n">
-        <v>412.1235</v>
+        <v>397.0555000000001</v>
       </c>
       <c r="F239" s="2" t="n">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="G239" s="1" t="n"/>
     </row>
@@ -7128,20 +7154,20 @@
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>Aa</t>
-        </is>
-      </c>
-      <c r="C240" s="63" t="n">
-        <v>3823.175</v>
+          <t>Illycadia</t>
+        </is>
+      </c>
+      <c r="C240" s="64" t="n">
+        <v>3812.648</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>4617.29</v>
+        <v>4479.125</v>
       </c>
       <c r="E240" s="2" t="n">
-        <v>397.0575</v>
+        <v>333.2385</v>
       </c>
       <c r="F240" s="2" t="n">
-        <v>199</v>
+        <v>369</v>
       </c>
       <c r="G240" s="1" t="n"/>
     </row>
@@ -7154,14 +7180,14 @@
           <t>TylerRoberts928</t>
         </is>
       </c>
-      <c r="C241" s="63" t="n">
-        <v>3794.029</v>
+      <c r="C241" s="64" t="n">
+        <v>3794.205</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>4736.115</v>
+        <v>4736.29</v>
       </c>
       <c r="E241" s="2" t="n">
-        <v>471.043</v>
+        <v>471.0425</v>
       </c>
       <c r="F241" s="2" t="n">
         <v>96</v>
@@ -7177,14 +7203,14 @@
           <t>haxolotl</t>
         </is>
       </c>
-      <c r="C242" s="64" t="n">
-        <v>3785.805</v>
+      <c r="C242" s="65" t="n">
+        <v>3785.986</v>
       </c>
       <c r="D242" s="2" t="n">
-        <v>4730.79</v>
+        <v>4730.969999999999</v>
       </c>
       <c r="E242" s="2" t="n">
-        <v>472.4925000000001</v>
+        <v>472.492</v>
       </c>
       <c r="F242" s="2" t="n">
         <v>266</v>
@@ -7200,11 +7226,11 @@
           <t>Super21</t>
         </is>
       </c>
-      <c r="C243" s="64" t="n">
-        <v>3780.121</v>
+      <c r="C243" s="65" t="n">
+        <v>3780.306</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>4667.26</v>
+        <v>4667.445</v>
       </c>
       <c r="E243" s="2" t="n">
         <v>443.5694999999999</v>
@@ -7223,14 +7249,14 @@
           <t>KlownKarnaval</t>
         </is>
       </c>
-      <c r="C244" s="64" t="n">
-        <v>3774.633</v>
+      <c r="C244" s="65" t="n">
+        <v>3774.748</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>4640.17</v>
+        <v>4640.29</v>
       </c>
       <c r="E244" s="2" t="n">
-        <v>432.7685</v>
+        <v>432.771</v>
       </c>
       <c r="F244" s="2" t="n">
         <v>15</v>
@@ -7246,14 +7272,14 @@
           <t>chekin</t>
         </is>
       </c>
-      <c r="C245" s="64" t="n">
-        <v>3771.502</v>
+      <c r="C245" s="65" t="n">
+        <v>3771.629</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>4738.58</v>
+        <v>4738.71</v>
       </c>
       <c r="E245" s="2" t="n">
-        <v>483.539</v>
+        <v>483.5405</v>
       </c>
       <c r="F245" s="2" t="n">
         <v>9</v>
@@ -7269,14 +7295,14 @@
           <t>x_x</t>
         </is>
       </c>
-      <c r="C246" s="64" t="n">
-        <v>3767.921</v>
+      <c r="C246" s="65" t="n">
+        <v>3768.033</v>
       </c>
       <c r="D246" s="2" t="n">
-        <v>4671.139999999999</v>
+        <v>4671.255</v>
       </c>
       <c r="E246" s="2" t="n">
-        <v>451.6095</v>
+        <v>451.611</v>
       </c>
       <c r="F246" s="2" t="n">
         <v>7</v>
@@ -7292,14 +7318,14 @@
           <t>raine</t>
         </is>
       </c>
-      <c r="C247" s="65" t="n">
-        <v>3745.574000000001</v>
+      <c r="C247" s="66" t="n">
+        <v>3745.706</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>4536.37</v>
+        <v>4536.505</v>
       </c>
       <c r="E247" s="2" t="n">
-        <v>395.398</v>
+        <v>395.3995</v>
       </c>
       <c r="F247" s="2" t="n">
         <v>22</v>
@@ -7315,14 +7341,14 @@
           <t>Matsubara Kanon</t>
         </is>
       </c>
-      <c r="C248" s="65" t="n">
-        <v>3739.634</v>
+      <c r="C248" s="66" t="n">
+        <v>3739.856</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>4556.42</v>
+        <v>4556.639999999999</v>
       </c>
       <c r="E248" s="2" t="n">
-        <v>408.393</v>
+        <v>408.392</v>
       </c>
       <c r="F248" s="2" t="n">
         <v>240</v>
@@ -7338,11 +7364,11 @@
           <t>Uxinator</t>
         </is>
       </c>
-      <c r="C249" s="65" t="n">
-        <v>3736.111</v>
+      <c r="C249" s="66" t="n">
+        <v>3736.306</v>
       </c>
       <c r="D249" s="2" t="n">
-        <v>4597.99</v>
+        <v>4598.184999999999</v>
       </c>
       <c r="E249" s="2" t="n">
         <v>430.9395</v>
@@ -7361,14 +7387,14 @@
           <t>fitatfi</t>
         </is>
       </c>
-      <c r="C250" s="65" t="n">
-        <v>3729.679999999999</v>
+      <c r="C250" s="66" t="n">
+        <v>3729.836</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>4426.57</v>
+        <v>4426.725</v>
       </c>
       <c r="E250" s="2" t="n">
-        <v>348.4449999999999</v>
+        <v>348.4445</v>
       </c>
       <c r="F250" s="2" t="n">
         <v>245</v>
@@ -7384,14 +7410,14 @@
           <t>bandi72006</t>
         </is>
       </c>
-      <c r="C251" s="65" t="n">
-        <v>3727.23</v>
+      <c r="C251" s="66" t="n">
+        <v>3727.392</v>
       </c>
       <c r="D251" s="2" t="n">
-        <v>4410.765</v>
+        <v>4410.945</v>
       </c>
       <c r="E251" s="2" t="n">
-        <v>341.7675</v>
+        <v>341.7765</v>
       </c>
       <c r="F251" s="2" t="n">
         <v>109</v>
@@ -7407,14 +7433,14 @@
           <t>lehii dime</t>
         </is>
       </c>
-      <c r="C252" s="65" t="n">
-        <v>3722.671</v>
+      <c r="C252" s="66" t="n">
+        <v>3722.757000000001</v>
       </c>
       <c r="D252" s="2" t="n">
-        <v>4572.38</v>
+        <v>4572.47</v>
       </c>
       <c r="E252" s="2" t="n">
-        <v>424.8545</v>
+        <v>424.8565</v>
       </c>
       <c r="F252" s="2" t="n">
         <v>117</v>
@@ -7430,11 +7456,11 @@
           <t>Happy Fat</t>
         </is>
       </c>
-      <c r="C253" s="66" t="n">
-        <v>3698.475</v>
+      <c r="C253" s="67" t="n">
+        <v>3698.64</v>
       </c>
       <c r="D253" s="2" t="n">
-        <v>4525.21</v>
+        <v>4525.375</v>
       </c>
       <c r="E253" s="2" t="n">
         <v>413.3675</v>
@@ -7450,20 +7476,20 @@
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>Otam</t>
-        </is>
-      </c>
-      <c r="C254" s="66" t="n">
-        <v>3687.603</v>
+          <t>B1NARY</t>
+        </is>
+      </c>
+      <c r="C254" s="67" t="n">
+        <v>3687.641</v>
       </c>
       <c r="D254" s="2" t="n">
-        <v>4523.690000000001</v>
+        <v>4608.135</v>
       </c>
       <c r="E254" s="2" t="n">
-        <v>418.0435</v>
+        <v>460.247</v>
       </c>
       <c r="F254" s="2" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G254" s="1" t="n"/>
     </row>
@@ -7473,20 +7499,20 @@
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>B1NARY</t>
-        </is>
-      </c>
-      <c r="C255" s="66" t="n">
-        <v>3687.476000000001</v>
+          <t>Otam</t>
+        </is>
+      </c>
+      <c r="C255" s="67" t="n">
+        <v>3687.578</v>
       </c>
       <c r="D255" s="2" t="n">
-        <v>4607.97</v>
+        <v>4523.675</v>
       </c>
       <c r="E255" s="2" t="n">
-        <v>460.247</v>
+        <v>418.0485</v>
       </c>
       <c r="F255" s="2" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G255" s="1" t="n"/>
     </row>
@@ -7499,14 +7525,14 @@
           <t>Quippybro</t>
         </is>
       </c>
-      <c r="C256" s="66" t="n">
-        <v>3684.776</v>
+      <c r="C256" s="67" t="n">
+        <v>3684.904</v>
       </c>
       <c r="D256" s="2" t="n">
-        <v>4628.675</v>
+        <v>4628.805</v>
       </c>
       <c r="E256" s="2" t="n">
-        <v>471.9495</v>
+        <v>471.9505</v>
       </c>
       <c r="F256" s="2" t="n">
         <v>45</v>
@@ -7522,14 +7548,14 @@
           <t>How</t>
         </is>
       </c>
-      <c r="C257" s="66" t="n">
-        <v>3679.669</v>
+      <c r="C257" s="67" t="n">
+        <v>3679.78</v>
       </c>
       <c r="D257" s="2" t="n">
-        <v>4595.78</v>
+        <v>4595.895</v>
       </c>
       <c r="E257" s="2" t="n">
-        <v>458.0554999999999</v>
+        <v>458.0575</v>
       </c>
       <c r="F257" s="2" t="n">
         <v>12</v>
@@ -7545,14 +7571,14 @@
           <t>CyclonicRifted</t>
         </is>
       </c>
-      <c r="C258" s="66" t="n">
-        <v>3678.404</v>
+      <c r="C258" s="67" t="n">
+        <v>3679.049</v>
       </c>
       <c r="D258" s="2" t="n">
-        <v>4241.27</v>
+        <v>4241.93</v>
       </c>
       <c r="E258" s="2" t="n">
-        <v>281.433</v>
+        <v>281.4405</v>
       </c>
       <c r="F258" s="2" t="n">
         <v>64</v>
@@ -7568,14 +7594,14 @@
           <t>Douglas (BBall Dunker Animator)</t>
         </is>
       </c>
-      <c r="C259" s="66" t="n">
-        <v>3673.795</v>
+      <c r="C259" s="67" t="n">
+        <v>3673.903</v>
       </c>
       <c r="D259" s="2" t="n">
-        <v>4658.525000000001</v>
+        <v>4658.635</v>
       </c>
       <c r="E259" s="2" t="n">
-        <v>492.365</v>
+        <v>492.366</v>
       </c>
       <c r="F259" s="2" t="n">
         <v>5</v>
@@ -7588,20 +7614,20 @@
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>CacoPholey</t>
-        </is>
-      </c>
-      <c r="C260" s="66" t="n">
-        <v>3673.166999999999</v>
+          <t>alexlion0511</t>
+        </is>
+      </c>
+      <c r="C260" s="67" t="n">
+        <v>3668.361</v>
       </c>
       <c r="D260" s="2" t="n">
-        <v>4363.59</v>
+        <v>4437.405</v>
       </c>
       <c r="E260" s="2" t="n">
-        <v>345.2115</v>
+        <v>384.522</v>
       </c>
       <c r="F260" s="2" t="n">
-        <v>29</v>
+        <v>370</v>
       </c>
       <c r="G260" s="1" t="n"/>
     </row>
@@ -7611,20 +7637,20 @@
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>alexlion0511</t>
-        </is>
-      </c>
-      <c r="C261" s="66" t="n">
-        <v>3668.237</v>
+          <t>Yerboi 73</t>
+        </is>
+      </c>
+      <c r="C261" s="67" t="n">
+        <v>3667.868</v>
       </c>
       <c r="D261" s="2" t="n">
-        <v>4437.28</v>
+        <v>4493.53</v>
       </c>
       <c r="E261" s="2" t="n">
-        <v>384.5215000000001</v>
+        <v>412.831</v>
       </c>
       <c r="F261" s="2" t="n">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="G261" s="1" t="n"/>
     </row>
@@ -7634,20 +7660,20 @@
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>Yerboi 73</t>
-        </is>
-      </c>
-      <c r="C262" s="66" t="n">
-        <v>3667.719</v>
+          <t>Andyman</t>
+        </is>
+      </c>
+      <c r="C262" s="68" t="n">
+        <v>3663.595</v>
       </c>
       <c r="D262" s="2" t="n">
-        <v>4493.38</v>
+        <v>4569.76</v>
       </c>
       <c r="E262" s="2" t="n">
-        <v>412.8305</v>
+        <v>453.0825</v>
       </c>
       <c r="F262" s="2" t="n">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="G262" s="1" t="n"/>
     </row>
@@ -7657,20 +7683,20 @@
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>Andyman</t>
-        </is>
-      </c>
-      <c r="C263" s="67" t="n">
-        <v>3663.599</v>
+          <t>pink man</t>
+        </is>
+      </c>
+      <c r="C263" s="68" t="n">
+        <v>3663.087</v>
       </c>
       <c r="D263" s="2" t="n">
-        <v>4569.764999999999</v>
+        <v>4445.845</v>
       </c>
       <c r="E263" s="2" t="n">
-        <v>453.083</v>
+        <v>391.379</v>
       </c>
       <c r="F263" s="2" t="n">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="G263" s="1" t="n"/>
     </row>
@@ -7680,20 +7706,20 @@
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>pink man</t>
-        </is>
-      </c>
-      <c r="C264" s="67" t="n">
-        <v>3662.953</v>
+          <t>RadioTheRadio</t>
+        </is>
+      </c>
+      <c r="C264" s="68" t="n">
+        <v>3657.256</v>
       </c>
       <c r="D264" s="2" t="n">
-        <v>4445.71</v>
+        <v>4520.655</v>
       </c>
       <c r="E264" s="2" t="n">
-        <v>391.3785</v>
+        <v>431.6995</v>
       </c>
       <c r="F264" s="2" t="n">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="G264" s="1" t="n"/>
     </row>
@@ -7703,20 +7729,20 @@
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>RadioTheRadio</t>
-        </is>
-      </c>
-      <c r="C265" s="67" t="n">
-        <v>3657.083</v>
+          <t>EvilPoPo</t>
+        </is>
+      </c>
+      <c r="C265" s="68" t="n">
+        <v>3653.263</v>
       </c>
       <c r="D265" s="2" t="n">
-        <v>4520.44</v>
+        <v>4522.71</v>
       </c>
       <c r="E265" s="2" t="n">
-        <v>431.6785</v>
+        <v>434.7235</v>
       </c>
       <c r="F265" s="2" t="n">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="G265" s="1" t="n"/>
     </row>
@@ -7726,20 +7752,20 @@
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>OveCZ</t>
-        </is>
-      </c>
-      <c r="C266" s="67" t="n">
-        <v>3656.872</v>
+          <t>Huri Churi</t>
+        </is>
+      </c>
+      <c r="C266" s="68" t="n">
+        <v>3653.06</v>
       </c>
       <c r="D266" s="2" t="n">
-        <v>4604.345</v>
+        <v>4457.934999999999</v>
       </c>
       <c r="E266" s="2" t="n">
-        <v>473.7365</v>
+        <v>402.4375</v>
       </c>
       <c r="F266" s="2" t="n">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="G266" s="1" t="n"/>
     </row>
@@ -7749,20 +7775,20 @@
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>EvilPoPo</t>
-        </is>
-      </c>
-      <c r="C267" s="67" t="n">
-        <v>3653.11</v>
+          <t>DemonLoaf666</t>
+        </is>
+      </c>
+      <c r="C267" s="68" t="n">
+        <v>3650.414</v>
       </c>
       <c r="D267" s="2" t="n">
-        <v>4522.555</v>
+        <v>4498.09</v>
       </c>
       <c r="E267" s="2" t="n">
-        <v>434.7225</v>
+        <v>423.838</v>
       </c>
       <c r="F267" s="2" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G267" s="1" t="n"/>
     </row>
@@ -7772,20 +7798,20 @@
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>Huri Churi</t>
-        </is>
-      </c>
-      <c r="C268" s="67" t="n">
-        <v>3652.959</v>
+          <t>awepi</t>
+        </is>
+      </c>
+      <c r="C268" s="69" t="n">
+        <v>3621.432</v>
       </c>
       <c r="D268" s="2" t="n">
-        <v>4457.799999999999</v>
+        <v>4607.455</v>
       </c>
       <c r="E268" s="2" t="n">
-        <v>402.4205</v>
+        <v>493.0115</v>
       </c>
       <c r="F268" s="2" t="n">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G268" s="1" t="n"/>
     </row>
@@ -7795,20 +7821,20 @@
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>DemonLoaf666</t>
-        </is>
-      </c>
-      <c r="C269" s="67" t="n">
-        <v>3650.275000000001</v>
+          <t>zsboS</t>
+        </is>
+      </c>
+      <c r="C269" s="69" t="n">
+        <v>3614.23</v>
       </c>
       <c r="D269" s="2" t="n">
-        <v>4497.95</v>
+        <v>4500.224999999999</v>
       </c>
       <c r="E269" s="2" t="n">
-        <v>423.8375</v>
+        <v>442.9975000000001</v>
       </c>
       <c r="F269" s="2" t="n">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="G269" s="1" t="n"/>
     </row>
@@ -7818,20 +7844,20 @@
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>awepi</t>
-        </is>
-      </c>
-      <c r="C270" s="68" t="n">
-        <v>3621.23</v>
+          <t>Cause Key</t>
+        </is>
+      </c>
+      <c r="C270" s="69" t="n">
+        <v>3604.787</v>
       </c>
       <c r="D270" s="2" t="n">
-        <v>4607.255</v>
+        <v>4378.175</v>
       </c>
       <c r="E270" s="2" t="n">
-        <v>493.0125</v>
+        <v>386.694</v>
       </c>
       <c r="F270" s="2" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G270" s="1" t="n"/>
     </row>
@@ -7841,20 +7867,20 @@
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>zsboS</t>
-        </is>
-      </c>
-      <c r="C271" s="68" t="n">
-        <v>3614.091</v>
+          <t>Yoshikitty</t>
+        </is>
+      </c>
+      <c r="C271" s="70" t="n">
+        <v>3562.839</v>
       </c>
       <c r="D271" s="2" t="n">
-        <v>4500.085</v>
+        <v>4342.5</v>
       </c>
       <c r="E271" s="2" t="n">
-        <v>442.997</v>
+        <v>389.8305</v>
       </c>
       <c r="F271" s="2" t="n">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="G271" s="1" t="n"/>
     </row>
@@ -7864,20 +7890,20 @@
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>Cause Key</t>
-        </is>
-      </c>
-      <c r="C272" s="68" t="n">
-        <v>3604.637</v>
+          <t>spongebob cum rag</t>
+        </is>
+      </c>
+      <c r="C272" s="70" t="n">
+        <v>3556.574</v>
       </c>
       <c r="D272" s="2" t="n">
-        <v>4378.025</v>
+        <v>4472.12</v>
       </c>
       <c r="E272" s="2" t="n">
-        <v>386.694</v>
+        <v>457.773</v>
       </c>
       <c r="F272" s="2" t="n">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="G272" s="1" t="n"/>
     </row>
@@ -7887,20 +7913,20 @@
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>Yoshikitty</t>
-        </is>
-      </c>
-      <c r="C273" s="69" t="n">
-        <v>3562.679</v>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C273" s="70" t="n">
+        <v>3556.181</v>
       </c>
       <c r="D273" s="2" t="n">
-        <v>4342.34</v>
+        <v>4157.86</v>
       </c>
       <c r="E273" s="2" t="n">
-        <v>389.8305</v>
+        <v>300.8395</v>
       </c>
       <c r="F273" s="2" t="n">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="G273" s="1" t="n"/>
     </row>
@@ -7910,20 +7936,20 @@
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>spongebob cum rag</t>
-        </is>
-      </c>
-      <c r="C274" s="69" t="n">
-        <v>3556.452</v>
+          <t>ObjectionOverruled</t>
+        </is>
+      </c>
+      <c r="C274" s="71" t="n">
+        <v>3535.654</v>
       </c>
       <c r="D274" s="2" t="n">
-        <v>4471.995</v>
+        <v>4505.98</v>
       </c>
       <c r="E274" s="2" t="n">
-        <v>457.7715</v>
+        <v>485.163</v>
       </c>
       <c r="F274" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G274" s="1" t="n"/>
     </row>
@@ -7933,17 +7959,17 @@
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="C275" s="69" t="n">
-        <v>3556.09</v>
+          <t>Maglev Whale</t>
+        </is>
+      </c>
+      <c r="C275" s="71" t="n">
+        <v>3534.944</v>
       </c>
       <c r="D275" s="2" t="n">
-        <v>4157.775</v>
+        <v>4222.255</v>
       </c>
       <c r="E275" s="2" t="n">
-        <v>300.8425</v>
+        <v>343.6555</v>
       </c>
       <c r="F275" s="2" t="n">
         <v>44</v>
@@ -7956,20 +7982,20 @@
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>Kekky</t>
-        </is>
-      </c>
-      <c r="C276" s="69" t="n">
-        <v>3550.983</v>
+          <t>QuinGames</t>
+        </is>
+      </c>
+      <c r="C276" s="71" t="n">
+        <v>3519.33</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>4361.429999999999</v>
+        <v>4301.985000000001</v>
       </c>
       <c r="E276" s="2" t="n">
-        <v>405.2235000000001</v>
+        <v>391.3275</v>
       </c>
       <c r="F276" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G276" s="1" t="n"/>
     </row>
@@ -7979,20 +8005,20 @@
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>ObjectionOverruled</t>
-        </is>
-      </c>
-      <c r="C277" s="70" t="n">
-        <v>3535.554</v>
+          <t>CacoPholey</t>
+        </is>
+      </c>
+      <c r="C277" s="71" t="n">
+        <v>3518.081</v>
       </c>
       <c r="D277" s="2" t="n">
-        <v>4505.88</v>
+        <v>4215.434999999999</v>
       </c>
       <c r="E277" s="2" t="n">
-        <v>485.163</v>
+        <v>348.677</v>
       </c>
       <c r="F277" s="2" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G277" s="1" t="n"/>
     </row>
@@ -8002,20 +8028,20 @@
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>Maglev Whale</t>
-        </is>
-      </c>
-      <c r="C278" s="70" t="n">
-        <v>3534.81</v>
+          <t>OveCZ</t>
+        </is>
+      </c>
+      <c r="C278" s="71" t="n">
+        <v>3516.362</v>
       </c>
       <c r="D278" s="2" t="n">
-        <v>4222.12</v>
+        <v>4515.16</v>
       </c>
       <c r="E278" s="2" t="n">
-        <v>343.655</v>
+        <v>499.399</v>
       </c>
       <c r="F278" s="2" t="n">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="G278" s="1" t="n"/>
     </row>
@@ -8025,20 +8051,20 @@
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>QuinGames</t>
-        </is>
-      </c>
-      <c r="C279" s="70" t="n">
-        <v>3518.188</v>
+          <t>EliGabRet</t>
+        </is>
+      </c>
+      <c r="C279" s="71" t="n">
+        <v>3515.982</v>
       </c>
       <c r="D279" s="2" t="n">
-        <v>4300.804999999999</v>
+        <v>4198.65</v>
       </c>
       <c r="E279" s="2" t="n">
-        <v>391.3085</v>
+        <v>341.334</v>
       </c>
       <c r="F279" s="2" t="n">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="G279" s="1" t="n"/>
     </row>
@@ -8048,20 +8074,20 @@
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>EliGabRet</t>
-        </is>
-      </c>
-      <c r="C280" s="70" t="n">
-        <v>3515.827</v>
+          <t>Ragu Pasta Sauce</t>
+        </is>
+      </c>
+      <c r="C280" s="71" t="n">
+        <v>3515.41</v>
       </c>
       <c r="D280" s="2" t="n">
-        <v>4198.495</v>
+        <v>4368.895</v>
       </c>
       <c r="E280" s="2" t="n">
-        <v>341.334</v>
+        <v>426.7425</v>
       </c>
       <c r="F280" s="2" t="n">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c r="G280" s="1" t="n"/>
     </row>
@@ -8071,20 +8097,20 @@
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>Ragu Pasta Sauce</t>
-        </is>
-      </c>
-      <c r="C281" s="70" t="n">
-        <v>3515.26</v>
+          <t>Kekky</t>
+        </is>
+      </c>
+      <c r="C281" s="71" t="n">
+        <v>3511.079</v>
       </c>
       <c r="D281" s="2" t="n">
-        <v>4368.745</v>
+        <v>4304.41</v>
       </c>
       <c r="E281" s="2" t="n">
-        <v>426.7425</v>
+        <v>396.6655</v>
       </c>
       <c r="F281" s="2" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="G281" s="1" t="n"/>
     </row>
@@ -8097,14 +8123,14 @@
           <t>Little Luigi</t>
         </is>
       </c>
-      <c r="C282" s="70" t="n">
-        <v>3507.434</v>
+      <c r="C282" s="71" t="n">
+        <v>3507.626</v>
       </c>
       <c r="D282" s="2" t="n">
-        <v>4427.925</v>
+        <v>4428.115</v>
       </c>
       <c r="E282" s="2" t="n">
-        <v>460.2455</v>
+        <v>460.2445</v>
       </c>
       <c r="F282" s="2" t="n">
         <v>76</v>
@@ -8120,14 +8146,14 @@
           <t>Monika</t>
         </is>
       </c>
-      <c r="C283" s="71" t="n">
-        <v>3495.855</v>
+      <c r="C283" s="72" t="n">
+        <v>3495.954000000001</v>
       </c>
       <c r="D283" s="2" t="n">
-        <v>4489.39</v>
+        <v>4489.49</v>
       </c>
       <c r="E283" s="2" t="n">
-        <v>496.7675</v>
+        <v>496.768</v>
       </c>
       <c r="F283" s="2" t="n">
         <v>77</v>
@@ -8143,14 +8169,14 @@
           <t>KingdomClasher</t>
         </is>
       </c>
-      <c r="C284" s="71" t="n">
-        <v>3491.804</v>
+      <c r="C284" s="72" t="n">
+        <v>3491.914</v>
       </c>
       <c r="D284" s="2" t="n">
-        <v>4489.845</v>
+        <v>4490.025</v>
       </c>
       <c r="E284" s="2" t="n">
-        <v>499.0205</v>
+        <v>499.0555</v>
       </c>
       <c r="F284" s="2" t="n">
         <v>7</v>
@@ -8166,14 +8192,14 @@
           <t>Powerman103</t>
         </is>
       </c>
-      <c r="C285" s="71" t="n">
-        <v>3470.723</v>
+      <c r="C285" s="72" t="n">
+        <v>3471.415</v>
       </c>
       <c r="D285" s="2" t="n">
-        <v>4429.92</v>
+        <v>4430.605</v>
       </c>
       <c r="E285" s="2" t="n">
-        <v>479.5985000000001</v>
+        <v>479.595</v>
       </c>
       <c r="F285" s="2" t="n">
         <v>9</v>
@@ -8189,14 +8215,14 @@
           <t>SlimeGamer7</t>
         </is>
       </c>
-      <c r="C286" s="71" t="n">
-        <v>3470.467</v>
+      <c r="C286" s="72" t="n">
+        <v>3470.605</v>
       </c>
       <c r="D286" s="2" t="n">
-        <v>4249.005</v>
+        <v>4249.17</v>
       </c>
       <c r="E286" s="2" t="n">
-        <v>389.269</v>
+        <v>389.2825</v>
       </c>
       <c r="F286" s="2" t="n">
         <v>25</v>
@@ -8209,20 +8235,20 @@
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>Copernicium</t>
-        </is>
-      </c>
-      <c r="C287" s="71" t="n">
-        <v>3460.816</v>
+          <t>Square</t>
+        </is>
+      </c>
+      <c r="C287" s="72" t="n">
+        <v>3468.326</v>
       </c>
       <c r="D287" s="2" t="n">
-        <v>4176.085</v>
+        <v>4465.245</v>
       </c>
       <c r="E287" s="2" t="n">
-        <v>357.6345</v>
+        <v>498.4595</v>
       </c>
       <c r="F287" s="2" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G287" s="1" t="n"/>
     </row>
@@ -8232,20 +8258,20 @@
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>Square</t>
+          <t>Copernicium</t>
         </is>
       </c>
       <c r="C288" s="72" t="n">
-        <v>3456.796</v>
+        <v>3460.991</v>
       </c>
       <c r="D288" s="2" t="n">
-        <v>4455.365</v>
+        <v>4176.28</v>
       </c>
       <c r="E288" s="2" t="n">
-        <v>499.2845</v>
+        <v>357.6445</v>
       </c>
       <c r="F288" s="2" t="n">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="G288" s="1" t="n"/>
     </row>
@@ -8258,14 +8284,14 @@
           <t>Jess</t>
         </is>
       </c>
-      <c r="C289" s="72" t="n">
-        <v>3447.053</v>
+      <c r="C289" s="73" t="n">
+        <v>3447.219</v>
       </c>
       <c r="D289" s="2" t="n">
-        <v>4144.24</v>
+        <v>4144.42</v>
       </c>
       <c r="E289" s="2" t="n">
-        <v>348.5935</v>
+        <v>348.6005</v>
       </c>
       <c r="F289" s="2" t="n">
         <v>332</v>
@@ -8281,11 +8307,11 @@
           <t>flying</t>
         </is>
       </c>
-      <c r="C290" s="72" t="n">
-        <v>3444.315</v>
+      <c r="C290" s="73" t="n">
+        <v>3444.46</v>
       </c>
       <c r="D290" s="2" t="n">
-        <v>4156.764999999999</v>
+        <v>4156.91</v>
       </c>
       <c r="E290" s="2" t="n">
         <v>356.225</v>
@@ -8304,14 +8330,14 @@
           <t>one direction saved my life</t>
         </is>
       </c>
-      <c r="C291" s="72" t="n">
-        <v>3442.12</v>
+      <c r="C291" s="73" t="n">
+        <v>3442.251999999999</v>
       </c>
       <c r="D291" s="2" t="n">
-        <v>4362.51</v>
+        <v>4362.645</v>
       </c>
       <c r="E291" s="2" t="n">
-        <v>460.195</v>
+        <v>460.1965</v>
       </c>
       <c r="F291" s="2" t="n">
         <v>15</v>
@@ -8327,14 +8353,14 @@
           <t>Aster Green</t>
         </is>
       </c>
-      <c r="C292" s="72" t="n">
-        <v>3441.382000000001</v>
+      <c r="C292" s="73" t="n">
+        <v>3441.521</v>
       </c>
       <c r="D292" s="2" t="n">
-        <v>4260.665</v>
+        <v>4260.804999999999</v>
       </c>
       <c r="E292" s="2" t="n">
-        <v>409.6415</v>
+        <v>409.642</v>
       </c>
       <c r="F292" s="2" t="n">
         <v>119</v>
@@ -8350,14 +8376,14 @@
           <t>So</t>
         </is>
       </c>
-      <c r="C293" s="72" t="n">
-        <v>3432.276000000001</v>
+      <c r="C293" s="73" t="n">
+        <v>3432.415</v>
       </c>
       <c r="D293" s="2" t="n">
-        <v>4357.42</v>
+        <v>4357.559999999999</v>
       </c>
       <c r="E293" s="2" t="n">
-        <v>462.572</v>
+        <v>462.5725</v>
       </c>
       <c r="F293" s="2" t="n">
         <v>63</v>
@@ -8373,11 +8399,11 @@
           <t>Friendly Neighborhood Spinster</t>
         </is>
       </c>
-      <c r="C294" s="72" t="n">
-        <v>3424.706</v>
+      <c r="C294" s="73" t="n">
+        <v>3424.876</v>
       </c>
       <c r="D294" s="2" t="n">
-        <v>4277.275000000001</v>
+        <v>4277.445</v>
       </c>
       <c r="E294" s="2" t="n">
         <v>426.2845</v>
@@ -8396,14 +8422,14 @@
           <t>IceBox</t>
         </is>
       </c>
-      <c r="C295" s="72" t="n">
-        <v>3420.571</v>
+      <c r="C295" s="73" t="n">
+        <v>3420.699</v>
       </c>
       <c r="D295" s="2" t="n">
-        <v>4353.860000000001</v>
+        <v>4353.99</v>
       </c>
       <c r="E295" s="2" t="n">
-        <v>466.6445</v>
+        <v>466.6455</v>
       </c>
       <c r="F295" s="2" t="n">
         <v>19</v>
@@ -8419,14 +8445,14 @@
           <t>TDoggo_Washere</t>
         </is>
       </c>
-      <c r="C296" s="73" t="n">
-        <v>3406.333999999999</v>
+      <c r="C296" s="74" t="n">
+        <v>3406.468</v>
       </c>
       <c r="D296" s="2" t="n">
-        <v>4132.92</v>
+        <v>4133.055</v>
       </c>
       <c r="E296" s="2" t="n">
-        <v>363.293</v>
+        <v>363.2935</v>
       </c>
       <c r="F296" s="2" t="n">
         <v>51</v>
@@ -8442,14 +8468,14 @@
           <t>crap</t>
         </is>
       </c>
-      <c r="C297" s="73" t="n">
-        <v>3405.341</v>
+      <c r="C297" s="74" t="n">
+        <v>3405.512</v>
       </c>
       <c r="D297" s="2" t="n">
-        <v>4113.940000000001</v>
+        <v>4114.125</v>
       </c>
       <c r="E297" s="2" t="n">
-        <v>354.2995</v>
+        <v>354.3065</v>
       </c>
       <c r="F297" s="2" t="n">
         <v>60</v>
@@ -8465,14 +8491,14 @@
           <t>Moltres</t>
         </is>
       </c>
-      <c r="C298" s="73" t="n">
-        <v>3391.718</v>
+      <c r="C298" s="74" t="n">
+        <v>3391.857</v>
       </c>
       <c r="D298" s="2" t="n">
-        <v>4242.87</v>
+        <v>4243.01</v>
       </c>
       <c r="E298" s="2" t="n">
-        <v>425.576</v>
+        <v>425.5765</v>
       </c>
       <c r="F298" s="2" t="n">
         <v>50</v>
@@ -8488,14 +8514,14 @@
           <t>GamerMcViolentPants</t>
         </is>
       </c>
-      <c r="C299" s="73" t="n">
-        <v>3390.873000000001</v>
+      <c r="C299" s="74" t="n">
+        <v>3390.986</v>
       </c>
       <c r="D299" s="2" t="n">
-        <v>4380.65</v>
+        <v>4380.765</v>
       </c>
       <c r="E299" s="2" t="n">
-        <v>494.8885</v>
+        <v>494.8895</v>
       </c>
       <c r="F299" s="2" t="n">
         <v>11</v>
@@ -8508,20 +8534,20 @@
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>n_cube877</t>
-        </is>
-      </c>
-      <c r="C300" s="73" t="n">
-        <v>3388.269</v>
+          <t>asc</t>
+        </is>
+      </c>
+      <c r="C300" s="74" t="n">
+        <v>3384.616</v>
       </c>
       <c r="D300" s="2" t="n">
-        <v>4009.205</v>
+        <v>4261.99</v>
       </c>
       <c r="E300" s="2" t="n">
-        <v>310.468</v>
+        <v>438.687</v>
       </c>
       <c r="F300" s="2" t="n">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="G300" s="1" t="n"/>
     </row>
@@ -8531,20 +8557,20 @@
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>asc</t>
-        </is>
-      </c>
-      <c r="C301" s="73" t="n">
-        <v>3384.493</v>
+          <t>n_cube877</t>
+        </is>
+      </c>
+      <c r="C301" s="75" t="n">
+        <v>3367.93</v>
       </c>
       <c r="D301" s="2" t="n">
-        <v>4261.865</v>
+        <v>4000.315</v>
       </c>
       <c r="E301" s="2" t="n">
-        <v>438.686</v>
+        <v>316.1925</v>
       </c>
       <c r="F301" s="2" t="n">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="G301" s="1" t="n"/>
     </row>
@@ -8554,20 +8580,20 @@
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>RaphaPxyl</t>
-        </is>
-      </c>
-      <c r="C302" s="74" t="n">
-        <v>3366.842000000001</v>
+          <t>PretzelDinosaur</t>
+        </is>
+      </c>
+      <c r="C302" s="75" t="n">
+        <v>3364.804</v>
       </c>
       <c r="D302" s="2" t="n">
-        <v>3991.68</v>
+        <v>4285.16</v>
       </c>
       <c r="E302" s="2" t="n">
-        <v>312.419</v>
+        <v>460.178</v>
       </c>
       <c r="F302" s="2" t="n">
-        <v>297</v>
+        <v>21</v>
       </c>
       <c r="G302" s="1" t="n"/>
     </row>
@@ -8577,20 +8603,20 @@
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>PretzelDinosaur</t>
-        </is>
-      </c>
-      <c r="C303" s="74" t="n">
-        <v>3364.657999999999</v>
+          <t>dumbjames5305</t>
+        </is>
+      </c>
+      <c r="C303" s="75" t="n">
+        <v>3351.191</v>
       </c>
       <c r="D303" s="2" t="n">
-        <v>4285.01</v>
+        <v>4074.43</v>
       </c>
       <c r="E303" s="2" t="n">
-        <v>460.176</v>
+        <v>361.6195</v>
       </c>
       <c r="F303" s="2" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G303" s="1" t="n"/>
     </row>
@@ -8600,20 +8626,20 @@
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>axnjxn9</t>
-        </is>
-      </c>
-      <c r="C304" s="74" t="n">
-        <v>3360.282</v>
+          <t>RaphaPxyl</t>
+        </is>
+      </c>
+      <c r="C304" s="75" t="n">
+        <v>3349.983</v>
       </c>
       <c r="D304" s="2" t="n">
-        <v>4144.21</v>
+        <v>3986.68</v>
       </c>
       <c r="E304" s="2" t="n">
-        <v>391.9639999999999</v>
+        <v>318.3485</v>
       </c>
       <c r="F304" s="2" t="n">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="G304" s="1" t="n"/>
     </row>
@@ -8626,14 +8652,14 @@
           <t>TheRandomSapphire</t>
         </is>
       </c>
-      <c r="C305" s="74" t="n">
-        <v>3342.317</v>
+      <c r="C305" s="75" t="n">
+        <v>3342.413</v>
       </c>
       <c r="D305" s="2" t="n">
-        <v>4252.295</v>
+        <v>4252.395</v>
       </c>
       <c r="E305" s="2" t="n">
-        <v>454.989</v>
+        <v>454.991</v>
       </c>
       <c r="F305" s="2" t="n">
         <v>31</v>
@@ -8649,11 +8675,11 @@
           <t>A discord user</t>
         </is>
       </c>
-      <c r="C306" s="74" t="n">
-        <v>3337.903</v>
+      <c r="C306" s="75" t="n">
+        <v>3338.073</v>
       </c>
       <c r="D306" s="2" t="n">
-        <v>4244.02</v>
+        <v>4244.19</v>
       </c>
       <c r="E306" s="2" t="n">
         <v>453.0585</v>
@@ -8672,11 +8698,11 @@
           <t>Grand</t>
         </is>
       </c>
-      <c r="C307" s="74" t="n">
-        <v>3334.513</v>
+      <c r="C307" s="75" t="n">
+        <v>3334.578</v>
       </c>
       <c r="D307" s="2" t="n">
-        <v>4314.995</v>
+        <v>4315.059999999999</v>
       </c>
       <c r="E307" s="2" t="n">
         <v>490.241</v>
@@ -8695,14 +8721,14 @@
           <t>cy</t>
         </is>
       </c>
-      <c r="C308" s="75" t="n">
-        <v>3330.982</v>
+      <c r="C308" s="76" t="n">
+        <v>3331.099</v>
       </c>
       <c r="D308" s="2" t="n">
-        <v>4056.925</v>
+        <v>4057.06</v>
       </c>
       <c r="E308" s="2" t="n">
-        <v>362.9715</v>
+        <v>362.9805</v>
       </c>
       <c r="F308" s="2" t="n">
         <v>134</v>
@@ -8715,20 +8741,20 @@
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>dumbjames5305</t>
-        </is>
-      </c>
-      <c r="C309" s="75" t="n">
-        <v>3307.259</v>
+          <t>NoSorryIDK</t>
+        </is>
+      </c>
+      <c r="C309" s="76" t="n">
+        <v>3307.264</v>
       </c>
       <c r="D309" s="2" t="n">
-        <v>4012.42</v>
+        <v>4242.915</v>
       </c>
       <c r="E309" s="2" t="n">
-        <v>352.5805</v>
+        <v>467.8255</v>
       </c>
       <c r="F309" s="2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G309" s="1" t="n"/>
     </row>
@@ -8738,20 +8764,20 @@
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>NoSorryIDK</t>
-        </is>
-      </c>
-      <c r="C310" s="75" t="n">
-        <v>3307.127</v>
+          <t>Pyos</t>
+        </is>
+      </c>
+      <c r="C310" s="76" t="n">
+        <v>3305.91</v>
       </c>
       <c r="D310" s="2" t="n">
-        <v>4242.775</v>
+        <v>4184.094999999999</v>
       </c>
       <c r="E310" s="2" t="n">
-        <v>467.824</v>
+        <v>439.0925</v>
       </c>
       <c r="F310" s="2" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G310" s="1" t="n"/>
     </row>
@@ -8761,20 +8787,20 @@
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>Pyos</t>
-        </is>
-      </c>
-      <c r="C311" s="75" t="n">
-        <v>3305.771</v>
+          <t>Eulengi</t>
+        </is>
+      </c>
+      <c r="C311" s="77" t="n">
+        <v>3289.425</v>
       </c>
       <c r="D311" s="2" t="n">
-        <v>4183.955</v>
+        <v>4020.42</v>
       </c>
       <c r="E311" s="2" t="n">
-        <v>439.092</v>
+        <v>365.4975000000001</v>
       </c>
       <c r="F311" s="2" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G311" s="1" t="n"/>
     </row>
@@ -8784,20 +8810,20 @@
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>Eulengi</t>
-        </is>
-      </c>
-      <c r="C312" s="76" t="n">
-        <v>3289.301</v>
+          <t>axnjxn9</t>
+        </is>
+      </c>
+      <c r="C312" s="77" t="n">
+        <v>3274.063999999999</v>
       </c>
       <c r="D312" s="2" t="n">
-        <v>4020.28</v>
+        <v>4083.11</v>
       </c>
       <c r="E312" s="2" t="n">
-        <v>365.4895</v>
+        <v>404.523</v>
       </c>
       <c r="F312" s="2" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G312" s="1" t="n"/>
     </row>
@@ -8810,14 +8836,14 @@
           <t>MoonQuake</t>
         </is>
       </c>
-      <c r="C313" s="76" t="n">
-        <v>3257.242</v>
+      <c r="C313" s="77" t="n">
+        <v>3258.539</v>
       </c>
       <c r="D313" s="2" t="n">
-        <v>4172.085</v>
+        <v>4173.465</v>
       </c>
       <c r="E313" s="2" t="n">
-        <v>457.4215</v>
+        <v>457.463</v>
       </c>
       <c r="F313" s="2" t="n">
         <v>11</v>
@@ -8833,14 +8859,14 @@
           <t>Zac#8107</t>
         </is>
       </c>
-      <c r="C314" s="77" t="n">
-        <v>3242.107</v>
+      <c r="C314" s="78" t="n">
+        <v>3242.078</v>
       </c>
       <c r="D314" s="2" t="n">
-        <v>4143.21</v>
+        <v>4143.17</v>
       </c>
       <c r="E314" s="2" t="n">
-        <v>450.5515</v>
+        <v>450.546</v>
       </c>
       <c r="F314" s="2" t="n">
         <v>12</v>
@@ -8856,14 +8882,14 @@
           <t>☆Darbian☆</t>
         </is>
       </c>
-      <c r="C315" s="77" t="n">
-        <v>3238.728</v>
+      <c r="C315" s="78" t="n">
+        <v>3238.776</v>
       </c>
       <c r="D315" s="2" t="n">
-        <v>4002.495</v>
+        <v>4002.54</v>
       </c>
       <c r="E315" s="2" t="n">
-        <v>381.8835</v>
+        <v>381.882</v>
       </c>
       <c r="F315" s="2" t="n">
         <v>25</v>
@@ -8879,14 +8905,14 @@
           <t>DogTheBoss</t>
         </is>
       </c>
-      <c r="C316" s="77" t="n">
-        <v>3235.637</v>
+      <c r="C316" s="78" t="n">
+        <v>3235.794</v>
       </c>
       <c r="D316" s="2" t="n">
-        <v>4004.905</v>
+        <v>4005.059999999999</v>
       </c>
       <c r="E316" s="2" t="n">
-        <v>384.634</v>
+        <v>384.633</v>
       </c>
       <c r="F316" s="2" t="n">
         <v>70</v>
@@ -8902,14 +8928,14 @@
           <t>Leafy0519</t>
         </is>
       </c>
-      <c r="C317" s="77" t="n">
-        <v>3232.066</v>
+      <c r="C317" s="78" t="n">
+        <v>3232.2</v>
       </c>
       <c r="D317" s="2" t="n">
-        <v>4012.605</v>
+        <v>4012.74</v>
       </c>
       <c r="E317" s="2" t="n">
-        <v>390.2695</v>
+        <v>390.27</v>
       </c>
       <c r="F317" s="2" t="n">
         <v>38</v>
@@ -8925,14 +8951,14 @@
           <t>LegitSi</t>
         </is>
       </c>
-      <c r="C318" s="78" t="n">
-        <v>3203.169</v>
+      <c r="C318" s="79" t="n">
+        <v>3203.307</v>
       </c>
       <c r="D318" s="2" t="n">
-        <v>3890.425</v>
+        <v>3890.575</v>
       </c>
       <c r="E318" s="2" t="n">
-        <v>343.628</v>
+        <v>343.634</v>
       </c>
       <c r="F318" s="2" t="n">
         <v>90</v>
@@ -8948,14 +8974,14 @@
           <t>coolgamer7</t>
         </is>
       </c>
-      <c r="C319" s="78" t="n">
-        <v>3201.569</v>
+      <c r="C319" s="79" t="n">
+        <v>3201.655</v>
       </c>
       <c r="D319" s="2" t="n">
-        <v>4121.695000000001</v>
+        <v>4121.825</v>
       </c>
       <c r="E319" s="2" t="n">
-        <v>460.063</v>
+        <v>460.085</v>
       </c>
       <c r="F319" s="2" t="n">
         <v>14</v>
@@ -8971,14 +8997,14 @@
           <t>ItsYellow</t>
         </is>
       </c>
-      <c r="C320" s="78" t="n">
-        <v>3197.626</v>
+      <c r="C320" s="79" t="n">
+        <v>3197.765</v>
       </c>
       <c r="D320" s="2" t="n">
-        <v>4024.19</v>
+        <v>4024.285</v>
       </c>
       <c r="E320" s="2" t="n">
-        <v>413.282</v>
+        <v>413.26</v>
       </c>
       <c r="F320" s="2" t="n">
         <v>18</v>
@@ -8994,14 +9020,14 @@
           <t>SquardWed</t>
         </is>
       </c>
-      <c r="C321" s="78" t="n">
-        <v>3175.852</v>
+      <c r="C321" s="79" t="n">
+        <v>3176.055</v>
       </c>
       <c r="D321" s="2" t="n">
-        <v>4084.215</v>
+        <v>4084.44</v>
       </c>
       <c r="E321" s="2" t="n">
-        <v>454.1815</v>
+        <v>454.1925</v>
       </c>
       <c r="F321" s="2" t="n">
         <v>52</v>
@@ -9017,14 +9043,14 @@
           <t>Chez</t>
         </is>
       </c>
-      <c r="C322" s="78" t="n">
-        <v>3175.422</v>
+      <c r="C322" s="79" t="n">
+        <v>3175.551</v>
       </c>
       <c r="D322" s="2" t="n">
-        <v>4108.03</v>
+        <v>4108.16</v>
       </c>
       <c r="E322" s="2" t="n">
-        <v>466.304</v>
+        <v>466.3045</v>
       </c>
       <c r="F322" s="2" t="n">
         <v>18</v>
@@ -9040,14 +9066,14 @@
           <t>! cirnoed lollipoop</t>
         </is>
       </c>
-      <c r="C323" s="78" t="n">
-        <v>3172.417</v>
+      <c r="C323" s="79" t="n">
+        <v>3172.546</v>
       </c>
       <c r="D323" s="2" t="n">
-        <v>3971.415</v>
+        <v>3971.545</v>
       </c>
       <c r="E323" s="2" t="n">
-        <v>399.499</v>
+        <v>399.4995</v>
       </c>
       <c r="F323" s="2" t="n">
         <v>43</v>
@@ -9063,14 +9089,14 @@
           <t>dumbbac0n</t>
         </is>
       </c>
-      <c r="C324" s="78" t="n">
-        <v>3171.715</v>
+      <c r="C324" s="79" t="n">
+        <v>3171.878</v>
       </c>
       <c r="D324" s="2" t="n">
-        <v>3922.94</v>
+        <v>3923.1</v>
       </c>
       <c r="E324" s="2" t="n">
-        <v>375.6125</v>
+        <v>375.611</v>
       </c>
       <c r="F324" s="2" t="n">
         <v>53</v>
@@ -9086,14 +9112,14 @@
           <t>AHumanIThink</t>
         </is>
       </c>
-      <c r="C325" s="79" t="n">
-        <v>3149.962</v>
+      <c r="C325" s="80" t="n">
+        <v>3150.124</v>
       </c>
       <c r="D325" s="2" t="n">
-        <v>4122.155000000001</v>
+        <v>4122.315</v>
       </c>
       <c r="E325" s="2" t="n">
-        <v>486.0965</v>
+        <v>486.0955</v>
       </c>
       <c r="F325" s="2" t="n">
         <v>171</v>
@@ -9109,14 +9135,14 @@
           <t>Discord Watcher</t>
         </is>
       </c>
-      <c r="C326" s="80" t="n">
-        <v>3124.398999999999</v>
+      <c r="C326" s="81" t="n">
+        <v>3124.537</v>
       </c>
       <c r="D326" s="2" t="n">
-        <v>3878.28</v>
+        <v>3878.42</v>
       </c>
       <c r="E326" s="2" t="n">
-        <v>376.9405</v>
+        <v>376.9415</v>
       </c>
       <c r="F326" s="2" t="n">
         <v>33</v>
@@ -9132,14 +9158,14 @@
           <t>I'm Dynex</t>
         </is>
       </c>
-      <c r="C327" s="80" t="n">
-        <v>3117.876</v>
+      <c r="C327" s="81" t="n">
+        <v>3118.037</v>
       </c>
       <c r="D327" s="2" t="n">
-        <v>3993.965</v>
+        <v>3994.125</v>
       </c>
       <c r="E327" s="2" t="n">
-        <v>438.0445</v>
+        <v>438.044</v>
       </c>
       <c r="F327" s="2" t="n">
         <v>85</v>
@@ -9155,11 +9181,11 @@
           <t>XPoint021</t>
         </is>
       </c>
-      <c r="C328" s="80" t="n">
-        <v>3105.833</v>
+      <c r="C328" s="81" t="n">
+        <v>3105.973</v>
       </c>
       <c r="D328" s="2" t="n">
-        <v>3876.345</v>
+        <v>3876.485</v>
       </c>
       <c r="E328" s="2" t="n">
         <v>385.256</v>
@@ -9178,14 +9204,14 @@
           <t>LTLITS</t>
         </is>
       </c>
-      <c r="C329" s="80" t="n">
-        <v>3098.577</v>
+      <c r="C329" s="81" t="n">
+        <v>3098.758</v>
       </c>
       <c r="D329" s="2" t="n">
-        <v>3706.51</v>
+        <v>3706.68</v>
       </c>
       <c r="E329" s="2" t="n">
-        <v>303.9665</v>
+        <v>303.961</v>
       </c>
       <c r="F329" s="2" t="n">
         <v>75</v>
@@ -9201,14 +9227,14 @@
           <t>Sam Bair</t>
         </is>
       </c>
-      <c r="C330" s="81" t="n">
-        <v>3074.826</v>
+      <c r="C330" s="82" t="n">
+        <v>3074.943</v>
       </c>
       <c r="D330" s="2" t="n">
-        <v>4001.11</v>
+        <v>4001.23</v>
       </c>
       <c r="E330" s="2" t="n">
-        <v>463.142</v>
+        <v>463.1435</v>
       </c>
       <c r="F330" s="2" t="n">
         <v>24</v>
@@ -9224,14 +9250,14 @@
           <t>Elemental Domino</t>
         </is>
       </c>
-      <c r="C331" s="81" t="n">
-        <v>3070.812</v>
+      <c r="C331" s="82" t="n">
+        <v>3070.94</v>
       </c>
       <c r="D331" s="2" t="n">
-        <v>3815.6</v>
+        <v>3815.73</v>
       </c>
       <c r="E331" s="2" t="n">
-        <v>372.394</v>
+        <v>372.395</v>
       </c>
       <c r="F331" s="2" t="n">
         <v>40</v>
@@ -9247,14 +9273,14 @@
           <t>appleCider</t>
         </is>
       </c>
-      <c r="C332" s="81" t="n">
-        <v>3070.299</v>
+      <c r="C332" s="82" t="n">
+        <v>3070.584</v>
       </c>
       <c r="D332" s="2" t="n">
-        <v>4024.175</v>
+        <v>4024.465</v>
       </c>
       <c r="E332" s="2" t="n">
-        <v>476.938</v>
+        <v>476.9405</v>
       </c>
       <c r="F332" s="2" t="n">
         <v>105</v>
@@ -9270,14 +9296,14 @@
           <t>beeixz</t>
         </is>
       </c>
-      <c r="C333" s="81" t="n">
-        <v>3056.778</v>
+      <c r="C333" s="82" t="n">
+        <v>3056.927</v>
       </c>
       <c r="D333" s="2" t="n">
-        <v>3828.75</v>
+        <v>3828.925</v>
       </c>
       <c r="E333" s="2" t="n">
-        <v>385.986</v>
+        <v>385.999</v>
       </c>
       <c r="F333" s="2" t="n">
         <v>28</v>
@@ -9293,11 +9319,11 @@
           <t>Xoob</t>
         </is>
       </c>
-      <c r="C334" s="81" t="n">
-        <v>3043.668</v>
+      <c r="C334" s="82" t="n">
+        <v>3043.813</v>
       </c>
       <c r="D334" s="2" t="n">
-        <v>3893.525</v>
+        <v>3893.67</v>
       </c>
       <c r="E334" s="2" t="n">
         <v>424.9285</v>
@@ -9316,14 +9342,14 @@
           <t>LordPickleKing</t>
         </is>
       </c>
-      <c r="C335" s="81" t="n">
-        <v>3042.558</v>
+      <c r="C335" s="82" t="n">
+        <v>3042.692</v>
       </c>
       <c r="D335" s="2" t="n">
-        <v>3915.15</v>
+        <v>3915.285</v>
       </c>
       <c r="E335" s="2" t="n">
-        <v>436.296</v>
+        <v>436.2965</v>
       </c>
       <c r="F335" s="2" t="n">
         <v>26</v>
@@ -9339,14 +9365,14 @@
           <t>Rhilunam?</t>
         </is>
       </c>
-      <c r="C336" s="82" t="n">
-        <v>3006.867</v>
+      <c r="C336" s="83" t="n">
+        <v>3006.84</v>
       </c>
       <c r="D336" s="2" t="n">
-        <v>3996.965</v>
+        <v>3996.93</v>
       </c>
       <c r="E336" s="2" t="n">
-        <v>495.049</v>
+        <v>495.045</v>
       </c>
       <c r="F336" s="2" t="n">
         <v>7</v>
@@ -9362,14 +9388,14 @@
           <t>Robby</t>
         </is>
       </c>
-      <c r="C337" s="83" t="n">
-        <v>2988.746</v>
+      <c r="C337" s="84" t="n">
+        <v>2988.916999999999</v>
       </c>
       <c r="D337" s="2" t="n">
-        <v>3827.7</v>
+        <v>3827.87</v>
       </c>
       <c r="E337" s="2" t="n">
-        <v>419.477</v>
+        <v>419.4765</v>
       </c>
       <c r="F337" s="2" t="n">
         <v>77</v>
@@ -9385,14 +9411,14 @@
           <t>JinjeryDoo</t>
         </is>
       </c>
-      <c r="C338" s="83" t="n">
-        <v>2980.661</v>
+      <c r="C338" s="84" t="n">
+        <v>2980.824</v>
       </c>
       <c r="D338" s="2" t="n">
-        <v>3923.235</v>
+        <v>3923.405</v>
       </c>
       <c r="E338" s="2" t="n">
-        <v>471.287</v>
+        <v>471.2905</v>
       </c>
       <c r="F338" s="2" t="n">
         <v>8</v>
@@ -9408,14 +9434,14 @@
           <t>TechnicalDifficulties</t>
         </is>
       </c>
-      <c r="C339" s="83" t="n">
-        <v>2962.336</v>
+      <c r="C339" s="84" t="n">
+        <v>2962.441</v>
       </c>
       <c r="D339" s="2" t="n">
-        <v>3960.73</v>
+        <v>3960.84</v>
       </c>
       <c r="E339" s="2" t="n">
-        <v>499.197</v>
+        <v>499.1995</v>
       </c>
       <c r="F339" s="2" t="n">
         <v>8</v>
@@ -9431,14 +9457,14 @@
           <t>Ayisi</t>
         </is>
       </c>
-      <c r="C340" s="84" t="n">
-        <v>2907.141000000001</v>
+      <c r="C340" s="85" t="n">
+        <v>2907.287</v>
       </c>
       <c r="D340" s="2" t="n">
-        <v>3874.755</v>
+        <v>3874.865</v>
       </c>
       <c r="E340" s="2" t="n">
-        <v>483.807</v>
+        <v>483.789</v>
       </c>
       <c r="F340" s="2" t="n">
         <v>9</v>
@@ -9454,14 +9480,14 @@
           <t>Derp</t>
         </is>
       </c>
-      <c r="C341" s="84" t="n">
-        <v>2902.99</v>
+      <c r="C341" s="85" t="n">
+        <v>2903.192</v>
       </c>
       <c r="D341" s="2" t="n">
-        <v>3851.475</v>
+        <v>3851.675</v>
       </c>
       <c r="E341" s="2" t="n">
-        <v>474.2425</v>
+        <v>474.2415</v>
       </c>
       <c r="F341" s="2" t="n">
         <v>31</v>
@@ -9477,14 +9503,14 @@
           <t>ItsTwiz</t>
         </is>
       </c>
-      <c r="C342" s="84" t="n">
-        <v>2884.967</v>
+      <c r="C342" s="85" t="n">
+        <v>2885.128</v>
       </c>
       <c r="D342" s="2" t="n">
-        <v>3766.085</v>
+        <v>3766.245</v>
       </c>
       <c r="E342" s="2" t="n">
-        <v>440.559</v>
+        <v>440.5585</v>
       </c>
       <c r="F342" s="2" t="n">
         <v>112</v>
@@ -9500,14 +9526,14 @@
           <t>NicholasCYA</t>
         </is>
       </c>
-      <c r="C343" s="84" t="n">
-        <v>2881.076</v>
+      <c r="C343" s="85" t="n">
+        <v>2881.123</v>
       </c>
       <c r="D343" s="2" t="n">
-        <v>3767.115</v>
+        <v>3767.14</v>
       </c>
       <c r="E343" s="2" t="n">
-        <v>443.0195</v>
+        <v>443.0085</v>
       </c>
       <c r="F343" s="2" t="n">
         <v>48</v>
@@ -9520,20 +9546,20 @@
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>V.The1Kenny-/•-</t>
-        </is>
-      </c>
-      <c r="C344" s="85" t="n">
-        <v>2874.187</v>
+          <t>xXRaichu_FireXx</t>
+        </is>
+      </c>
+      <c r="C344" s="86" t="n">
+        <v>2860.469</v>
       </c>
       <c r="D344" s="2" t="n">
-        <v>3491.41</v>
+        <v>3788.535</v>
       </c>
       <c r="E344" s="2" t="n">
-        <v>308.6115</v>
+        <v>464.033</v>
       </c>
       <c r="F344" s="2" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="G344" s="1" t="n"/>
     </row>
@@ -9543,20 +9569,20 @@
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>xXRaichu_FireXx</t>
-        </is>
-      </c>
-      <c r="C345" s="85" t="n">
-        <v>2860.304</v>
+          <t>V.The1Kenny-/•-</t>
+        </is>
+      </c>
+      <c r="C345" s="86" t="n">
+        <v>2856.111</v>
       </c>
       <c r="D345" s="2" t="n">
-        <v>3788.37</v>
+        <v>3482.29</v>
       </c>
       <c r="E345" s="2" t="n">
-        <v>464.033</v>
+        <v>313.0895</v>
       </c>
       <c r="F345" s="2" t="n">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="G345" s="1" t="n"/>
     </row>
@@ -9569,14 +9595,14 @@
           <t>Formula E</t>
         </is>
       </c>
-      <c r="C346" s="86" t="n">
-        <v>2804.36</v>
+      <c r="C346" s="87" t="n">
+        <v>2804.508</v>
       </c>
       <c r="D346" s="2" t="n">
-        <v>3759.55</v>
+        <v>3759.7</v>
       </c>
       <c r="E346" s="2" t="n">
-        <v>477.595</v>
+        <v>477.596</v>
       </c>
       <c r="F346" s="2" t="n">
         <v>17</v>
@@ -9592,14 +9618,14 @@
           <t>4dice</t>
         </is>
       </c>
-      <c r="C347" s="86" t="n">
-        <v>2798.532</v>
+      <c r="C347" s="87" t="n">
+        <v>2798.775000000001</v>
       </c>
       <c r="D347" s="2" t="n">
-        <v>3672.475</v>
+        <v>3672.73</v>
       </c>
       <c r="E347" s="2" t="n">
-        <v>436.9715</v>
+        <v>436.9775</v>
       </c>
       <c r="F347" s="2" t="n">
         <v>95</v>
@@ -9615,14 +9641,14 @@
           <t>Creative Name</t>
         </is>
       </c>
-      <c r="C348" s="86" t="n">
-        <v>2793.682</v>
+      <c r="C348" s="87" t="n">
+        <v>2793.804</v>
       </c>
       <c r="D348" s="2" t="n">
-        <v>3649.345</v>
+        <v>3649.47</v>
       </c>
       <c r="E348" s="2" t="n">
-        <v>427.8315</v>
+        <v>427.833</v>
       </c>
       <c r="F348" s="2" t="n">
         <v>25</v>
@@ -9638,14 +9664,14 @@
           <t>Amazanzanpotato</t>
         </is>
       </c>
-      <c r="C349" s="87" t="n">
-        <v>2785.427</v>
+      <c r="C349" s="88" t="n">
+        <v>2785.538</v>
       </c>
       <c r="D349" s="2" t="n">
-        <v>3656.175</v>
+        <v>3656.29</v>
       </c>
       <c r="E349" s="2" t="n">
-        <v>435.374</v>
+        <v>435.376</v>
       </c>
       <c r="F349" s="2" t="n">
         <v>27</v>
@@ -9658,20 +9684,20 @@
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>RyMother4</t>
-        </is>
-      </c>
-      <c r="C350" s="87" t="n">
-        <v>2764.285</v>
+          <t>LovenRazu</t>
+        </is>
+      </c>
+      <c r="C350" s="88" t="n">
+        <v>2778.674</v>
       </c>
       <c r="D350" s="2" t="n">
-        <v>3742.18</v>
+        <v>3772.57</v>
       </c>
       <c r="E350" s="2" t="n">
-        <v>488.9475</v>
+        <v>496.948</v>
       </c>
       <c r="F350" s="2" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G350" s="1" t="n"/>
     </row>
@@ -9681,20 +9707,20 @@
       </c>
       <c r="B351" s="2" t="inlineStr">
         <is>
-          <t>LovenRazu</t>
-        </is>
-      </c>
-      <c r="C351" s="87" t="n">
-        <v>2754.743</v>
+          <t>ShinyPichu</t>
+        </is>
+      </c>
+      <c r="C351" s="89" t="n">
+        <v>2698.416</v>
       </c>
       <c r="D351" s="2" t="n">
-        <v>3706.8</v>
+        <v>3680.435</v>
       </c>
       <c r="E351" s="2" t="n">
-        <v>476.0285</v>
+        <v>491.0095</v>
       </c>
       <c r="F351" s="2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G351" s="1" t="n"/>
     </row>
@@ -9704,20 +9730,20 @@
       </c>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>ShinyPichu</t>
-        </is>
-      </c>
-      <c r="C352" s="88" t="n">
-        <v>2698.35</v>
+          <t>Vividria</t>
+        </is>
+      </c>
+      <c r="C352" s="89" t="n">
+        <v>2693.002</v>
       </c>
       <c r="D352" s="2" t="n">
-        <v>3680.34</v>
+        <v>3678.995</v>
       </c>
       <c r="E352" s="2" t="n">
-        <v>490.995</v>
+        <v>492.9965</v>
       </c>
       <c r="F352" s="2" t="n">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G352" s="1" t="n"/>
     </row>
@@ -9727,20 +9753,20 @@
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>object fan</t>
-        </is>
-      </c>
-      <c r="C353" s="88" t="n">
-        <v>2697.126</v>
+          <t>Veggie</t>
+        </is>
+      </c>
+      <c r="C353" s="90" t="n">
+        <v>2666.609</v>
       </c>
       <c r="D353" s="2" t="n">
-        <v>3478.845</v>
+        <v>3649.03</v>
       </c>
       <c r="E353" s="2" t="n">
-        <v>390.8595</v>
+        <v>491.2105</v>
       </c>
       <c r="F353" s="2" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="G353" s="1" t="n"/>
     </row>
@@ -9750,20 +9776,20 @@
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>Vividria</t>
-        </is>
-      </c>
-      <c r="C354" s="88" t="n">
-        <v>2692.838999999999</v>
+          <t>Frix</t>
+        </is>
+      </c>
+      <c r="C354" s="90" t="n">
+        <v>2662.103</v>
       </c>
       <c r="D354" s="2" t="n">
-        <v>3678.83</v>
+        <v>3594.2</v>
       </c>
       <c r="E354" s="2" t="n">
-        <v>492.9955</v>
+        <v>466.0485</v>
       </c>
       <c r="F354" s="2" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="G354" s="1" t="n"/>
     </row>
@@ -9773,20 +9799,20 @@
       </c>
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t>Frix</t>
-        </is>
-      </c>
-      <c r="C355" s="89" t="n">
-        <v>2662.059</v>
+          <t>object fan</t>
+        </is>
+      </c>
+      <c r="C355" s="90" t="n">
+        <v>2654.281</v>
       </c>
       <c r="D355" s="2" t="n">
-        <v>3594.135</v>
+        <v>3454.84</v>
       </c>
       <c r="E355" s="2" t="n">
-        <v>466.038</v>
+        <v>400.2795</v>
       </c>
       <c r="F355" s="2" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="G355" s="1" t="n"/>
     </row>
@@ -9796,20 +9822,20 @@
       </c>
       <c r="B356" s="2" t="inlineStr">
         <is>
-          <t>Veggie</t>
-        </is>
-      </c>
-      <c r="C356" s="90" t="n">
-        <v>2619.717</v>
+          <t>battle prattle</t>
+        </is>
+      </c>
+      <c r="C356" s="91" t="n">
+        <v>2604.67</v>
       </c>
       <c r="D356" s="2" t="n">
-        <v>3563.47</v>
+        <v>3500.81</v>
       </c>
       <c r="E356" s="2" t="n">
-        <v>471.8765</v>
+        <v>448.0700000000001</v>
       </c>
       <c r="F356" s="2" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G356" s="1" t="n"/>
     </row>
@@ -9819,20 +9845,20 @@
       </c>
       <c r="B357" s="2" t="inlineStr">
         <is>
-          <t>battle prattle</t>
-        </is>
-      </c>
-      <c r="C357" s="90" t="n">
-        <v>2604.503</v>
+          <t>YTPFan188</t>
+        </is>
+      </c>
+      <c r="C357" s="92" t="n">
+        <v>2565.337</v>
       </c>
       <c r="D357" s="2" t="n">
-        <v>3500.645</v>
+        <v>3466.525</v>
       </c>
       <c r="E357" s="2" t="n">
-        <v>448.071</v>
+        <v>450.5939999999999</v>
       </c>
       <c r="F357" s="2" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="G357" s="1" t="n"/>
     </row>
@@ -9842,20 +9868,20 @@
       </c>
       <c r="B358" s="2" t="inlineStr">
         <is>
-          <t>YTPFan188</t>
-        </is>
-      </c>
-      <c r="C358" s="91" t="n">
-        <v>2565.246</v>
+          <t>Cherry Blossom</t>
+        </is>
+      </c>
+      <c r="C358" s="92" t="n">
+        <v>2557.704</v>
       </c>
       <c r="D358" s="2" t="n">
-        <v>3466.425</v>
+        <v>3553.03</v>
       </c>
       <c r="E358" s="2" t="n">
-        <v>450.5895</v>
+        <v>497.663</v>
       </c>
       <c r="F358" s="2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G358" s="1" t="n"/>
     </row>
@@ -9865,20 +9891,20 @@
       </c>
       <c r="B359" s="2" t="inlineStr">
         <is>
-          <t>Cherry Blossom</t>
-        </is>
-      </c>
-      <c r="C359" s="91" t="n">
-        <v>2557.604</v>
+          <t>Bevan</t>
+        </is>
+      </c>
+      <c r="C359" s="93" t="n">
+        <v>2504.669</v>
       </c>
       <c r="D359" s="2" t="n">
-        <v>3552.92</v>
+        <v>3421.15</v>
       </c>
       <c r="E359" s="2" t="n">
-        <v>497.658</v>
+        <v>458.2405</v>
       </c>
       <c r="F359" s="2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G359" s="1" t="n"/>
     </row>
@@ -9888,20 +9914,20 @@
       </c>
       <c r="B360" s="2" t="inlineStr">
         <is>
-          <t>Bevan</t>
-        </is>
-      </c>
-      <c r="C360" s="92" t="n">
-        <v>2504.499</v>
+          <t>barrellikeplay</t>
+        </is>
+      </c>
+      <c r="C360" s="94" t="n">
+        <v>2498.964</v>
       </c>
       <c r="D360" s="2" t="n">
-        <v>3420.985</v>
+        <v>3328.995</v>
       </c>
       <c r="E360" s="2" t="n">
-        <v>458.243</v>
+        <v>415.0155</v>
       </c>
       <c r="F360" s="2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G360" s="1" t="n"/>
     </row>
@@ -9911,20 +9937,20 @@
       </c>
       <c r="B361" s="2" t="inlineStr">
         <is>
-          <t>barrellikeplay</t>
-        </is>
-      </c>
-      <c r="C361" s="93" t="n">
-        <v>2498.849</v>
+          <t>LuxuryLapras</t>
+        </is>
+      </c>
+      <c r="C361" s="95" t="n">
+        <v>2454.111</v>
       </c>
       <c r="D361" s="2" t="n">
-        <v>3328.875</v>
+        <v>3453.025</v>
       </c>
       <c r="E361" s="2" t="n">
-        <v>415.013</v>
+        <v>499.457</v>
       </c>
       <c r="F361" s="2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G361" s="1" t="n"/>
     </row>
@@ -9934,20 +9960,20 @@
       </c>
       <c r="B362" s="2" t="inlineStr">
         <is>
-          <t>LuxuryLapras</t>
-        </is>
-      </c>
-      <c r="C362" s="94" t="n">
-        <v>2453.929</v>
+          <t>soda11pro!</t>
+        </is>
+      </c>
+      <c r="C362" s="95" t="n">
+        <v>2450.014</v>
       </c>
       <c r="D362" s="2" t="n">
-        <v>3452.845</v>
+        <v>3361.885</v>
       </c>
       <c r="E362" s="2" t="n">
-        <v>499.458</v>
+        <v>455.9355</v>
       </c>
       <c r="F362" s="2" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G362" s="1" t="n"/>
     </row>
@@ -9957,20 +9983,20 @@
       </c>
       <c r="B363" s="2" t="inlineStr">
         <is>
-          <t>soda11pro!</t>
-        </is>
-      </c>
-      <c r="C363" s="94" t="n">
-        <v>2449.907</v>
+          <t>Bluey444</t>
+        </is>
+      </c>
+      <c r="C363" s="95" t="n">
+        <v>2422.239</v>
       </c>
       <c r="D363" s="2" t="n">
-        <v>3361.77</v>
+        <v>3353.83</v>
       </c>
       <c r="E363" s="2" t="n">
-        <v>455.9315</v>
+        <v>465.7954999999999</v>
       </c>
       <c r="F363" s="2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G363" s="1" t="n"/>
     </row>
@@ -9980,20 +10006,20 @@
       </c>
       <c r="B364" s="2" t="inlineStr">
         <is>
-          <t>Bluey444</t>
-        </is>
-      </c>
-      <c r="C364" s="94" t="n">
-        <v>2422.134</v>
+          <t>blu(irre)</t>
+        </is>
+      </c>
+      <c r="C364" s="96" t="n">
+        <v>2352.212</v>
       </c>
       <c r="D364" s="2" t="n">
-        <v>3353.715</v>
+        <v>3317.53</v>
       </c>
       <c r="E364" s="2" t="n">
-        <v>465.7905</v>
+        <v>482.659</v>
       </c>
       <c r="F364" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G364" s="1" t="n"/>
     </row>
@@ -10003,20 +10029,20 @@
       </c>
       <c r="B365" s="2" t="inlineStr">
         <is>
-          <t>blu(irre)</t>
-        </is>
-      </c>
-      <c r="C365" s="95" t="n">
-        <v>2352.143</v>
+          <t>jamo62</t>
+        </is>
+      </c>
+      <c r="C365" s="97" t="n">
+        <v>2294.693</v>
       </c>
       <c r="D365" s="2" t="n">
-        <v>3317.440000000001</v>
+        <v>3142.37</v>
       </c>
       <c r="E365" s="2" t="n">
-        <v>482.6485</v>
+        <v>423.8385</v>
       </c>
       <c r="F365" s="2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G365" s="1" t="n"/>
     </row>
@@ -10026,20 +10052,20 @@
       </c>
       <c r="B366" s="2" t="inlineStr">
         <is>
-          <t>jamo62</t>
-        </is>
-      </c>
-      <c r="C366" s="96" t="n">
-        <v>2259.643</v>
+          <t>Libertarial</t>
+        </is>
+      </c>
+      <c r="C366" s="98" t="n">
+        <v>2252.729</v>
       </c>
       <c r="D366" s="2" t="n">
-        <v>3088.265</v>
+        <v>3221.7</v>
       </c>
       <c r="E366" s="2" t="n">
-        <v>414.311</v>
+        <v>484.4855</v>
       </c>
       <c r="F366" s="2" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G366" s="1" t="n"/>
     </row>
@@ -10049,20 +10075,20 @@
       </c>
       <c r="B367" s="2" t="inlineStr">
         <is>
-          <t>Libertarial</t>
-        </is>
-      </c>
-      <c r="C367" s="96" t="n">
-        <v>2252.687</v>
+          <t>Su_TartEmpire</t>
+        </is>
+      </c>
+      <c r="C367" s="99" t="n">
+        <v>2218.476</v>
       </c>
       <c r="D367" s="2" t="n">
-        <v>3221.64</v>
+        <v>3112.98</v>
       </c>
       <c r="E367" s="2" t="n">
-        <v>484.4765</v>
+        <v>447.252</v>
       </c>
       <c r="F367" s="2" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G367" s="1" t="n"/>
     </row>
@@ -10072,20 +10098,20 @@
       </c>
       <c r="B368" s="2" t="inlineStr">
         <is>
-          <t>Su_TartEmpire</t>
-        </is>
-      </c>
-      <c r="C368" s="97" t="n">
-        <v>2218.352</v>
+          <t>Foam Soap</t>
+        </is>
+      </c>
+      <c r="C368" s="100" t="n">
+        <v>2126.733</v>
       </c>
       <c r="D368" s="2" t="n">
-        <v>3112.85</v>
+        <v>2999.08</v>
       </c>
       <c r="E368" s="2" t="n">
-        <v>447.249</v>
+        <v>436.1735</v>
       </c>
       <c r="F368" s="2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G368" s="1" t="n"/>
     </row>
@@ -10095,20 +10121,20 @@
       </c>
       <c r="B369" s="2" t="inlineStr">
         <is>
-          <t>Foam Soap</t>
-        </is>
-      </c>
-      <c r="C369" s="98" t="n">
-        <v>2126.656</v>
+          <t>bananapajama27</t>
+        </is>
+      </c>
+      <c r="C369" s="101" t="n">
+        <v>2109.741</v>
       </c>
       <c r="D369" s="2" t="n">
-        <v>2998.995</v>
+        <v>3062.91</v>
       </c>
       <c r="E369" s="2" t="n">
-        <v>436.1695</v>
+        <v>476.5845</v>
       </c>
       <c r="F369" s="2" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G369" s="1" t="n"/>
     </row>
@@ -10118,45 +10144,22 @@
       </c>
       <c r="B370" s="2" t="inlineStr">
         <is>
-          <t>bananapajama27</t>
-        </is>
-      </c>
-      <c r="C370" s="99" t="n">
-        <v>2109.63</v>
+          <t>gary777777</t>
+        </is>
+      </c>
+      <c r="C370" s="102" t="n">
+        <v>1302.528</v>
       </c>
       <c r="D370" s="2" t="n">
-        <v>3062.795</v>
+        <v>2200.73</v>
       </c>
       <c r="E370" s="2" t="n">
-        <v>476.5825</v>
+        <v>449.101</v>
       </c>
       <c r="F370" s="2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G370" s="1" t="n"/>
-    </row>
-    <row r="371" ht="23" customHeight="1">
-      <c r="A371" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B371" s="2" t="inlineStr">
-        <is>
-          <t>gary777777</t>
-        </is>
-      </c>
-      <c r="C371" s="100" t="n">
-        <v>1302.427</v>
-      </c>
-      <c r="D371" s="2" t="n">
-        <v>2200.62</v>
-      </c>
-      <c r="E371" s="2" t="n">
-        <v>449.0965</v>
-      </c>
-      <c r="F371" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="G371" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
